--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCD4753-6ACA-4E08-9B25-99F1902EBA13}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722F3D02-3C37-403C-A300-416227AC05FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Species</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Capsella rubella</t>
+  </si>
+  <si>
+    <t>Populus trichocarpa</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ng.3075</t>
   </si>
 </sst>
 </file>
@@ -507,9 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -763,6 +771,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition ref="A2:A23"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722F3D02-3C37-403C-A300-416227AC05FB}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A0C700-6810-4551-9C6C-FBF40A481374}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Species</t>
   </si>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/ng.3075</t>
+  </si>
+  <si>
+    <t>PRJEB38910</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186%2Fs12870-021-03103-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA516416 </t>
+  </si>
+  <si>
+    <t>PRJNA276056</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/mec.13126</t>
+  </si>
+  <si>
+    <t>PRJEB6689</t>
+  </si>
+  <si>
+    <t>Capsella grandiflora</t>
+  </si>
+  <si>
+    <t>Capsella orientalis</t>
   </si>
 </sst>
 </file>
@@ -513,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,14 +792,63 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A0C700-6810-4551-9C6C-FBF40A481374}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5212DE-2050-4172-B96D-57B23734B773}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Species</t>
   </si>
@@ -220,6 +220,30 @@
   </si>
   <si>
     <t>Capsella orientalis</t>
+  </si>
+  <si>
+    <t>PRJEB39830</t>
+  </si>
+  <si>
+    <t>PRJNA505390</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1534/genetics.118.301589</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/agriculture11070667</t>
+  </si>
+  <si>
+    <t>PRJNA722274</t>
+  </si>
+  <si>
+    <t>Seems like this data has very few reliable SNPs</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Medicago truncatula</t>
   </si>
 </sst>
 </file>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +574,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,13 +584,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -577,7 +604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -585,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -593,269 +620,297 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C32" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
-    <sortCondition ref="A2:A23"/>
-    <sortCondition ref="C2:C23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="C2:C38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5212DE-2050-4172-B96D-57B23734B773}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDB8A2A-7700-4573-BDBC-5E566FB1AC20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>Species</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Arabidopsis thaliana</t>
   </si>
   <si>
-    <t>Bracypodium distachyon</t>
-  </si>
-  <si>
     <t>Triticum aestivum</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>SRP155312</t>
   </si>
   <si>
-    <t>Cotton</t>
-  </si>
-  <si>
     <t>SRP115740</t>
   </si>
   <si>
@@ -244,19 +238,229 @@
   </si>
   <si>
     <t>Medicago truncatula</t>
+  </si>
+  <si>
+    <t>Cinnamomum kanehirae</t>
+  </si>
+  <si>
+    <t>Nymphaea colorata</t>
+  </si>
+  <si>
+    <t>Aquilegia coerulea</t>
+  </si>
+  <si>
+    <t>Amaranthus hypochondriacus</t>
+  </si>
+  <si>
+    <t>Beta vulgaris</t>
+  </si>
+  <si>
+    <t>Chenopodium quinoa</t>
+  </si>
+  <si>
+    <t>Kalanchoe fedtschenkoi </t>
+  </si>
+  <si>
+    <t>Spinacia oleracea </t>
+  </si>
+  <si>
+    <t>Daucus carota</t>
+  </si>
+  <si>
+    <t>Helianthus annuus </t>
+  </si>
+  <si>
+    <t>Lactuca sativa</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Solanum tuberosum</t>
+  </si>
+  <si>
+    <t>Vaccinium darrowii </t>
+  </si>
+  <si>
+    <t>Eucalyptus grandis</t>
+  </si>
+  <si>
+    <t>Arachis hypogaea</t>
+  </si>
+  <si>
+    <t>Betula platyphylla</t>
+  </si>
+  <si>
+    <t>Cicer arietinum </t>
+  </si>
+  <si>
+    <t>Cucumis sativus</t>
+  </si>
+  <si>
+    <t>Fragaria vesca</t>
+  </si>
+  <si>
+    <t>Fragaria x ananassa</t>
+  </si>
+  <si>
+    <t>Glycine soja</t>
+  </si>
+  <si>
+    <t>Lens culinaris</t>
+  </si>
+  <si>
+    <t>Lens ervoides</t>
+  </si>
+  <si>
+    <t>Lotus japonicus</t>
+  </si>
+  <si>
+    <t>Lupinus albus</t>
+  </si>
+  <si>
+    <t>Phaseolus acutifolius</t>
+  </si>
+  <si>
+    <t>Prunus persica</t>
+  </si>
+  <si>
+    <t>Trifolium pratense</t>
+  </si>
+  <si>
+    <t>Carya illinoinensis</t>
+  </si>
+  <si>
+    <t>Vigna unguiculata</t>
+  </si>
+  <si>
+    <t>Corymbia citriodora</t>
+  </si>
+  <si>
+    <t>Linum usitatissimum</t>
+  </si>
+  <si>
+    <t>Manihot esculenta</t>
+  </si>
+  <si>
+    <t>Ricinus communis</t>
+  </si>
+  <si>
+    <t>Salix purpurea</t>
+  </si>
+  <si>
+    <t>Carica papaya</t>
+  </si>
+  <si>
+    <t>Theobroma cacao</t>
+  </si>
+  <si>
+    <t>Boechera stricta</t>
+  </si>
+  <si>
+    <t>Eutrema salsugineum</t>
+  </si>
+  <si>
+    <t>Schrenkiella parvula</t>
+  </si>
+  <si>
+    <t>Brassica oleracea capitata</t>
+  </si>
+  <si>
+    <t>Brassica rapa</t>
+  </si>
+  <si>
+    <t>Gossypium barbadense</t>
+  </si>
+  <si>
+    <t>Gossypium darwinii</t>
+  </si>
+  <si>
+    <t>Gossypium hirsutum </t>
+  </si>
+  <si>
+    <t>Gossypium mustelinum</t>
+  </si>
+  <si>
+    <t>Gossypium raimondii</t>
+  </si>
+  <si>
+    <t>Gossypium tomentosum</t>
+  </si>
+  <si>
+    <t>Citrus clementina</t>
+  </si>
+  <si>
+    <t>Citrus sinensis</t>
+  </si>
+  <si>
+    <t>Poncirus trifoliata</t>
+  </si>
+  <si>
+    <t>Ananas comosus</t>
+  </si>
+  <si>
+    <t>Asparagus officinalis </t>
+  </si>
+  <si>
+    <t>Dioscorea alata</t>
+  </si>
+  <si>
+    <t>Musa acuminata</t>
+  </si>
+  <si>
+    <t>Spirodela polyrhiza</t>
+  </si>
+  <si>
+    <t>Zostera marina </t>
+  </si>
+  <si>
+    <t>Oropetium thomaeum</t>
+  </si>
+  <si>
+    <t>Brachypodium hybridum</t>
+  </si>
+  <si>
+    <t>Brachypodium stacei</t>
+  </si>
+  <si>
+    <t>Brachypodium distachyon</t>
+  </si>
+  <si>
+    <t>Miscanthus sinensis </t>
+  </si>
+  <si>
+    <t>Panicum virgatum</t>
+  </si>
+  <si>
+    <t>Setaria italica </t>
+  </si>
+  <si>
+    <t>Setaria viridis</t>
+  </si>
+  <si>
+    <t>Panicum hallii</t>
+  </si>
+  <si>
+    <t>PRJNA399050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,8 +483,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,15 +766,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
@@ -585,332 +790,670 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C98" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C101" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>9</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>72</v>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
-    <sortCondition ref="A2:A38"/>
-    <sortCondition ref="C2:C38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
+    <sortCondition ref="A2:A106"/>
+    <sortCondition ref="C2:C106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDB8A2A-7700-4573-BDBC-5E566FB1AC20}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64445B0B-3F40-4F7B-B7C6-E0A13B102E3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="188">
   <si>
     <t>Species</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Daucus carota</t>
   </si>
   <si>
-    <t>Helianthus annuus </t>
-  </si>
-  <si>
     <t>Lactuca sativa</t>
   </si>
   <si>
@@ -442,16 +439,188 @@
   </si>
   <si>
     <t>PRJNA399050</t>
+  </si>
+  <si>
+    <t>PRJEB30531</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>couldn't find anything in SRA</t>
+  </si>
+  <si>
+    <t>PRJNA389669</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-019-0506-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/molbev/msz304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA548624 </t>
+  </si>
+  <si>
+    <t>RAD-seq</t>
+  </si>
+  <si>
+    <t>PRJDB4621</t>
+  </si>
+  <si>
+    <t>PRJNA479538</t>
+  </si>
+  <si>
+    <t>GBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA687812 </t>
+  </si>
+  <si>
+    <t>PRJEB48367</t>
+  </si>
+  <si>
+    <t>Includes some RILS, not sure if this is good</t>
+  </si>
+  <si>
+    <t>PRJNA815240</t>
+  </si>
+  <si>
+    <t>PRJNA251226</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-019-1729-9</t>
+  </si>
+  <si>
+    <t>see paper for more bioprojects potentially</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-17302-5</t>
+  </si>
+  <si>
+    <t>See Supplemental Data 4 in publication</t>
+  </si>
+  <si>
+    <t>PRJNA544934</t>
+  </si>
+  <si>
+    <t>https://doi-org.proxy2.cl.msu.edu/10.1093/molbev/msab183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA374457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA312457 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sdata.2016.119</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>Arabis alpina</t>
+  </si>
+  <si>
+    <t>PRJEB20772</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1707492115</t>
+  </si>
+  <si>
+    <t>Not on phytozome</t>
+  </si>
+  <si>
+    <t>Picea abies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/gbe/evaa005</t>
+  </si>
+  <si>
+    <t>PRJEB34927</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nph.17793</t>
+  </si>
+  <si>
+    <t>Oak tree</t>
+  </si>
+  <si>
+    <t>SRP054739, SRP134283-SRP134373, SRP134393-SRP134433, SRP134436-SRP134479, SRP134481-SRP134572, and SRP134581-SRP134671</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/gbe/evac043</t>
+  </si>
+  <si>
+    <t>PRJNA673789</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.66873</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-021-04066-1</t>
+  </si>
+  <si>
+    <t>PRJNA657888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA473768 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41438-018-0080-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA473554 </t>
+  </si>
+  <si>
+    <t>PRJNA171718</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ng.2801</t>
+  </si>
+  <si>
+    <t>PRJNA576311</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/aob/mcaa122</t>
+  </si>
+  <si>
+    <t>https://doi-org.proxy2.cl.msu.edu/10.1111/eva.13480</t>
+  </si>
+  <si>
+    <t>PRJNA597660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,14 +649,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,11 +940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -797,21 +969,45 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -842,620 +1038,895 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>102</v>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>184</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>10</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C103" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C108" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>128</v>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-    <sortCondition ref="A2:A106"/>
-    <sortCondition ref="C2:C106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
+    <sortCondition ref="A2:A110"/>
+    <sortCondition ref="C2:C110"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B112" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64445B0B-3F40-4F7B-B7C6-E0A13B102E3A}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9C5CC6-08E1-4488-B555-D183D2515463}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
   <si>
     <t>Species</t>
   </si>
@@ -589,6 +600,69 @@
   </si>
   <si>
     <t>PRJNA597660</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1104032108</t>
+  </si>
+  <si>
+    <t>PRJNA720818</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/pbi.13747</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-020-2947-8</t>
+  </si>
+  <si>
+    <t>PRJEB36577</t>
+  </si>
+  <si>
+    <t>PRJNA693894</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-021-00831-0</t>
+  </si>
+  <si>
+    <t>PRJNA639210</t>
+  </si>
+  <si>
+    <t>doi:10.1017/S147926212100006X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2021.628439</t>
+  </si>
+  <si>
+    <t>PRJEB38912</t>
+  </si>
+  <si>
+    <t>SRP001874</t>
+  </si>
+  <si>
+    <t>PRJNA707038</t>
+  </si>
+  <si>
+    <t>couldn't find publication</t>
+  </si>
+  <si>
+    <t>PRJEB27969</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-019-14213-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA234390 </t>
+  </si>
+  <si>
+    <t>562–570 (2016). https://doi.org/10.1038/nbt.3535</t>
+  </si>
+  <si>
+    <t>PRJNA234389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA170333 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3732/ajb.1300285</t>
   </si>
 </sst>
 </file>
@@ -940,9 +1014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1483,11 +1559,23 @@
       <c r="A49" t="s">
         <v>113</v>
       </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1504,16 +1592,34 @@
       <c r="A52" t="s">
         <v>116</v>
       </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>117</v>
       </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1530,300 +1636,390 @@
       <c r="A56" t="s">
         <v>25</v>
       </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>92</v>
       </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>102</v>
       </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>19</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>21</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>3</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>44</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
       <c r="C82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
       <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>18</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>32</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>35</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,23 +2035,23 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,60 +2067,76 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
-      </c>
-      <c r="D111" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
       </c>
       <c r="D113" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
-    <sortCondition ref="A2:A110"/>
-    <sortCondition ref="C2:C110"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+    <sortCondition ref="A2:A112"/>
+    <sortCondition ref="C2:C112"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B112" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B114" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/Education/MichiganStateUniversity/Josephs_Lab_Projects/tajimasDacrossSpecies/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\4260834_2_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="11_F25DC773A252ABDACC104837A95C598C5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5165D49C-CBCE-4E3A-AEC2-6A96A83394CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="299">
   <si>
     <t>Species</t>
   </si>
@@ -809,9 +809,6 @@
     <t>Potentially a lot more data for this species, but I can't find the raw data on the SRA</t>
   </si>
   <si>
-    <t>Includes 3 subspecies</t>
-  </si>
-  <si>
     <t>Could potentially find more data in SRA?</t>
   </si>
   <si>
@@ -894,6 +891,48 @@
   </si>
   <si>
     <t>WGS; I found 38 accessions in the SRA, but only 36 are mentioned in the publication</t>
+  </si>
+  <si>
+    <t>Found 537 in SRA based on the project numbers given in the publication</t>
+  </si>
+  <si>
+    <t>doi: 10.3390/ijms21186700</t>
+  </si>
+  <si>
+    <t>PRJNA605320</t>
+  </si>
+  <si>
+    <t>A smaller number of accessions compared to other studies, but I can clearly identify them in the SRA, 55 accessions mentioned in publications but there are 56 in the SRA</t>
+  </si>
+  <si>
+    <t>PRJNA681974 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2022.03.24.485586</t>
+  </si>
+  <si>
+    <t>doi:10.1038/nbt.3096</t>
+  </si>
+  <si>
+    <t>PRJNA257011 </t>
+  </si>
+  <si>
+    <t>PRJNA552939</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molp.2020.01.014</t>
+  </si>
+  <si>
+    <t>279 accessions</t>
+  </si>
+  <si>
+    <t>Following the methods in this paper, I should get 2214 Glycine accessions. This paper published new sequences for 1674 accessions, the rest were previously published. However, this paper includes some Glycine soja accessions, which I will need to separate out. Maybe I can use these accessions? The paper says there should only be 1,993 glycine max accessions, but I'm seeing 2193 across all three studies...</t>
+  </si>
+  <si>
+    <t>302 accessions in study, but only 240 are Glycine max</t>
+  </si>
+  <si>
+    <t>Includes 3 subspecies. Paper mentions 187 accessions, but I only found 185. There are some non-public accessions in this group too. I only got 85 unique samples though… Also there's some pacbio data in here</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1357,10 @@
         <v>212</v>
       </c>
       <c r="F1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" t="s">
         <v>260</v>
-      </c>
-      <c r="G1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,7 +1467,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -1441,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1519,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -1543,12 +1582,17 @@
       <c r="C16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="E16" s="11">
         <v>467</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,85 +1609,80 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="11">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="11">
-        <v>107</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="D19" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>156</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="11">
-        <v>119</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>159</v>
@@ -1655,105 +1694,117 @@
         <v>160</v>
       </c>
       <c r="E23" s="11">
+        <v>119</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="11">
         <v>199</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>40</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="11">
         <v>52</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>137</v>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>136</v>
@@ -1762,100 +1813,100 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="11">
-        <v>296</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>262</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="11">
+        <v>296</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="11">
+        <v>3171</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="11">
-        <v>3171</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>337</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>137</v>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>136</v>
@@ -1866,7 +1917,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
@@ -1875,41 +1926,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>115</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>145</v>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,7 +1968,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>145</v>
@@ -1928,43 +1976,46 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>136</v>
@@ -1975,7 +2026,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
@@ -1986,7 +2037,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -1997,7 +2048,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
@@ -2006,125 +2057,134 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1674</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="11">
-        <v>438</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="D52" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11">
+      <c r="D53" s="8"/>
+      <c r="E53" s="11">
         <v>185</v>
       </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11">
+      <c r="D54" s="8"/>
+      <c r="E54" s="11">
         <v>336</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="11">
-        <v>1081</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>137</v>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>136</v>
@@ -2133,55 +2193,52 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>137</v>
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11">
+        <v>1081</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="11">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>136</v>
@@ -2190,376 +2247,355 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E60" s="11">
-        <v>131</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>262</v>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>145</v>
+    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" s="11">
-        <v>136</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>262</v>
+    <row r="64" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" s="11">
+        <v>131</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="11">
-        <v>44</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>262</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="11">
+        <v>136</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B71" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="11">
+        <v>44</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="3">
+        <v>39</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="3">
-        <v>39</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C75" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" s="11">
-        <v>38</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E76" s="11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>136</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="12">
-        <v>3024</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E80" s="11">
-        <f>94+78+15</f>
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="11">
-        <v>747</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>262</v>
+      <c r="G80" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
       </c>
       <c r="C82" t="s">
         <v>136</v>
@@ -2568,581 +2604,617 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="11">
-        <v>683</v>
+        <v>4</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="12">
+        <v>3024</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>137</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="11">
+        <v>85</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E85" s="11">
-        <v>52</v>
+        <v>747</v>
       </c>
       <c r="F85" s="3">
         <v>1</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" t="s">
-        <v>56</v>
+        <v>136</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="11">
+        <v>683</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="11">
+        <v>52</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>51</v>
       </c>
-      <c r="B89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E90" s="11">
-        <v>428</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>262</v>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>137</v>
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94" s="11">
-        <v>909</v>
+        <v>428</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E95" s="11">
-        <v>38</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>136</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="E98" s="11">
-        <v>360</v>
+        <v>909</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="11">
+        <v>38</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E102" s="11">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E103" s="11">
-        <v>296</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E104" s="11">
-        <v>36</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="11">
+        <v>400</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E107" s="11">
+        <v>296</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E108" s="11">
+        <v>36</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E113" s="11">
-        <v>117</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>262</v>
+        <v>23</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" s="11">
+        <v>117</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="11">
+      <c r="D120" s="8"/>
+      <c r="E120" s="11">
         <v>1218</v>
       </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="D121" s="8"/>
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="D122" s="8"/>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" t="s">
-        <v>162</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>165</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" t="s">
-        <v>168</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" t="s">
-        <v>247</v>
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>239</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>161</v>
+      </c>
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" t="s">
+        <v>162</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>164</v>
@@ -3150,7 +3222,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>165</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" t="s">
+        <v>167</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>164</v>
@@ -3158,45 +3236,84 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" t="s">
-        <v>40</v>
+        <v>169</v>
+      </c>
+      <c r="B127" t="s">
+        <v>168</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E128" s="13">
-        <f>SUM(E2:E123)</f>
-        <v>18101</v>
-      </c>
-      <c r="F128" s="5" t="s">
+      <c r="A128" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="13">
+        <f>SUM(E2:E127)</f>
+        <v>19703</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="13">
-        <f>SUM(F2:F123)</f>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="13">
+        <f>SUM(F2:F127)</f>
         <v>40</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F133" s="5" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-    <sortCondition ref="A2:A120"/>
-    <sortCondition ref="C2:C120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D124">
+    <sortCondition ref="A2:A124"/>
+    <sortCondition ref="C2:C124"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B122" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
-    <hyperlink ref="B67" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
+    <hyperlink ref="B126" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
+    <hyperlink ref="B71" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\4260834_2_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/66962_2_13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{426CDD82-63B8-4424-9885-81CE2250AC06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="302">
   <si>
     <t>Species</t>
   </si>
@@ -933,6 +933,15 @@
   </si>
   <si>
     <t>Includes 3 subspecies. Paper mentions 187 accessions, but I only found 185. There are some non-public accessions in this group too. I only got 85 unique samples though… Also there's some pacbio data in here</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/gigascience/gix134</t>
+  </si>
+  <si>
+    <t>Paper lists 1218 taxa across all four studies</t>
+  </si>
+  <si>
+    <t>I could not find data linked to this study in the SRA</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,13 +1043,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,20 +1634,19 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2125,20 +2126,19 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -2471,20 +2471,19 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -3154,25 +3153,35 @@
       <c r="A120" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B120" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="C120" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="D120" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="E120" s="11">
-        <v>1218</v>
+        <v>33</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3183,7 +3192,9 @@
         <v>5</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="11">
+        <v>277</v>
+      </c>
     </row>
     <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -3193,7 +3204,9 @@
         <v>8</v>
       </c>
       <c r="D123" s="8"/>
-      <c r="E123" s="11"/>
+      <c r="E123" s="11">
+        <v>599</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3286,7 +3299,7 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E132" s="13">
         <f>SUM(E2:E127)</f>
-        <v>19703</v>
+        <v>19394</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>215</v>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/66962_2_13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/395010_2_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{426CDD82-63B8-4424-9885-81CE2250AC06}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648528EA-2A51-46A0-AC9E-65190091873F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="304">
   <si>
     <t>Species</t>
   </si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>I could not find data linked to this study in the SRA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-022-35368-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-020-00722-w</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1050,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,23 +1335,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.26171875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="35.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1450,263 +1457,258 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11">
+        <v>142</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>245</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11">
+      <c r="D9" s="8"/>
+      <c r="E9" s="11">
         <v>1135</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>597</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>467</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>151</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>56</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>156</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="11">
-        <v>119</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>159</v>
@@ -1718,105 +1720,117 @@
         <v>160</v>
       </c>
       <c r="E24" s="11">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="11">
         <v>199</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
         <v>109</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>40</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>52</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>136</v>
@@ -1825,100 +1839,100 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>296</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>3171</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>337</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
@@ -1927,9 +1941,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
@@ -1938,44 +1952,41 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>115</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1983,51 +1994,54 @@
         <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="C42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
@@ -2036,9 +2050,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2047,9 +2061,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
@@ -2058,9 +2072,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
@@ -2069,176 +2083,176 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1674</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11">
-        <v>185</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="11">
+        <v>185</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="11">
         <v>336</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="C55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="11">
+      <c r="D57" s="8"/>
+      <c r="E57" s="11">
         <v>1081</v>
       </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>136</v>
@@ -2247,9 +2261,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -2258,284 +2272,284 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11">
+      <c r="D63" s="8"/>
+      <c r="E63" s="11">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
         <v>74</v>
       </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>131</v>
       </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>89</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>193</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>192</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" t="s">
-        <v>195</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
         <v>99</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="C68" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="7" t="s">
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E69" s="11">
-        <v>136</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="E70" s="11">
+        <v>136</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>92</v>
       </c>
-      <c r="C70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>44</v>
       </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
         <v>100</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="3">
         <v>39</v>
       </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>67</v>
       </c>
       <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
         <v>185</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>38</v>
       </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
         <v>129</v>
-      </c>
-      <c r="C77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
@@ -2544,275 +2558,275 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
         <v>69</v>
       </c>
-      <c r="C79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>52</v>
       </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
-      <c r="B82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>3024</v>
       </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>85</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>747</v>
       </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="C86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="C87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="11">
+      <c r="D88" s="8"/>
+      <c r="E88" s="11">
         <v>683</v>
       </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
         <v>118</v>
       </c>
-      <c r="C88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>52</v>
       </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>51</v>
       </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
       <c r="C92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>51</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E95" s="11">
         <v>428</v>
       </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
         <v>101</v>
-      </c>
-      <c r="C95" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>102</v>
       </c>
       <c r="C96" t="s">
         <v>136</v>
@@ -2821,9 +2835,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
@@ -2832,268 +2846,273 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D99" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E99" s="11">
         <v>909</v>
       </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E100" s="11">
         <v>38</v>
       </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>18</v>
       </c>
       <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E103" s="11">
         <v>360</v>
       </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
         <v>79</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>31</v>
       </c>
       <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
         <v>227</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>226</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E107" s="11">
         <v>400</v>
       </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E108" s="11">
         <v>296</v>
       </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E109" s="11">
         <v>36</v>
       </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
         <v>104</v>
       </c>
-      <c r="C109" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="C110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
         <v>27</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>64</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D113" s="14" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="D114" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
         <v>80</v>
-      </c>
-      <c r="C114" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>97</v>
       </c>
       <c r="C115" t="s">
         <v>136</v>
@@ -3102,229 +3121,240 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E118" s="11">
         <v>117</v>
       </c>
-      <c r="F117" s="3">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E120" s="11">
-        <v>33</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B121" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="C121" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E121" s="11">
+        <v>33</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="11">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="11">
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D125" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
         <v>161</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>163</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>162</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>165</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C126" t="s">
-        <v>167</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" t="s">
+        <v>167</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>267</v>
+        <v>246</v>
+      </c>
+      <c r="B129" t="s">
+        <v>247</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="13">
-        <f>SUM(E2:E127)</f>
-        <v>19394</v>
-      </c>
-      <c r="F132" s="5" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="13">
+        <f>SUM(E2:E128)</f>
+        <v>19536</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="13">
-        <f>SUM(F2:F127)</f>
-        <v>40</v>
-      </c>
-      <c r="F133" s="5" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134" s="13">
+        <f>SUM(F2:F128)</f>
+        <v>41</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D124">
-    <sortCondition ref="A2:A124"/>
-    <sortCondition ref="C2:C124"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
+    <sortCondition ref="A2:A125"/>
+    <sortCondition ref="C2:C125"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
-    <hyperlink ref="B33" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
-    <hyperlink ref="B71" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
-    <hyperlink ref="B29" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
+    <hyperlink ref="B127" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
+    <hyperlink ref="B72" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
+    <hyperlink ref="B19" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/395010_2_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648528EA-2A51-46A0-AC9E-65190091873F}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC694DE-D7C9-42F1-81E8-C3ADB98656A4}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2922" yWindow="114" windowWidth="20118" windowHeight="12846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="306">
   <si>
     <t>Species</t>
   </si>
@@ -948,6 +948,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/s41588-020-00722-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-022-01189-7</t>
+  </si>
+  <si>
+    <t>PRJEB48988 (WGS) and PRJEB48738 (WGS)</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1051,8 +1057,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1337,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3086,29 +3098,43 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="B113" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="5" t="s">
+      <c r="E113" s="11">
+        <v>786</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="13"/>
+      <c r="E114" s="16"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
@@ -3329,7 +3355,7 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E133" s="13">
         <f>SUM(E2:E128)</f>
-        <v>19536</v>
+        <v>20322</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>215</v>
@@ -3338,7 +3364,7 @@
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E134" s="13">
         <f>SUM(F2:F128)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>241</v>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC694DE-D7C9-42F1-81E8-C3ADB98656A4}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E490A58-4C96-4B65-AC1C-0143E4C37EB5}"/>
   <bookViews>
     <workbookView xWindow="2922" yWindow="114" windowWidth="20118" windowHeight="12846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,9 +671,6 @@
     <t>PRJNA622568</t>
   </si>
   <si>
-    <t>doi: 10.1371/journal.pbio.3001681</t>
-  </si>
-  <si>
     <t>Sample size</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
     <t>3171 genomes are from this species, but publication mentions 3366</t>
   </si>
   <si>
-    <t>Publication mentions 414 genomes, but only 402 are on the SRA and only 337 genomes are of the relevant species</t>
-  </si>
-  <si>
     <t>Vanilla planifolia</t>
   </si>
   <si>
@@ -954,6 +948,12 @@
   </si>
   <si>
     <t>PRJEB48988 (WGS) and PRJEB48738 (WGS)</t>
+  </si>
+  <si>
+    <t>Not on phytozome; Publication mentions 414 genomes, but only 402 are on the SRA and only 337 genomes are of the relevant species</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-020-03127-1; doi: 10.1371/journal.pbio.3001681</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,13 +1055,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1375,13 +1368,13 @@
         <v>66</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
         <v>259</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1402,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1434,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1466,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1474,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="11">
@@ -1484,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1492,13 +1485,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1506,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -1519,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1582,13 +1575,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15" s="11">
         <v>597</v>
@@ -1597,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1622,7 +1615,7 @@
         <v>170</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E17" s="11">
         <v>467</v>
@@ -1631,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1653,13 +1646,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="E19" s="11">
         <v>56</v>
@@ -1668,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1682,7 +1675,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1738,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1761,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1780,7 +1773,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>61</v>
@@ -1795,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1822,13 +1815,13 @@
         <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E30" s="11">
         <v>52</v>
@@ -1837,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1873,7 +1866,7 @@
         <v>172</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="11">
         <v>296</v>
@@ -1882,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1896,7 +1889,7 @@
         <v>175</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E34" s="11">
         <v>3171</v>
@@ -1905,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1930,7 +1923,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="E36" s="11">
         <v>337</v>
@@ -1939,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1995,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2111,13 +2104,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E50" s="11">
         <v>1674</v>
@@ -2126,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2134,13 +2127,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E51" s="11">
         <v>240</v>
@@ -2151,13 +2144,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="E52" s="11">
         <v>279</v>
@@ -2174,7 +2167,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2195,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2216,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2235,10 +2228,10 @@
         <v>112</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="11">
@@ -2248,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2259,7 +2252,7 @@
         <v>134</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2327,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2352,7 +2345,7 @@
         <v>190</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E65" s="11">
         <v>131</v>
@@ -2361,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2421,7 @@
         <v>199</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" s="11">
         <v>136</v>
@@ -2437,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2456,13 +2449,13 @@
         <v>100</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E72" s="11">
         <v>44</v>
@@ -2471,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2490,10 +2483,10 @@
         <v>67</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>160</v>
@@ -2505,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2516,10 +2509,10 @@
         <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2533,7 +2526,7 @@
         <v>196</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2544,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E77" s="11">
         <v>38</v>
@@ -2556,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2603,7 +2596,7 @@
         <v>206</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E81" s="11">
         <v>52</v>
@@ -2612,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2651,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E84" s="12">
         <v>3024</v>
@@ -2660,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -2674,7 +2667,7 @@
         <v>47</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E85" s="11">
         <v>85</v>
@@ -2683,21 +2676,21 @@
         <v>1</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>211</v>
+      <c r="B86" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E86" s="11">
         <v>747</v>
@@ -2706,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2738,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2763,7 +2756,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E90" s="11">
         <v>52</v>
@@ -2772,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2818,13 +2811,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E95" s="11">
         <v>428</v>
@@ -2833,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2874,13 +2867,13 @@
         <v>131</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E99" s="11">
         <v>909</v>
@@ -2889,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2897,13 +2890,13 @@
         <v>132</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E100" s="11">
         <v>38</v>
@@ -2912,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2928,7 +2921,7 @@
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>145</v>
@@ -2939,10 +2932,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>160</v>
@@ -2954,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2962,10 +2955,10 @@
         <v>79</v>
       </c>
       <c r="C104" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2987,13 +2980,13 @@
         <v>31</v>
       </c>
       <c r="B106" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C106" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3001,10 +2994,10 @@
         <v>31</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>160</v>
@@ -3016,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3024,13 +3017,13 @@
         <v>75</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E108" s="11">
         <v>296</v>
@@ -3039,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3047,13 +3040,13 @@
         <v>123</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E109" s="11">
         <v>36</v>
@@ -3062,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3095,7 +3088,7 @@
         <v>95</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3103,13 +3096,13 @@
         <v>23</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" s="11">
         <v>786</v>
@@ -3118,23 +3111,22 @@
         <v>1</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D114" s="15" t="s">
+      <c r="B114" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="16"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
@@ -3171,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E118" s="11">
         <v>117</v>
@@ -3186,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3210,13 +3202,13 @@
         <v>9</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E121" s="11">
         <v>33</v>
@@ -3225,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3236,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E122" s="11"/>
     </row>
@@ -3269,10 +3261,10 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3316,10 +3308,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
         <v>246</v>
-      </c>
-      <c r="B129" t="s">
-        <v>247</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>164</v>
@@ -3327,7 +3319,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>164</v>
@@ -3335,7 +3327,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>164</v>
@@ -3358,7 +3350,7 @@
         <v>20322</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3367,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3381,8 +3373,9 @@
     <hyperlink ref="B72" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
     <hyperlink ref="B19" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
+    <hyperlink ref="B86" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E490A58-4C96-4B65-AC1C-0143E4C37EB5}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC17FF5A-CDD5-4C91-86F2-659F2DA424AC}"/>
   <bookViews>
     <workbookView xWindow="2922" yWindow="114" windowWidth="20118" windowHeight="12846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="313">
   <si>
     <t>Species</t>
   </si>
@@ -500,9 +500,6 @@
     <t>https://doi.org/10.1038/s41467-020-17302-5</t>
   </si>
   <si>
-    <t>See Supplemental Data 4 in publication</t>
-  </si>
-  <si>
     <t>PRJNA544934</t>
   </si>
   <si>
@@ -950,10 +947,34 @@
     <t>PRJEB48988 (WGS) and PRJEB48738 (WGS)</t>
   </si>
   <si>
-    <t>Not on phytozome; Publication mentions 414 genomes, but only 402 are on the SRA and only 337 genomes are of the relevant species</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/s41586-020-03127-1; doi: 10.1371/journal.pbio.3001681</t>
+  </si>
+  <si>
+    <t>Not on phytozome, but on ensembl; Publication mentions 414 genomes, but only 402 are on the SRA and only 337 genomes are of the relevant species</t>
+  </si>
+  <si>
+    <t>Not on phytozome, but on ensembl</t>
+  </si>
+  <si>
+    <t>PRJNA590636</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2019.01682</t>
+  </si>
+  <si>
+    <t>200 accessions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1755-0998.12991</t>
+  </si>
+  <si>
+    <t>PRJNA489364</t>
+  </si>
+  <si>
+    <t>Available on Ensembl</t>
+  </si>
+  <si>
+    <t>See Supplemental Data 4 in publication; generally can't find much data; only includes 9 genotypes</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1368,13 +1389,13 @@
         <v>66</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" t="s">
         <v>258</v>
-      </c>
-      <c r="G1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1395,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1427,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1459,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1467,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="11">
@@ -1477,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1485,13 +1506,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1499,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -1512,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1575,13 +1596,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="11">
         <v>597</v>
@@ -1590,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1609,13 +1630,13 @@
         <v>105</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="11">
         <v>467</v>
@@ -1624,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1646,13 +1667,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="E19" s="11">
         <v>56</v>
@@ -1661,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1675,10 +1696,10 @@
         <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>153</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1705,10 +1726,10 @@
         <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1716,13 +1737,13 @@
         <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E24" s="11">
         <v>119</v>
@@ -1731,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1739,13 +1760,13 @@
         <v>109</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E25" s="11">
         <v>199</v>
@@ -1754,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1762,7 +1783,7 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>145</v>
@@ -1773,13 +1794,13 @@
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="11">
         <v>40</v>
@@ -1788,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1807,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1815,13 +1836,13 @@
         <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" s="11">
         <v>52</v>
@@ -1830,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1860,13 +1881,13 @@
         <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" s="11">
         <v>296</v>
@@ -1875,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1883,13 +1904,13 @@
         <v>84</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="11">
         <v>3171</v>
@@ -1898,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1932,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1973,13 +1994,13 @@
         <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="11">
         <v>115</v>
@@ -1988,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1996,10 +2017,10 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
         <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>145</v>
@@ -2010,10 +2031,10 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>145</v>
@@ -2035,10 +2056,10 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>145</v>
@@ -2104,13 +2125,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" s="11">
         <v>1674</v>
@@ -2119,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2127,13 +2148,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="11">
         <v>240</v>
@@ -2144,13 +2165,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="E52" s="11">
         <v>279</v>
@@ -2167,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2175,10 +2196,10 @@
         <v>88</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="11">
@@ -2188,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2196,10 +2217,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="11">
@@ -2209,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2228,10 +2249,10 @@
         <v>112</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="11">
@@ -2241,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2273,7 @@
         <v>134</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2307,10 +2328,10 @@
         <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="11">
@@ -2320,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2339,13 +2360,13 @@
         <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E65" s="11">
         <v>131</v>
@@ -2354,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2362,10 +2383,10 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>145</v>
@@ -2376,407 +2397,419 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
         <v>194</v>
-      </c>
-      <c r="C67" t="s">
-        <v>195</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>198</v>
+      <c r="B68" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" s="11">
+        <v>200</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="C69" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="11">
+        <v>136</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="11">
+        <v>44</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="11">
-        <v>136</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="D74" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E72" s="11">
-        <v>44</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="D75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="3">
         <v>39</v>
       </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E77" s="11">
+      <c r="C78" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="11">
         <v>38</v>
       </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>204</v>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>136</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
         <v>69</v>
       </c>
-      <c r="C80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="7" t="s">
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="11">
+      <c r="C82" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="11">
         <v>52</v>
       </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" t="s">
-        <v>205</v>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
         <v>125</v>
       </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="12">
+        <v>3024</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E86" s="11">
+        <v>85</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E84" s="12">
-        <v>3024</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="11">
-        <v>85</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>747</v>
       </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="C88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="11">
+      <c r="D89" s="8"/>
+      <c r="E89" s="11">
         <v>683</v>
       </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
         <v>118</v>
       </c>
-      <c r="C89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="7" t="s">
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E90" s="11">
+      <c r="D91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E91" s="11">
         <v>52</v>
       </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" t="s">
-        <v>53</v>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2784,65 +2817,65 @@
         <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>51</v>
       </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>51</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E95" s="11">
+      <c r="C96" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E96" s="11">
         <v>428</v>
       </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>137</v>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
@@ -2853,7 +2886,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
@@ -2862,58 +2895,61 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E99" s="11">
-        <v>909</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>260</v>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" s="11">
+        <v>909</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E100" s="11">
+      <c r="C101" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" s="11">
         <v>38</v>
       </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" t="s">
-        <v>17</v>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2921,58 +2957,52 @@
         <v>18</v>
       </c>
       <c r="C102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="11">
+      <c r="D104" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="11">
         <v>360</v>
       </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>224</v>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2980,168 +3010,180 @@
         <v>31</v>
       </c>
       <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C106" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="7" t="s">
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="11">
+      <c r="D108" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="11">
         <v>400</v>
       </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E108" s="11">
-        <v>296</v>
-      </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="11">
+        <v>296</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E109" s="11">
+      <c r="C110" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="11">
         <v>36</v>
       </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>137</v>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D113" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="E114" s="11">
+        <v>786</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E113" s="11">
-        <v>786</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" t="s">
-        <v>301</v>
-      </c>
-      <c r="C114" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" t="s">
-        <v>80</v>
-      </c>
-      <c r="C115" t="s">
-        <v>136</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>137</v>
+      <c r="D115" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E115" s="11">
+        <v>114</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>136</v>
@@ -3152,41 +3194,44 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
         <v>10</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E118" s="11">
+      <c r="D119" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E119" s="11">
         <v>117</v>
       </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3194,186 +3239,217 @@
         <v>10</v>
       </c>
       <c r="C120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E121" s="11">
-        <v>33</v>
-      </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B122" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="C122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E122" s="11"/>
+        <v>297</v>
+      </c>
+      <c r="E122" s="11">
+        <v>33</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="11">
-        <v>277</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="11">
         <v>599</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" t="s">
-        <v>238</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>161</v>
-      </c>
-      <c r="B126" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C127" t="s">
-        <v>167</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>164</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E127" s="11">
+        <v>306</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="C128" t="s">
+        <v>161</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>245</v>
-      </c>
-      <c r="B129" t="s">
-        <v>246</v>
+        <v>164</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" t="s">
+        <v>166</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>168</v>
+      </c>
+      <c r="B130" t="s">
+        <v>167</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+      <c r="B131" t="s">
+        <v>245</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
         <v>39</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E133" s="13">
-        <f>SUM(E2:E128)</f>
-        <v>20322</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E134" s="13">
-        <f>SUM(F2:F128)</f>
-        <v>42</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>240</v>
+      <c r="D134" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135" s="13">
+        <f>SUM(E2:E130)</f>
+        <v>20942</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136" s="13">
+        <f>SUM(F2:F130)</f>
+        <v>45</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
-    <sortCondition ref="A2:A125"/>
-    <sortCondition ref="C2:C125"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D126">
+    <sortCondition ref="A2:A126"/>
+    <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B127" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B129" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
-    <hyperlink ref="B72" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
+    <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
     <hyperlink ref="B19" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
-    <hyperlink ref="B86" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
+    <hyperlink ref="B87" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1181128_2_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC17FF5A-CDD5-4C91-86F2-659F2DA424AC}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223FC408-33A9-4519-AFE5-3E0850D95F17}"/>
   <bookViews>
-    <workbookView xWindow="2922" yWindow="114" windowWidth="20118" windowHeight="12846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="326">
   <si>
     <t>Species</t>
   </si>
@@ -971,10 +971,49 @@
     <t>PRJNA489364</t>
   </si>
   <si>
-    <t>Available on Ensembl</t>
-  </si>
-  <si>
     <t>See Supplemental Data 4 in publication; generally can't find much data; only includes 9 genotypes</t>
+  </si>
+  <si>
+    <t>Actinidia chinensis</t>
+  </si>
+  <si>
+    <t>Secale cereale</t>
+  </si>
+  <si>
+    <t>Available on Ensembl; but no WGS data available, only GBS</t>
+  </si>
+  <si>
+    <t>Aegilops tauschii</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41587-021-01058-4</t>
+  </si>
+  <si>
+    <t>PRJNA685125</t>
+  </si>
+  <si>
+    <t>Brassica juncea</t>
+  </si>
+  <si>
+    <t>Brassica napus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-021-00922-y</t>
+  </si>
+  <si>
+    <t>PRJNA615316</t>
+  </si>
+  <si>
+    <t>Assembly and Annotation source</t>
+  </si>
+  <si>
+    <t>Ensembl</t>
+  </si>
+  <si>
+    <t>PRJNA476657</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molp.2018.11.007</t>
   </si>
 </sst>
 </file>
@@ -1359,23 +1398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="42.26171875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.26171875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="35.68359375" customWidth="1"/>
+    <col min="3" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1385,20 +1424,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>257</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1408,29 +1450,29 @@
       <c r="C2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11">
+      <c r="E2" s="8"/>
+      <c r="F2" s="11">
         <v>48</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -1440,29 +1482,29 @@
       <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11">
+      <c r="E4" s="8"/>
+      <c r="F4" s="11">
         <v>87</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1472,36 +1514,36 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11">
+      <c r="E6" s="8"/>
+      <c r="F6" s="11">
         <v>56</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11">
+      <c r="E7" s="8"/>
+      <c r="F7" s="11">
         <v>142</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1511,11 +1553,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1525,73 +1567,73 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11">
+      <c r="E9" s="8"/>
+      <c r="F9" s="11">
         <v>1135</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -1601,31 +1643,31 @@
       <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>597</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
@@ -1635,20 +1677,21 @@
       <c r="C17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>467</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1658,11 +1701,11 @@
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -1672,20 +1715,20 @@
       <c r="C19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>56</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -1695,33 +1738,33 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1732,7 +1775,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -1742,20 +1785,20 @@
       <c r="C24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>119</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -1765,31 +1808,31 @@
       <c r="C25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>199</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1799,20 +1842,20 @@
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>40</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1820,18 +1863,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1841,42 +1884,42 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="11">
+      <c r="F30" s="11">
         <v>52</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1886,20 +1929,20 @@
       <c r="C33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F33" s="11">
         <v>296</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
@@ -1909,31 +1952,31 @@
       <c r="C34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="11">
+      <c r="F34" s="11">
         <v>3171</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -1943,53 +1986,53 @@
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="11">
+      <c r="F36" s="11">
         <v>337</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -1999,20 +2042,20 @@
       <c r="C40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="11">
+      <c r="F40" s="11">
         <v>115</v>
       </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2022,11 +2065,11 @@
       <c r="C41" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2036,22 +2079,22 @@
       <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2061,66 +2104,66 @@
       <c r="C44" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -2130,20 +2173,20 @@
       <c r="C50" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="11">
+      <c r="F50" s="11">
         <v>1674</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2153,14 +2196,14 @@
       <c r="C51" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E51" s="11">
+      <c r="F51" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -2170,14 +2213,14 @@
       <c r="C52" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E52" s="11">
+      <c r="F52" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2187,11 +2230,11 @@
       <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
@@ -2201,18 +2244,19 @@
       <c r="C54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11">
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="11">
         <v>185</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -2222,29 +2266,29 @@
       <c r="C55" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="11">
+      <c r="E55" s="8"/>
+      <c r="F55" s="11">
         <v>336</v>
       </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -2254,62 +2298,63 @@
       <c r="C57" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="11">
+      <c r="E57" s="8"/>
+      <c r="F57" s="11">
         <v>1081</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
       <c r="C59" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -2319,11 +2364,11 @@
       <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>24</v>
       </c>
@@ -2333,29 +2378,29 @@
       <c r="C63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="11">
+      <c r="E63" s="8"/>
+      <c r="F63" s="11">
         <v>300</v>
       </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -2365,20 +2410,20 @@
       <c r="C65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="11">
+      <c r="F65" s="11">
         <v>131</v>
       </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -2388,11 +2433,11 @@
       <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2402,11 +2447,11 @@
       <c r="C67" t="s">
         <v>194</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -2416,20 +2461,20 @@
       <c r="C68" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E68" s="11">
+      <c r="F68" s="11">
         <v>200</v>
       </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -2439,22 +2484,22 @@
       <c r="C69" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -2464,31 +2509,31 @@
       <c r="C71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E71" s="11">
-        <v>136</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="11">
+        <v>136</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>92</v>
       </c>
       <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>100</v>
       </c>
@@ -2498,31 +2543,31 @@
       <c r="C73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E73" s="11">
+      <c r="F73" s="11">
         <v>44</v>
       </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>67</v>
       </c>
@@ -2532,20 +2577,20 @@
       <c r="C75" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>39</v>
       </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -2555,11 +2600,11 @@
       <c r="C76" t="s">
         <v>252</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -2569,11 +2614,11 @@
       <c r="C77" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
@@ -2583,53 +2628,53 @@
       <c r="C78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E78" s="11">
+      <c r="F78" s="11">
         <v>38</v>
       </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
       <c r="C80" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
@@ -2639,20 +2684,20 @@
       <c r="C82" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="11">
+      <c r="F82" s="11">
         <v>52</v>
       </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -2663,7 +2708,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -2673,11 +2718,11 @@
       <c r="C84" t="s">
         <v>136</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,20 +2732,20 @@
       <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="E85" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E85" s="12">
+      <c r="F85" s="12">
         <v>3024</v>
       </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>133</v>
       </c>
@@ -2710,20 +2755,20 @@
       <c r="C86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E86" s="11">
+      <c r="F86" s="11">
         <v>85</v>
       </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -2733,31 +2778,31 @@
       <c r="C87" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="11">
+      <c r="F87" s="11">
         <v>747</v>
       </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>49</v>
       </c>
@@ -2767,29 +2812,29 @@
       <c r="C89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="11">
+      <c r="E89" s="8"/>
+      <c r="F89" s="11">
         <v>683</v>
       </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>118</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
@@ -2799,20 +2844,20 @@
       <c r="C91" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E91" s="11">
+      <c r="F91" s="11">
         <v>52</v>
       </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -2823,7 +2868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -2834,7 +2879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -2842,7 +2887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2850,7 +2895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -2860,53 +2905,53 @@
       <c r="C96" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E96" s="11">
+      <c r="F96" s="11">
         <v>428</v>
       </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>131</v>
       </c>
@@ -2916,20 +2961,20 @@
       <c r="C100" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E100" s="11">
+      <c r="F100" s="11">
         <v>909</v>
       </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>132</v>
       </c>
@@ -2939,20 +2984,20 @@
       <c r="C101" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E101" s="11">
+      <c r="F101" s="11">
         <v>38</v>
       </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -2960,18 +3005,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
       <c r="C103" t="s">
         <v>218</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -2981,31 +3026,31 @@
       <c r="C104" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="11">
+      <c r="F104" s="11">
         <v>360</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>79</v>
       </c>
       <c r="C105" t="s">
         <v>222</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3015,11 +3060,11 @@
       <c r="C106" t="s">
         <v>33</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -3029,11 +3074,11 @@
       <c r="C107" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>31</v>
       </c>
@@ -3043,20 +3088,20 @@
       <c r="C108" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E108" s="11">
+      <c r="F108" s="11">
         <v>400</v>
       </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>75</v>
       </c>
@@ -3066,20 +3111,20 @@
       <c r="C109" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E109" s="11">
+      <c r="F109" s="11">
         <v>296</v>
       </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>123</v>
       </c>
@@ -3089,31 +3134,31 @@
       <c r="C110" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E110" s="11">
+      <c r="F110" s="11">
         <v>36</v>
       </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
       <c r="C111" t="s">
         <v>136</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -3123,19 +3168,19 @@
       <c r="C112" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>23</v>
       </c>
@@ -3145,20 +3190,20 @@
       <c r="C114" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E114" s="11">
+      <c r="F114" s="11">
         <v>786</v>
       </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>32</v>
       </c>
@@ -3168,42 +3213,42 @@
       <c r="C115" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E115" s="11">
+      <c r="F115" s="11">
         <v>114</v>
       </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>97</v>
       </c>
       <c r="C117" t="s">
         <v>136</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="E117" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -3211,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>10</v>
       </c>
@@ -3221,20 +3266,20 @@
       <c r="C119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E119" s="11">
+      <c r="F119" s="11">
         <v>117</v>
       </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3242,7 +3287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
@@ -3260,67 +3305,67 @@
       <c r="C122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="11">
+      <c r="F122" s="11">
         <v>33</v>
       </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="11">
+      <c r="E124" s="8"/>
+      <c r="F124" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="11">
+      <c r="E125" s="8"/>
+      <c r="F125" s="11">
         <v>599</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>237</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="E126" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>160</v>
       </c>
@@ -3330,20 +3375,21 @@
       <c r="C127" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E127" s="11">
+      <c r="D127" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="11">
         <v>306</v>
       </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3353,98 +3399,183 @@
       <c r="C128" t="s">
         <v>161</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="E128" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>312</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="11">
+        <v>306</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="11">
+        <v>479</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="11">
+        <v>1007</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C134" t="s">
         <v>166</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="E134" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>168</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B135" t="s">
         <v>167</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="E135" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>244</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B136" t="s">
         <v>245</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="E136" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="E137" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="E138" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>39</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C139" t="s">
         <v>40</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="E139" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E135" s="13">
-        <f>SUM(E2:E130)</f>
-        <v>20942</v>
-      </c>
-      <c r="F135" s="5" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F140" s="13">
+        <f>SUM(F2:F135)</f>
+        <v>22734</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E136" s="13">
-        <f>SUM(F2:F130)</f>
-        <v>45</v>
-      </c>
-      <c r="F136" s="5" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="13">
+        <f>SUM(G2:G135)</f>
+        <v>48</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D126">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
     <sortCondition ref="A2:A126"/>
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B129" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B134" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223FC408-33A9-4519-AFE5-3E0850D95F17}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF692185-FACC-4AAA-9031-B905214276EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="335">
   <si>
     <t>Species</t>
   </si>
@@ -1014,6 +1014,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.molp.2018.11.007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.13436</t>
+  </si>
+  <si>
+    <t>PRJEB6215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly found GBS data, but there may be WGS data for about 10 lines </t>
+  </si>
+  <si>
+    <t>Camelina sativa</t>
+  </si>
+  <si>
+    <t>Found RAD-Seq data, but not WGS</t>
+  </si>
+  <si>
+    <t>Cannabis sativa</t>
+  </si>
+  <si>
+    <t>PRJNA866500</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/g3journal/jkac209</t>
+  </si>
+  <si>
+    <t>Lots more GBS and RAD-seq data</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,42 +3510,78 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>313</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F133" s="11">
+        <v>10</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" t="s">
-        <v>166</v>
+        <v>329</v>
+      </c>
+      <c r="D134" t="s">
+        <v>323</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>168</v>
-      </c>
-      <c r="B135" t="s">
-        <v>167</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>163</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F135" s="11">
+        <v>135</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" t="s">
-        <v>245</v>
+        <v>164</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>163</v>
@@ -3526,7 +3589,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>167</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>163</v>
@@ -3534,7 +3600,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>163</v>
@@ -3542,30 +3611,46 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F140" s="13">
-        <f>SUM(F2:F135)</f>
-        <v>22734</v>
-      </c>
-      <c r="G140" s="5" t="s">
+      <c r="A140" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F142" s="13">
+        <f>SUM(F2:F137)</f>
+        <v>22879</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F141" s="13">
-        <f>SUM(G2:G135)</f>
-        <v>48</v>
-      </c>
-      <c r="G141" s="5" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F143" s="13">
+        <f>SUM(G2:G137)</f>
+        <v>50</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3575,7 +3660,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B134" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B136" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF692185-FACC-4AAA-9031-B905214276EE}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7591A721-C38F-4D11-BA73-A3E3319A37DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="353">
   <si>
     <t>Species</t>
   </si>
@@ -1041,6 +1041,60 @@
   </si>
   <si>
     <t>Lots more GBS and RAD-seq data</t>
+  </si>
+  <si>
+    <t>Capsicum annuum</t>
+  </si>
+  <si>
+    <t>GBS data for 10000 accessions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/dnares/dsac052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJDB14137 </t>
+  </si>
+  <si>
+    <t>Chara braunii</t>
+  </si>
+  <si>
+    <t>Chlamydomonas reinhardtii</t>
+  </si>
+  <si>
+    <t>Not sure if I should include single-cell plants?</t>
+  </si>
+  <si>
+    <t>Chondrus crispus</t>
+  </si>
+  <si>
+    <t>couldn't find WGS data in SRA</t>
+  </si>
+  <si>
+    <t>couldn't find anything in SRA; though didn't Corbett-Detig include this in their study?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11103-020-00974-4</t>
+  </si>
+  <si>
+    <t>Coffea canephora</t>
+  </si>
+  <si>
+    <t>PRJNA505204</t>
+  </si>
+  <si>
+    <t>More GBS data in SRA</t>
+  </si>
+  <si>
+    <t>Corchorus capsularis</t>
+  </si>
+  <si>
+    <t>Corylus avellana</t>
+  </si>
+  <si>
+    <t>RAD-seq and GBS data, WGS data only looks at chloroplast? See PRJNA693261</t>
+  </si>
+  <si>
+    <t>WGS data for maybe 3 genomes?</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1142,6 +1196,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1425,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -2034,7 +2095,7 @@
         <v>136</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,84 +3634,197 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F136" s="11">
+        <v>7</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F140" s="11">
+        <v>34</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F142" s="16"/>
+    </row>
+    <row r="143" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F143" s="16"/>
+    </row>
+    <row r="144" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="15"/>
+      <c r="F144" s="16"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>164</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C145" t="s">
         <v>166</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E145" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>168</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B146" t="s">
         <v>167</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E146" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>244</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B147" t="s">
         <v>245</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E147" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>264</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E148" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>265</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E149" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>39</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C150" t="s">
         <v>40</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E150" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F142" s="13">
-        <f>SUM(F2:F137)</f>
-        <v>22879</v>
-      </c>
-      <c r="G142" s="5" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F151" s="13">
+        <f>SUM(F2:F146)</f>
+        <v>22920</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F143" s="13">
-        <f>SUM(G2:G137)</f>
-        <v>50</v>
-      </c>
-      <c r="G143" s="5" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F152" s="13">
+        <f>SUM(G2:G146)</f>
+        <v>52</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3660,7 +3834,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B136" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B145" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198290_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{F5DFC21C-F620-48EC-BA16-3E8E7C14D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7591A721-C38F-4D11-BA73-A3E3319A37DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE602FAE-5492-4711-839D-042A1F5CDEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="367">
   <si>
     <t>Species</t>
   </si>
@@ -1095,6 +1095,48 @@
   </si>
   <si>
     <t>WGS data for maybe 3 genomes?</t>
+  </si>
+  <si>
+    <t>Cucumis melo</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-019-0522-8</t>
+  </si>
+  <si>
+    <t>PRJNA565104</t>
+  </si>
+  <si>
+    <t>Cyanidioschyzon merolae</t>
+  </si>
+  <si>
+    <t>Not sure if I want to include algae</t>
+  </si>
+  <si>
+    <t>Cynara cardunculus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-18329-4</t>
+  </si>
+  <si>
+    <t>PRJEB36539</t>
+  </si>
+  <si>
+    <t>Digitaria exilis</t>
+  </si>
+  <si>
+    <t>Dioscorea rotundata</t>
+  </si>
+  <si>
+    <t>Maybe WGS data for 3 genotypes</t>
+  </si>
+  <si>
+    <t>Echinochloa crus-galli</t>
+  </si>
+  <si>
+    <t>Eragrostis curvula</t>
+  </si>
+  <si>
+    <t>Eragrostis tef</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,35 +3702,32 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>339</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" t="s">
         <v>323</v>
       </c>
-      <c r="E137" s="15" t="s">
+      <c r="E137" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F137" s="16"/>
-    </row>
-    <row r="138" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>340</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F138" s="16"/>
-    </row>
-    <row r="139" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>342</v>
       </c>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F139" s="16"/>
     </row>
     <row r="140" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
@@ -3716,115 +3755,228 @@
         <v>259</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>349</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F141" s="16"/>
-    </row>
-    <row r="142" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>350</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F142" s="16"/>
-    </row>
-    <row r="143" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>98</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F143" s="16"/>
-    </row>
-    <row r="144" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E144" s="15"/>
-      <c r="F144" s="16"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    </row>
+    <row r="144" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="11">
+        <v>1175</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F145" s="16"/>
+    </row>
+    <row r="146" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F146" s="16"/>
+    </row>
+    <row r="147" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="11">
+        <v>171</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F148" s="16"/>
+    </row>
+    <row r="149" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F149" s="16"/>
+    </row>
+    <row r="150" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F150" s="16"/>
+    </row>
+    <row r="151" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F151" s="16"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>164</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C152" t="s">
         <v>166</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>168</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B153" t="s">
         <v>167</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>244</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B154" t="s">
         <v>245</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>264</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>265</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>39</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C157" t="s">
         <v>40</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E157" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="13">
-        <f>SUM(F2:F146)</f>
-        <v>22920</v>
-      </c>
-      <c r="G151" s="5" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F158" s="13">
+        <f>SUM(F2:F153)</f>
+        <v>24266</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F152" s="13">
-        <f>SUM(G2:G146)</f>
-        <v>52</v>
-      </c>
-      <c r="G152" s="5" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F159" s="13">
+        <f>SUM(G2:G153)</f>
+        <v>54</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3834,7 +3986,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B145" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B152" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198290_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE602FAE-5492-4711-839D-042A1F5CDEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723F50A0-402E-4C20-8B43-2664BB9AAC77}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="387">
   <si>
     <t>Species</t>
   </si>
@@ -1137,6 +1137,66 @@
   </si>
   <si>
     <t>Eragrostis tef</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2021.647599</t>
+  </si>
+  <si>
+    <t>Ficus carica</t>
+  </si>
+  <si>
+    <t>More RAD-seq data in SRA</t>
+  </si>
+  <si>
+    <t>Galdieria sulphuraria</t>
+  </si>
+  <si>
+    <t>Ipomoea triloba</t>
+  </si>
+  <si>
+    <t>can't find WGS data in SRA</t>
+  </si>
+  <si>
+    <t>Juglans regia</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-021-02517-6</t>
+  </si>
+  <si>
+    <t>PRJNA721107</t>
+  </si>
+  <si>
+    <t>Leersia perrieri</t>
+  </si>
+  <si>
+    <t>Lolium perenne</t>
+  </si>
+  <si>
+    <t>Lupinus angustifolius</t>
+  </si>
+  <si>
+    <t>PRJNA797109</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.15885</t>
+  </si>
+  <si>
+    <t>Marchantia polymorpha</t>
+  </si>
+  <si>
+    <t>Nicotiana attenuata</t>
+  </si>
+  <si>
+    <t>Oryza barthii</t>
+  </si>
+  <si>
+    <t>PRJDB4702</t>
+  </si>
+  <si>
+    <t>can't find publication that generated the data, though other papers have used the data before</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.15516</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1246,6 +1306,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1528,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,29 +3866,27 @@
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>356</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" t="s">
         <v>323</v>
       </c>
-      <c r="E145" s="15" t="s">
+      <c r="E145" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F145" s="16"/>
-    </row>
-    <row r="146" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>358</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" t="s">
         <v>323</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -3851,132 +3912,283 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>362</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" t="s">
         <v>323</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F148" s="16"/>
-    </row>
-    <row r="149" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>364</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" t="s">
         <v>323</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F149" s="16"/>
-    </row>
-    <row r="150" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>365</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" t="s">
         <v>323</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F150" s="16"/>
-    </row>
-    <row r="151" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>366</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" t="s">
         <v>323</v>
       </c>
-      <c r="E151" s="15" t="s">
+      <c r="E151" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F151" s="16"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>164</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" t="s">
-        <v>166</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>163</v>
+    </row>
+    <row r="152" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F152" s="11">
+        <v>14</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>168</v>
-      </c>
-      <c r="B153" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="11">
+        <v>550</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F156" s="16"/>
+    </row>
+    <row r="157" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F157" s="16"/>
+    </row>
+    <row r="158" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E158" s="8"/>
+      <c r="F158" s="11">
+        <v>55</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F159" s="16"/>
+    </row>
+    <row r="160" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F160" s="16"/>
+    </row>
+    <row r="161" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E161" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" s="13">
+        <v>21</v>
+      </c>
+      <c r="G161" s="5">
+        <v>1</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>166</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>244</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B164" t="s">
         <v>245</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>264</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>265</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>39</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C167" t="s">
         <v>40</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E167" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F158" s="13">
-        <f>SUM(F2:F153)</f>
-        <v>24266</v>
-      </c>
-      <c r="G158" s="5" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="13">
+        <f>SUM(F2:F163)</f>
+        <v>24906</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F159" s="13">
-        <f>SUM(G2:G153)</f>
-        <v>54</v>
-      </c>
-      <c r="G159" s="5" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F169" s="13">
+        <f>SUM(G2:G163)</f>
+        <v>58</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3986,7 +4198,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B152" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B162" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723F50A0-402E-4C20-8B43-2664BB9AAC77}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A35059-55F9-4301-9987-CA55E8039937}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="15" windowWidth="14385" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="399">
   <si>
     <t>Species</t>
   </si>
@@ -1193,10 +1193,46 @@
     <t>PRJDB4702</t>
   </si>
   <si>
-    <t>can't find publication that generated the data, though other papers have used the data before</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1111/tpj.15516</t>
+  </si>
+  <si>
+    <t>PRJDB4059</t>
+  </si>
+  <si>
+    <t>Oryza brachyantha</t>
+  </si>
+  <si>
+    <t>can’t find publication</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cub.2018.05.066</t>
+  </si>
+  <si>
+    <t>Oryza glaberrima</t>
+  </si>
+  <si>
+    <t>Includes 21 accessions, can't find publication that generated the data, though other papers have used the data before</t>
+  </si>
+  <si>
+    <t>PRJEB21312</t>
+  </si>
+  <si>
+    <t>PRJDB4703</t>
+  </si>
+  <si>
+    <t>Oryza glumipatula</t>
+  </si>
+  <si>
+    <t>Oryza longistaminata</t>
+  </si>
+  <si>
+    <t>PRJDB4705</t>
+  </si>
+  <si>
+    <t>PRJDB4704</t>
+  </si>
+  <si>
+    <t>Oryza meridionalis</t>
   </si>
 </sst>
 </file>
@@ -1300,15 +1336,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1591,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,29 +4055,27 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>376</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D156" t="s">
         <v>323</v>
       </c>
-      <c r="E156" s="15" t="s">
+      <c r="E156" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F156" s="16"/>
-    </row>
-    <row r="157" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>377</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" t="s">
         <v>323</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F157" s="16"/>
     </row>
     <row r="158" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -4067,128 +4101,255 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>381</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F159" s="16"/>
-    </row>
-    <row r="160" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>382</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F160" s="16"/>
-    </row>
-    <row r="161" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    </row>
+    <row r="161" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="11">
+        <v>86</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F162" s="17"/>
+    </row>
+    <row r="163" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E161" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="F161" s="13">
+      <c r="E163" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F163" s="13">
+        <v>16</v>
+      </c>
+      <c r="G163" s="5">
+        <v>1</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="11">
+        <v>163</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F165" s="13">
         <v>21</v>
       </c>
-      <c r="G161" s="5">
-        <v>1</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="G165" s="5">
+        <v>1</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F166" s="13">
+        <v>18</v>
+      </c>
+      <c r="G166" s="5">
+        <v>1</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" s="13">
+        <v>19</v>
+      </c>
+      <c r="G167" s="5">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C168" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B169" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>244</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B170" t="s">
         <v>245</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E170" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>264</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E171" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>265</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E172" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>39</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C173" t="s">
         <v>40</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F168" s="13">
-        <f>SUM(F2:F163)</f>
-        <v>24906</v>
-      </c>
-      <c r="G168" s="5" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="13">
+        <f>SUM(F2:F169)</f>
+        <v>25208</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F169" s="13">
-        <f>SUM(G2:G163)</f>
-        <v>58</v>
-      </c>
-      <c r="G169" s="5" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="13">
+        <f>SUM(G2:G169)</f>
+        <v>63</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4198,7 +4359,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B162" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B168" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A35059-55F9-4301-9987-CA55E8039937}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C94E9A-4487-4CAD-A08A-386424647F49}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="15" windowWidth="14385" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="401">
   <si>
     <t>Species</t>
   </si>
@@ -1233,6 +1233,12 @@
   </si>
   <si>
     <t>Oryza meridionalis</t>
+  </si>
+  <si>
+    <t>Oryza nivara</t>
+  </si>
+  <si>
+    <t>there might be WGS data, SRA metadata was hard to decipher</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,26 +4278,27 @@
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>164</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" t="s">
-        <v>166</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>163</v>
-      </c>
+    <row r="168" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="F168" s="17"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>166</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>163</v>
@@ -4299,10 +4306,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>163</v>
@@ -4310,7 +4317,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>244</v>
+      </c>
+      <c r="B171" t="s">
+        <v>245</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>163</v>
@@ -4318,7 +4328,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>163</v>
@@ -4326,30 +4336,38 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>39</v>
-      </c>
-      <c r="C173" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F174" s="13">
-        <f>SUM(F2:F169)</f>
-        <v>25208</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>213</v>
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F175" s="13">
-        <f>SUM(G2:G169)</f>
+        <f>SUM(F2:F170)</f>
+        <v>25208</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="13">
+        <f>SUM(G2:G170)</f>
         <v>63</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4359,7 +4377,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B168" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B169" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C94E9A-4487-4CAD-A08A-386424647F49}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5310D7-526B-4DD0-A6C0-B3BE7AB16FC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="454">
   <si>
     <t>Species</t>
   </si>
@@ -1239,6 +1239,165 @@
   </si>
   <si>
     <t>there might be WGS data, SRA metadata was hard to decipher</t>
+  </si>
+  <si>
+    <t>Oryza punctata</t>
+  </si>
+  <si>
+    <t>PRJDB4620</t>
+  </si>
+  <si>
+    <t>can't find publication, SRA says 8 accessions were sequenced, but I found 10 samples</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature11532</t>
+  </si>
+  <si>
+    <t>Oryza rufipogon</t>
+  </si>
+  <si>
+    <t>PRJEB2829</t>
+  </si>
+  <si>
+    <t>Paper claims 446 accessions, but I only found 445</t>
+  </si>
+  <si>
+    <t>Ostreococcus lucimarinus</t>
+  </si>
+  <si>
+    <t>Papaver somniferum</t>
+  </si>
+  <si>
+    <t>Only GBS data, but not WGS data</t>
+  </si>
+  <si>
+    <t>Physcomitrium patens</t>
+  </si>
+  <si>
+    <t>Not sure I want to include moss</t>
+  </si>
+  <si>
+    <t>Pistacia vera</t>
+  </si>
+  <si>
+    <t>Pisum sativum</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-019-0480-1</t>
+  </si>
+  <si>
+    <t>Lots more GBS data, but mostly for RILS. I want data from natural populations, not RILs, might be more data in PRJNA509279, again I can't find data for the same number of accessions listed in the paper, also studies rarely give SRA run numbers - only bioproject numbers</t>
+  </si>
+  <si>
+    <t>Prunus avium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093%2Fhr%2Fuhac233</t>
+  </si>
+  <si>
+    <t>PRJNA813711</t>
+  </si>
+  <si>
+    <t>235+64=299, all accessions in paper accounted for</t>
+  </si>
+  <si>
+    <t>Prunus dulcis</t>
+  </si>
+  <si>
+    <t>PRJNA339570</t>
+  </si>
+  <si>
+    <t>Can't find publication, but this data was used in one preprint</t>
+  </si>
+  <si>
+    <t>PRJNA729978</t>
+  </si>
+  <si>
+    <t>Quercus lobata</t>
+  </si>
+  <si>
+    <t>can't find publication, but data is a part of a genome project, found 160 samples - not 125 like SRA claims</t>
+  </si>
+  <si>
+    <t>Quercus suber</t>
+  </si>
+  <si>
+    <t>Rosa chinensis</t>
+  </si>
+  <si>
+    <t>Saccharum spontaneum</t>
+  </si>
+  <si>
+    <t>WGS for 9 cultivars in 9 different bioprojects, can't find publication</t>
+  </si>
+  <si>
+    <t>Selaginella moellendorffii</t>
+  </si>
+  <si>
+    <t>not sure if I want to include this</t>
+  </si>
+  <si>
+    <t>Sesamum indicum</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ncomms9609</t>
+  </si>
+  <si>
+    <t>PRJEB8078</t>
+  </si>
+  <si>
+    <t>Publication includes 715 genomes, but some of these are from another species</t>
+  </si>
+  <si>
+    <t>Triticum dicoccoides</t>
+  </si>
+  <si>
+    <t>found exome capture data, and GBS data, but no WGS data</t>
+  </si>
+  <si>
+    <t>Triticum spelta</t>
+  </si>
+  <si>
+    <t>PRJNA918327</t>
+  </si>
+  <si>
+    <t>This has some data, but I can't find the publication</t>
+  </si>
+  <si>
+    <t>Triticum urartu</t>
+  </si>
+  <si>
+    <t>Vigna angularis</t>
+  </si>
+  <si>
+    <t>PRJNA885164</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389%2Ffpls.2022.1043784</t>
+  </si>
+  <si>
+    <t>Vigna radiata</t>
+  </si>
+  <si>
+    <t>PRJNA889224</t>
+  </si>
+  <si>
+    <t>uploaded Oct 2022, so I can't find publication yet…</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2022.08.22.504811</t>
+  </si>
+  <si>
+    <t>This is a preprint that links to several datasets, could be useful</t>
+  </si>
+  <si>
+    <t>SRP077082</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.13404</t>
+  </si>
+  <si>
+    <t>I can probably find more data, but it hasn't been peer-reviewed</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,13 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1633,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,6 +3600,9 @@
       <c r="C115" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="D115" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="E115" s="8" t="s">
         <v>305</v>
       </c>
@@ -4147,23 +4302,22 @@
         <v>259</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
+    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>383</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" t="s">
         <v>385</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" t="s">
         <v>384</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" t="s">
         <v>323</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -4278,96 +4432,418 @@
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>399</v>
       </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" t="s">
         <v>323</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F168" s="17"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>164</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C169" t="s">
-        <v>166</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>167</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>163</v>
+    </row>
+    <row r="169" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F169" s="13">
+        <v>10</v>
+      </c>
+      <c r="G169" s="5">
+        <v>1</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F170" s="11">
+        <v>445</v>
+      </c>
+      <c r="G170" s="3">
+        <v>1</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>244</v>
-      </c>
-      <c r="B171" t="s">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>264</v>
+        <v>409</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>163</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>265</v>
+        <v>411</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>413</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F175" s="11">
+        <v>27</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="11">
+        <v>299</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177" t="s">
+        <v>422</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F178" s="11">
+        <v>160</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>427</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>428</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>429</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>431</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F183" s="11">
+        <v>705</v>
+      </c>
+      <c r="G183" s="3">
+        <v>1</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>437</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>439</v>
+      </c>
+      <c r="C185" t="s">
+        <v>440</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>442</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>443</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E188" s="8"/>
+      <c r="F188" s="11">
+        <v>558</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="s">
+        <v>447</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>97</v>
+      </c>
+      <c r="B190" t="s">
+        <v>449</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F191" s="11">
+        <v>37</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C192" t="s">
+        <v>166</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>244</v>
+      </c>
+      <c r="B194" t="s">
+        <v>245</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>264</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>265</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>39</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C197" t="s">
         <v>40</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E197" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F175" s="13">
-        <f>SUM(F2:F170)</f>
-        <v>25208</v>
-      </c>
-      <c r="G175" s="5" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F198" s="13">
+        <f>SUM(F2:F193)</f>
+        <v>27449</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F176" s="13">
-        <f>SUM(G2:G170)</f>
-        <v>63</v>
-      </c>
-      <c r="G176" s="5" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F199" s="13">
+        <f>SUM(G2:G193)</f>
+        <v>71</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4377,7 +4853,7 @@
     <sortCondition ref="C2:C126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B169" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B192" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/263534_2_11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198194_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{88011C5E-FC03-4010-96B4-9DF5C02F9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5310D7-526B-4DD0-A6C0-B3BE7AB16FC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FC0D1-FC45-47DB-B61C-3A29A9DF7698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="459">
   <si>
     <t>Species</t>
   </si>
@@ -1398,6 +1398,21 @@
   </si>
   <si>
     <t>I can probably find more data, but it hasn't been peer-reviewed</t>
+  </si>
+  <si>
+    <t>Phytozome</t>
+  </si>
+  <si>
+    <t>Generation time</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>a few years</t>
+  </si>
+  <si>
+    <t>2 years</t>
   </si>
 </sst>
 </file>
@@ -1785,23 +1800,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="3" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1814,20 +1829,23 @@
       <c r="D1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1837,29 +1855,35 @@
       <c r="C2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11">
+      <c r="D2" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11">
         <v>48</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -1869,29 +1893,35 @@
       <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11">
+      <c r="D4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11">
         <v>87</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1901,36 +1931,48 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11">
+      <c r="D6" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11">
         <v>56</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11">
+      <c r="D7" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11">
         <v>142</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1940,11 +1982,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1954,73 +1996,79 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11">
+      <c r="D9" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11">
         <v>1135</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -2030,31 +2078,34 @@
       <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>597</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
@@ -2064,21 +2115,24 @@
       <c r="C17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="11">
         <v>467</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -2088,11 +2142,11 @@
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -2102,20 +2156,23 @@
       <c r="C19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>56</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -2125,33 +2182,33 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2162,7 +2219,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2172,20 +2229,23 @@
       <c r="C24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>119</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -2195,31 +2255,34 @@
       <c r="C25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>199</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2229,20 +2292,23 @@
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>40</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2250,18 +2316,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -2271,42 +2337,45 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>52</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2316,20 +2385,23 @@
       <c r="C33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>296</v>
       </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
@@ -2339,31 +2411,34 @@
       <c r="C34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G34" s="11">
         <v>3171</v>
       </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -2373,53 +2448,53 @@
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G36" s="11">
         <v>337</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -2429,20 +2504,20 @@
       <c r="C40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="11">
+      <c r="G40" s="11">
         <v>115</v>
       </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2452,11 +2527,11 @@
       <c r="C41" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2466,22 +2541,22 @@
       <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2491,66 +2566,66 @@
       <c r="C44" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -2560,20 +2635,20 @@
       <c r="C50" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="11">
+      <c r="G50" s="11">
         <v>1674</v>
       </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2583,14 +2658,14 @@
       <c r="C51" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -2600,14 +2675,14 @@
       <c r="C52" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F52" s="11">
+      <c r="G52" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2617,11 +2692,11 @@
       <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
@@ -2631,19 +2706,24 @@
       <c r="C54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="11">
+      <c r="D54" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="11">
         <v>185</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -2653,29 +2733,29 @@
       <c r="C55" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="11">
+      <c r="F55" s="8"/>
+      <c r="G55" s="11">
         <v>336</v>
       </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -2685,18 +2765,18 @@
       <c r="C57" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="11">
+      <c r="F57" s="8"/>
+      <c r="G57" s="11">
         <v>1081</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -2704,44 +2784,45 @@
         <v>134</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
       <c r="C59" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -2751,11 +2832,11 @@
       <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>24</v>
       </c>
@@ -2765,29 +2846,29 @@
       <c r="C63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="11">
+      <c r="F63" s="8"/>
+      <c r="G63" s="11">
         <v>300</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -2797,20 +2878,20 @@
       <c r="C65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="11">
+      <c r="G65" s="11">
         <v>131</v>
       </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -2820,11 +2901,11 @@
       <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2834,11 +2915,11 @@
       <c r="C67" t="s">
         <v>194</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -2848,20 +2929,20 @@
       <c r="C68" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F68" s="11">
+      <c r="G68" s="11">
         <v>200</v>
       </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -2871,22 +2952,22 @@
       <c r="C69" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -2896,31 +2977,31 @@
       <c r="C71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F71" s="11">
+      <c r="G71" s="11">
         <v>136</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>92</v>
       </c>
       <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>100</v>
       </c>
@@ -2930,31 +3011,31 @@
       <c r="C73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F73" s="11">
+      <c r="G73" s="11">
         <v>44</v>
       </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>67</v>
       </c>
@@ -2964,20 +3045,20 @@
       <c r="C75" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>39</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -2987,11 +3068,11 @@
       <c r="C76" t="s">
         <v>252</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -3001,11 +3082,11 @@
       <c r="C77" t="s">
         <v>195</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
@@ -3015,53 +3096,53 @@
       <c r="C78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="F78" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F78" s="11">
+      <c r="G78" s="11">
         <v>38</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
       <c r="C80" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
@@ -3071,20 +3152,20 @@
       <c r="C82" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="F82" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F82" s="11">
+      <c r="G82" s="11">
         <v>52</v>
       </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3095,7 +3176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -3105,11 +3186,11 @@
       <c r="C84" t="s">
         <v>136</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,20 +3200,20 @@
       <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F85" s="12">
+      <c r="G85" s="12">
         <v>3024</v>
       </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>133</v>
       </c>
@@ -3142,20 +3223,20 @@
       <c r="C86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F86" s="11">
+      <c r="G86" s="11">
         <v>85</v>
       </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -3165,31 +3246,31 @@
       <c r="C87" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F87" s="11">
+      <c r="G87" s="11">
         <v>747</v>
       </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>49</v>
       </c>
@@ -3199,29 +3280,29 @@
       <c r="C89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="11">
+      <c r="F89" s="8"/>
+      <c r="G89" s="11">
         <v>683</v>
       </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>118</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
@@ -3231,20 +3312,20 @@
       <c r="C91" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F91" s="11">
+      <c r="G91" s="11">
         <v>52</v>
       </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -3255,7 +3336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -3266,7 +3347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -3274,7 +3355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -3282,7 +3363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -3292,53 +3373,53 @@
       <c r="C96" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F96" s="11">
+      <c r="G96" s="11">
         <v>428</v>
       </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>131</v>
       </c>
@@ -3348,20 +3429,20 @@
       <c r="C100" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F100" s="11">
+      <c r="G100" s="11">
         <v>909</v>
       </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>132</v>
       </c>
@@ -3371,20 +3452,20 @@
       <c r="C101" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F101" s="11">
+      <c r="G101" s="11">
         <v>38</v>
       </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -3392,18 +3473,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
       <c r="C103" t="s">
         <v>218</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -3413,31 +3494,31 @@
       <c r="C104" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="F104" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F104" s="11">
+      <c r="G104" s="11">
         <v>360</v>
       </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>79</v>
       </c>
       <c r="C105" t="s">
         <v>222</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3447,11 +3528,11 @@
       <c r="C106" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -3461,11 +3542,11 @@
       <c r="C107" t="s">
         <v>224</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>31</v>
       </c>
@@ -3475,20 +3556,20 @@
       <c r="C108" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F108" s="11">
+      <c r="G108" s="11">
         <v>400</v>
       </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>75</v>
       </c>
@@ -3498,20 +3579,20 @@
       <c r="C109" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F109" s="11">
+      <c r="G109" s="11">
         <v>296</v>
       </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>123</v>
       </c>
@@ -3521,31 +3602,31 @@
       <c r="C110" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F110" s="11">
+      <c r="G110" s="11">
         <v>36</v>
       </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
       <c r="C111" t="s">
         <v>136</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -3555,19 +3636,19 @@
       <c r="C112" t="s">
         <v>65</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="F112" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>95</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>23</v>
       </c>
@@ -3577,20 +3658,20 @@
       <c r="C114" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="F114" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F114" s="11">
+      <c r="G114" s="11">
         <v>786</v>
       </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>32</v>
       </c>
@@ -3603,42 +3684,42 @@
       <c r="D115" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="F115" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F115" s="11">
+      <c r="G115" s="11">
         <v>114</v>
       </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>97</v>
       </c>
       <c r="C117" t="s">
         <v>136</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="F117" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -3646,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>10</v>
       </c>
@@ -3656,20 +3737,20 @@
       <c r="C119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F119" s="11">
+      <c r="G119" s="11">
         <v>117</v>
       </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
@@ -3695,67 +3776,67 @@
       <c r="C122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="F122" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F122" s="11">
+      <c r="G122" s="11">
         <v>33</v>
       </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="11">
+      <c r="F124" s="8"/>
+      <c r="G124" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="11">
+      <c r="F125" s="8"/>
+      <c r="G125" s="11">
         <v>599</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>237</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>160</v>
       </c>
@@ -3768,18 +3849,18 @@
       <c r="D127" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="11">
+      <c r="F127" s="8"/>
+      <c r="G127" s="11">
         <v>306</v>
       </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3789,19 +3870,19 @@
       <c r="C128" t="s">
         <v>161</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="F128" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="F129" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>315</v>
       </c>
@@ -3814,18 +3895,18 @@
       <c r="D130" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="11">
+      <c r="F130" s="8"/>
+      <c r="G130" s="11">
         <v>306</v>
       </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>318</v>
       </c>
@@ -3838,18 +3919,18 @@
       <c r="D131" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="11">
+      <c r="F131" s="8"/>
+      <c r="G131" s="11">
         <v>479</v>
       </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>319</v>
       </c>
@@ -3862,18 +3943,18 @@
       <c r="D132" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="11">
+      <c r="F132" s="8"/>
+      <c r="G132" s="11">
         <v>1007</v>
       </c>
-      <c r="G132" s="3">
-        <v>1</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>313</v>
       </c>
@@ -3886,31 +3967,31 @@
       <c r="D133" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="F133" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F133" s="11">
+      <c r="G133" s="11">
         <v>10</v>
       </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>329</v>
       </c>
       <c r="D134" t="s">
         <v>323</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="F134" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>331</v>
       </c>
@@ -3923,20 +4004,20 @@
       <c r="D135" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F135" s="11">
+      <c r="G135" s="11">
         <v>135</v>
       </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>335</v>
       </c>
@@ -3949,47 +4030,47 @@
       <c r="D136" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="F136" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="11">
+      <c r="G136" s="11">
         <v>7</v>
       </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>339</v>
       </c>
       <c r="D137" t="s">
         <v>323</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="F137" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>340</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="F138" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>342</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>346</v>
       </c>
@@ -4002,44 +4083,44 @@
       <c r="D140" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="F140" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F140" s="11">
+      <c r="G140" s="11">
         <v>34</v>
       </c>
-      <c r="G140" s="3">
-        <v>1</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>349</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="F141" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>350</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>98</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>353</v>
       </c>
@@ -4052,40 +4133,40 @@
       <c r="D144" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="11">
+      <c r="F144" s="8"/>
+      <c r="G144" s="11">
         <v>1175</v>
       </c>
-      <c r="G144" s="3">
-        <v>1</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>356</v>
       </c>
       <c r="D145" t="s">
         <v>323</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="F145" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>358</v>
       </c>
       <c r="D146" t="s">
         <v>323</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="F146" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>361</v>
       </c>
@@ -4098,62 +4179,62 @@
       <c r="D147" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="11">
+      <c r="F147" s="8"/>
+      <c r="G147" s="11">
         <v>171</v>
       </c>
-      <c r="G147" s="3">
-        <v>1</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>362</v>
       </c>
       <c r="D148" t="s">
         <v>323</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>364</v>
       </c>
       <c r="D149" t="s">
         <v>323</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="F149" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>365</v>
       </c>
       <c r="D150" t="s">
         <v>323</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="F150" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>366</v>
       </c>
       <c r="D151" t="s">
         <v>323</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="F151" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>368</v>
       </c>
@@ -4163,36 +4244,36 @@
       <c r="D152" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="F152" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F152" s="11">
+      <c r="G152" s="11">
         <v>14</v>
       </c>
-      <c r="G152" s="3">
-        <v>1</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>370</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="F153" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>371</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="F154" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>373</v>
       </c>
@@ -4205,40 +4286,40 @@
       <c r="D155" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="11">
+      <c r="F155" s="8"/>
+      <c r="G155" s="11">
         <v>550</v>
       </c>
-      <c r="G155" s="3">
-        <v>1</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="3">
+        <v>1</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>376</v>
       </c>
       <c r="D156" t="s">
         <v>323</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="F156" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>377</v>
       </c>
       <c r="D157" t="s">
         <v>323</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="F157" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>378</v>
       </c>
@@ -4251,34 +4332,34 @@
       <c r="D158" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="11">
+      <c r="F158" s="8"/>
+      <c r="G158" s="11">
         <v>55</v>
       </c>
-      <c r="G158" s="3">
-        <v>1</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>381</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>382</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="F160" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>383</v>
       </c>
@@ -4291,18 +4372,18 @@
       <c r="D161" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="11">
+      <c r="F161" s="8"/>
+      <c r="G161" s="11">
         <v>86</v>
       </c>
-      <c r="G161" s="3">
-        <v>1</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>383</v>
       </c>
@@ -4315,11 +4396,11 @@
       <c r="D162" t="s">
         <v>323</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="F162" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>387</v>
       </c>
@@ -4329,20 +4410,20 @@
       <c r="D163" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="F163" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="F163" s="13">
+      <c r="G163" s="13">
         <v>16</v>
       </c>
-      <c r="G163" s="5">
-        <v>1</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="5">
+        <v>1</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>390</v>
       </c>
@@ -4352,18 +4433,18 @@
       <c r="C164" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="11">
+      <c r="F164" s="8"/>
+      <c r="G164" s="11">
         <v>163</v>
       </c>
-      <c r="G164" s="3">
-        <v>1</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>394</v>
       </c>
@@ -4373,20 +4454,20 @@
       <c r="D165" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="F165" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F165" s="13">
+      <c r="G165" s="13">
         <v>21</v>
       </c>
-      <c r="G165" s="5">
-        <v>1</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="5">
+        <v>1</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>395</v>
       </c>
@@ -4396,20 +4477,20 @@
       <c r="D166" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="F166" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F166" s="13">
+      <c r="G166" s="13">
         <v>18</v>
       </c>
-      <c r="G166" s="5">
-        <v>1</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="5">
+        <v>1</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>398</v>
       </c>
@@ -4419,31 +4500,31 @@
       <c r="D167" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="F167" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F167" s="13">
+      <c r="G167" s="13">
         <v>19</v>
       </c>
-      <c r="G167" s="5">
-        <v>1</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H167" s="5">
+        <v>1</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>399</v>
       </c>
       <c r="D168" t="s">
         <v>323</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="F168" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>401</v>
       </c>
@@ -4453,20 +4534,20 @@
       <c r="D169" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="F169" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="F169" s="13">
+      <c r="G169" s="13">
         <v>10</v>
       </c>
-      <c r="G169" s="5">
-        <v>1</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H169" s="5">
+        <v>1</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>405</v>
       </c>
@@ -4479,52 +4560,52 @@
       <c r="D170" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="F170" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F170" s="11">
+      <c r="G170" s="11">
         <v>445</v>
       </c>
-      <c r="G170" s="3">
-        <v>1</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>408</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="F171" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>409</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="F172" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>411</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="F173" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>413</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="F174" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>414</v>
       </c>
@@ -4534,20 +4615,20 @@
       <c r="D175" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="F175" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="F175" s="11">
+      <c r="G175" s="11">
         <v>27</v>
       </c>
-      <c r="G175" s="3">
-        <v>1</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>417</v>
       </c>
@@ -4560,31 +4641,31 @@
       <c r="D176" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="F176" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F176" s="11">
+      <c r="G176" s="11">
         <v>299</v>
       </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>421</v>
       </c>
       <c r="C177" t="s">
         <v>422</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="F177" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>425</v>
       </c>
@@ -4594,52 +4675,52 @@
       <c r="D178" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="F178" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="F178" s="11">
+      <c r="G178" s="11">
         <v>160</v>
       </c>
-      <c r="G178" s="3">
-        <v>1</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>427</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>428</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="F180" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>429</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="F181" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>431</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="F182" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>433</v>
       </c>
@@ -4652,55 +4733,55 @@
       <c r="D183" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="F183" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F183" s="11">
+      <c r="G183" s="11">
         <v>705</v>
       </c>
-      <c r="G183" s="3">
-        <v>1</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>437</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="F184" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>439</v>
       </c>
       <c r="C185" t="s">
         <v>440</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="F185" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>442</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="F186" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>443</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="F187" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>446</v>
       </c>
@@ -4710,40 +4791,40 @@
       <c r="C188" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E188" s="8"/>
-      <c r="F188" s="11">
+      <c r="F188" s="8"/>
+      <c r="G188" s="11">
         <v>558</v>
       </c>
-      <c r="G188" s="3">
-        <v>1</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>97</v>
       </c>
       <c r="C189" t="s">
         <v>447</v>
       </c>
-      <c r="E189" s="7" t="s">
+      <c r="F189" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>97</v>
       </c>
       <c r="B190" t="s">
         <v>449</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="F190" s="7" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>97</v>
       </c>
@@ -4753,20 +4834,20 @@
       <c r="C191" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="F191" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="F191" s="11">
+      <c r="G191" s="11">
         <v>37</v>
       </c>
-      <c r="G191" s="3">
-        <v>1</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="3">
+        <v>1</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>164</v>
       </c>
@@ -4776,79 +4857,79 @@
       <c r="C192" t="s">
         <v>166</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="F192" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>168</v>
       </c>
       <c r="B193" t="s">
         <v>167</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="F193" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>244</v>
       </c>
       <c r="B194" t="s">
         <v>245</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="F194" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>264</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="F195" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>265</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="F196" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>39</v>
       </c>
       <c r="C197" t="s">
         <v>40</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="F197" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F198" s="13">
-        <f>SUM(F2:F193)</f>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G198" s="13">
+        <f>SUM(G2:G193)</f>
         <v>27449</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="H198" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F199" s="13">
-        <f>SUM(G2:G193)</f>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="13">
+        <f>SUM(H2:H193)</f>
         <v>71</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F126">
     <sortCondition ref="A2:A126"/>
     <sortCondition ref="C2:C126"/>
   </sortState>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198194_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198222_2_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FC0D1-FC45-47DB-B61C-3A29A9DF7698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BA10F-1B90-4949-A4F4-8D15989727E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="461">
   <si>
     <t>Species</t>
   </si>
@@ -1413,6 +1413,12 @@
   </si>
   <si>
     <t>2 years</t>
+  </si>
+  <si>
+    <t>Amaranthus tuberculatus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1900870116</t>
   </si>
 </sst>
 </file>
@@ -1800,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,88 +1878,77 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="11">
+      <c r="F5" s="8"/>
+      <c r="G5" s="11">
         <v>87</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>454</v>
@@ -1963,65 +1958,78 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="11">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11">
         <v>142</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>243</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11">
+      <c r="F10" s="8"/>
+      <c r="G10" s="11">
         <v>1135</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>142</v>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2029,7 +2037,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>142</v>
@@ -2040,10 +2048,10 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,7 +2059,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>145</v>
@@ -2059,195 +2067,180 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>597</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>467</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>56</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>128</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="11">
-        <v>119</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>158</v>
@@ -2262,111 +2255,126 @@
         <v>159</v>
       </c>
       <c r="G25" s="11">
+        <v>119</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="11">
         <v>199</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>40</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>52</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>137</v>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>136</v>
@@ -2375,117 +2383,117 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="11">
-        <v>296</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>259</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>454</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="11">
+        <v>296</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>3171</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>337</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
@@ -2494,41 +2502,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>115</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>145</v>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2539,7 +2544,7 @@
         <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>145</v>
@@ -2547,43 +2552,46 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
@@ -2594,7 +2602,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
@@ -2605,7 +2613,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
@@ -2616,7 +2624,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>136</v>
@@ -2625,184 +2633,184 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" s="11">
-        <v>1674</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G51" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="11">
-        <v>185</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="11">
+        <v>185</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="11">
         <v>336</v>
       </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="11">
+      <c r="F58" s="8"/>
+      <c r="G58" s="11">
         <v>1081</v>
       </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7" t="s">
-        <v>251</v>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>136</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="7" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -2813,7 +2821,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
@@ -2824,305 +2832,305 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>25</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="11">
+      <c r="F64" s="8"/>
+      <c r="G64" s="11">
         <v>300</v>
       </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>74</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>131</v>
       </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>145</v>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>200</v>
       </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>197</v>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>28</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>136</v>
       </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>44</v>
       </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>100</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>200</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G76" s="3">
         <v>39</v>
       </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" t="s">
-        <v>252</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
       <c r="B77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
         <v>184</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F79" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>38</v>
       </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>203</v>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>136</v>
@@ -3133,207 +3141,207 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
         <v>136</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F83" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>52</v>
       </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>204</v>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
         <v>136</v>
       </c>
       <c r="C84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>3024</v>
       </c>
-      <c r="H85" s="3">
-        <v>1</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>85</v>
       </c>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>747</v>
       </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>136</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="11">
+      <c r="F90" s="8"/>
+      <c r="G90" s="11">
         <v>683</v>
       </c>
-      <c r="H89" s="3">
-        <v>1</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>118</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G92" s="11">
         <v>52</v>
       </c>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" t="s">
-        <v>53</v>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,65 +3349,65 @@
         <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G97" s="11">
         <v>428</v>
       </c>
-      <c r="H96" s="3">
-        <v>1</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>137</v>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
@@ -3410,7 +3418,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
@@ -3419,58 +3427,61 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G100" s="11">
-        <v>909</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>259</v>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G101" s="11">
+        <v>909</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F102" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G102" s="11">
         <v>38</v>
       </c>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3478,58 +3489,52 @@
         <v>18</v>
       </c>
       <c r="C103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
         <v>218</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G105" s="11">
         <v>360</v>
       </c>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" t="s">
-        <v>222</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>223</v>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3537,53 +3542,44 @@
         <v>31</v>
       </c>
       <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
         <v>225</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>224</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G109" s="11">
         <v>400</v>
-      </c>
-      <c r="H108" s="3">
-        <v>1</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G109" s="11">
-        <v>296</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -3594,123 +3590,135 @@
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" s="11">
+        <v>296</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G111" s="11">
         <v>36</v>
       </c>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" t="s">
-        <v>136</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>137</v>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>95</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G114" s="11">
-        <v>786</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G115" s="11">
+        <v>786</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G116" s="11">
         <v>114</v>
       </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" t="s">
-        <v>136</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>137</v>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
         <v>136</v>
@@ -3721,41 +3729,44 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F120" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G120" s="11">
         <v>117</v>
       </c>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3763,165 +3774,149 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G122" s="11">
-        <v>33</v>
-      </c>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B123" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="C123" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="G123" s="11">
+        <v>33</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="11">
-        <v>277</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="11">
         <v>599</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>124</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>237</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F127" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="11">
+      <c r="F128" s="8"/>
+      <c r="G128" s="11">
         <v>306</v>
       </c>
-      <c r="H127" s="3">
-        <v>1</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>160</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>162</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F129" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>312</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="11">
-        <v>306</v>
-      </c>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>323</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="11">
-        <v>479</v>
+        <v>306</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -3932,20 +3927,20 @@
     </row>
     <row r="132" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>323</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="11">
-        <v>1007</v>
+        <v>479</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -3954,267 +3949,280 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="8"/>
+      <c r="G133" s="11">
+        <v>1007</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G134" s="11">
         <v>10</v>
       </c>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>329</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>323</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F135" s="7" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G135" s="11">
-        <v>135</v>
-      </c>
-      <c r="H135" s="3">
-        <v>1</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>323</v>
       </c>
       <c r="F136" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G136" s="11">
+        <v>135</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G137" s="11">
         <v>7</v>
       </c>
-      <c r="H136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>339</v>
-      </c>
-      <c r="D137" t="s">
-        <v>323</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>137</v>
+      <c r="H137" s="3">
+        <v>1</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="D138" t="s">
+        <v>323</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>340</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>342</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F140" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F141" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G141" s="11">
         <v>34</v>
       </c>
-      <c r="H140" s="3">
-        <v>1</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>349</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>350</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>98</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F144" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="11">
+      <c r="F145" s="8"/>
+      <c r="G145" s="11">
         <v>1175</v>
       </c>
-      <c r="H144" s="3">
-        <v>1</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>356</v>
-      </c>
-      <c r="D145" t="s">
-        <v>323</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>357</v>
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D146" t="s">
         <v>323</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>358</v>
+      </c>
+      <c r="D147" t="s">
+        <v>323</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="11">
+      <c r="F148" s="8"/>
+      <c r="G148" s="11">
         <v>171</v>
       </c>
-      <c r="H147" s="3">
-        <v>1</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>362</v>
-      </c>
-      <c r="D148" t="s">
-        <v>323</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>363</v>
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D149" t="s">
         <v>323</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D150" t="s">
         <v>323</v>
@@ -4225,7 +4233,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D151" t="s">
         <v>323</v>
@@ -4234,83 +4242,83 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>366</v>
+      </c>
+      <c r="D152" t="s">
+        <v>323</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F153" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G153" s="11">
         <v>14</v>
       </c>
-      <c r="H152" s="3">
-        <v>1</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>370</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>357</v>
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>370</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>371</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="11">
+      <c r="F156" s="8"/>
+      <c r="G156" s="11">
         <v>550</v>
       </c>
-      <c r="H155" s="3">
-        <v>1</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>376</v>
-      </c>
-      <c r="D156" t="s">
-        <v>323</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>372</v>
+      <c r="H156" s="3">
+        <v>1</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D157" t="s">
         <v>323</v>
@@ -4319,160 +4327,148 @@
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>377</v>
+      </c>
+      <c r="D158" t="s">
+        <v>323</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="11">
+      <c r="F159" s="8"/>
+      <c r="G159" s="11">
         <v>55</v>
       </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>381</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>372</v>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>382</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="11">
+      <c r="F162" s="8"/>
+      <c r="G162" s="11">
         <v>86</v>
       </c>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>383</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>385</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>384</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>323</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F163" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F164" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="G163" s="13">
+      <c r="G164" s="13">
         <v>16</v>
       </c>
-      <c r="H163" s="5">
-        <v>1</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="H164" s="5">
+        <v>1</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="11">
+      <c r="F165" s="8"/>
+      <c r="G165" s="11">
         <v>163</v>
       </c>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F165" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G165" s="13">
-        <v>21</v>
-      </c>
-      <c r="H165" s="5">
-        <v>1</v>
-      </c>
-      <c r="I165" s="5" t="s">
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>323</v>
@@ -4481,7 +4477,7 @@
         <v>236</v>
       </c>
       <c r="G166" s="13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H166" s="5">
         <v>1</v>
@@ -4492,10 +4488,10 @@
     </row>
     <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>323</v>
@@ -4504,369 +4500,381 @@
         <v>236</v>
       </c>
       <c r="G167" s="13">
+        <v>18</v>
+      </c>
+      <c r="H167" s="5">
+        <v>1</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G168" s="13">
         <v>19</v>
       </c>
-      <c r="H167" s="5">
-        <v>1</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="H168" s="5">
+        <v>1</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>399</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>323</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="170" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="F170" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G169" s="13">
+      <c r="G170" s="13">
         <v>10</v>
       </c>
-      <c r="H169" s="5">
-        <v>1</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="H170" s="5">
+        <v>1</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F171" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="G170" s="11">
+      <c r="G171" s="11">
         <v>445</v>
       </c>
-      <c r="H170" s="3">
-        <v>1</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>408</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>357</v>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>411</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>413</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+    <row r="176" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G175" s="11">
-        <v>27</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>323</v>
       </c>
       <c r="F176" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G176" s="11">
+        <v>27</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G176" s="11">
+      <c r="G177" s="11">
         <v>299</v>
       </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>421</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>422</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F178" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+    <row r="179" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F179" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="G178" s="11">
+      <c r="G179" s="11">
         <v>160</v>
       </c>
-      <c r="H178" s="3">
-        <v>1</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>427</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>343</v>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>428</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>429</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F182" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>431</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F183" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+    <row r="184" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F184" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G183" s="11">
+      <c r="G184" s="11">
         <v>705</v>
       </c>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>437</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>438</v>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>437</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>439</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>440</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F186" s="7" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>442</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>443</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F188" s="8"/>
-      <c r="G188" s="11">
+      <c r="F189" s="8"/>
+      <c r="G189" s="11">
         <v>558</v>
       </c>
-      <c r="H188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>97</v>
-      </c>
-      <c r="C189" t="s">
-        <v>447</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>448</v>
+      <c r="H189" s="3">
+        <v>1</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>97</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
+        <v>447</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>97</v>
+      </c>
+      <c r="B191" t="s">
         <v>449</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F191" s="7" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+    <row r="192" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F191" s="8" t="s">
+      <c r="F192" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="G191" s="11">
+      <c r="G192" s="11">
         <v>37</v>
       </c>
-      <c r="H191" s="3">
-        <v>1</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>164</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C192" t="s">
-        <v>166</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>163</v>
+      <c r="H192" s="3">
+        <v>1</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>168</v>
-      </c>
-      <c r="B193" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C193" t="s">
+        <v>166</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>163</v>
@@ -4874,10 +4882,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>163</v>
@@ -4885,7 +4893,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>264</v>
+        <v>244</v>
+      </c>
+      <c r="B195" t="s">
+        <v>245</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>163</v>
@@ -4893,7 +4904,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>163</v>
@@ -4901,45 +4912,53 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>39</v>
-      </c>
-      <c r="C197" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G198" s="13">
-        <f>SUM(G2:G193)</f>
-        <v>27449</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>213</v>
+      <c r="A198" t="s">
+        <v>39</v>
+      </c>
+      <c r="C198" t="s">
+        <v>40</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G199" s="13">
-        <f>SUM(H2:H193)</f>
+        <f>SUM(G2:G194)</f>
+        <v>27449</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G200" s="13">
+        <f>SUM(H2:H194)</f>
         <v>71</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="H200" s="5" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F126">
-    <sortCondition ref="A2:A126"/>
-    <sortCondition ref="C2:C126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F127">
+    <sortCondition ref="A2:A127"/>
+    <sortCondition ref="C2:C127"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B192" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
-    <hyperlink ref="B73" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
-    <hyperlink ref="B19" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
-    <hyperlink ref="B87" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
+    <hyperlink ref="B193" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
+    <hyperlink ref="B74" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
+    <hyperlink ref="B20" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
+    <hyperlink ref="B88" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198222_2_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198222_2_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BA10F-1B90-4949-A4F4-8D15989727E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA340547-04E1-4C6E-BF91-52CD53F565A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="462">
   <si>
     <t>Species</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1073/pnas.1900870116</t>
+  </si>
+  <si>
+    <t>Doesn't look like a divergence time between A. tuberculatus and A. hypochondriacus is known… It's less than 9 million years because that is when the genus according to timetree.org</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1881,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>459</v>
       </c>
@@ -1888,7 +1891,9 @@
       <c r="D3" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\198222_2_12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\1771458_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA340547-04E1-4C6E-BF91-52CD53F565A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC19667-8114-4598-AE0C-92806505D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Included species" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="579">
   <si>
     <t>Species</t>
   </si>
@@ -677,9 +678,6 @@
     <t>doi: 10.1186/s13059-019-1648-9</t>
   </si>
   <si>
-    <t>Total number of sequenced individuals</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRJEB1234 </t>
   </si>
   <si>
@@ -755,9 +753,6 @@
     <t>https://doi.org/10.1038/s41467-021-27487-y</t>
   </si>
   <si>
-    <t>Total number of species</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/s41467-022-29676-9</t>
   </si>
   <si>
@@ -1422,12 +1417,372 @@
   </si>
   <si>
     <t>Doesn't look like a divergence time between A. tuberculatus and A. hypochondriacus is known… It's less than 9 million years because that is when the genus according to timetree.org</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-019-12604-9</t>
+  </si>
+  <si>
+    <t>PRJNA505141</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Abrus precatorius</t>
+  </si>
+  <si>
+    <t>Actinidia rufa</t>
+  </si>
+  <si>
+    <t>Adiantum capillus-veneris</t>
+  </si>
+  <si>
+    <t>Adiantum nelumboides</t>
+  </si>
+  <si>
+    <t>Arabidopsis suecica</t>
+  </si>
+  <si>
+    <t>Arabis nemorensis</t>
+  </si>
+  <si>
+    <t>Arachis duranensis</t>
+  </si>
+  <si>
+    <t>Arachis ipaensis</t>
+  </si>
+  <si>
+    <t>Aristolochia fimbriata</t>
+  </si>
+  <si>
+    <t>Bauhinia variegata</t>
+  </si>
+  <si>
+    <t>Benincasa hispida</t>
+  </si>
+  <si>
+    <t>Brassica carinata</t>
+  </si>
+  <si>
+    <t>Buddleja alternifolia</t>
+  </si>
+  <si>
+    <t>Cajanus cajan</t>
+  </si>
+  <si>
+    <t>Camellia sinensis</t>
+  </si>
+  <si>
+    <t>Carex littledalei</t>
+  </si>
+  <si>
+    <t>Castanea mollissima</t>
+  </si>
+  <si>
+    <t>Ceratodon purpureus</t>
+  </si>
+  <si>
+    <t>Ceratopteris richardii</t>
+  </si>
+  <si>
+    <t>Coffea arabica</t>
+  </si>
+  <si>
+    <t>Coffea eugenioides</t>
+  </si>
+  <si>
+    <t>Coptis chinensis</t>
+  </si>
+  <si>
+    <t>Cucurbita argyrosperma</t>
+  </si>
+  <si>
+    <t>Cucurbita maxima</t>
+  </si>
+  <si>
+    <t>Cucurbita moschata</t>
+  </si>
+  <si>
+    <t>Cucurbita pepo</t>
+  </si>
+  <si>
+    <t>Cuscuta campestris</t>
+  </si>
+  <si>
+    <t>Cuscuta epithymum</t>
+  </si>
+  <si>
+    <t>Cuscuta europaea</t>
+  </si>
+  <si>
+    <t>Dendrobium chrysotoxum</t>
+  </si>
+  <si>
+    <t>Dendrobium nobile</t>
+  </si>
+  <si>
+    <t>Dioscorea cayenensis</t>
+  </si>
+  <si>
+    <t>Diospyros lotus</t>
+  </si>
+  <si>
+    <t>Durio zibethinus</t>
+  </si>
+  <si>
+    <t>Elaeis guineensis</t>
+  </si>
+  <si>
+    <t>Eleusine coracana</t>
+  </si>
+  <si>
+    <t>Ensete ventricosum</t>
+  </si>
+  <si>
+    <t>Erigeron canadensis</t>
+  </si>
+  <si>
+    <t>Genlisea aurea</t>
+  </si>
+  <si>
+    <t>Gossypium anomalum</t>
+  </si>
+  <si>
+    <t>Gossypium arboreum</t>
+  </si>
+  <si>
+    <t>Gossypium aridum</t>
+  </si>
+  <si>
+    <t>Gossypium armourianum</t>
+  </si>
+  <si>
+    <t>Gossypium davidsonii</t>
+  </si>
+  <si>
+    <t>Gossypium gossypioides</t>
+  </si>
+  <si>
+    <t>Gossypium harknessii</t>
+  </si>
+  <si>
+    <t>Gossypium klotzschianum</t>
+  </si>
+  <si>
+    <t>Gossypium laxum</t>
+  </si>
+  <si>
+    <t>Gossypium lobatum</t>
+  </si>
+  <si>
+    <t>Gossypium schwendimanii</t>
+  </si>
+  <si>
+    <t>Gossypium stocksii</t>
+  </si>
+  <si>
+    <t>Gossypium trilobum</t>
+  </si>
+  <si>
+    <t>Heliosperma pusillum</t>
+  </si>
+  <si>
+    <t>Herrania umbratica</t>
+  </si>
+  <si>
+    <t>Hevea brasiliensis</t>
+  </si>
+  <si>
+    <t>Impatiens glandulifera</t>
+  </si>
+  <si>
+    <t>Jatropha curcas</t>
+  </si>
+  <si>
+    <t>Kingdonia uniflora</t>
+  </si>
+  <si>
+    <t>Lithospermum erythrorhizon</t>
+  </si>
+  <si>
+    <t>Lolium rigidum</t>
+  </si>
+  <si>
+    <t>Macadamia integrifolia</t>
+  </si>
+  <si>
+    <t>Malus domestica</t>
+  </si>
+  <si>
+    <t>Malus sylvestris</t>
+  </si>
+  <si>
+    <t>Mangifera indica</t>
+  </si>
+  <si>
+    <t>Marchantia paleacea</t>
+  </si>
+  <si>
+    <t>Melastoma candidum</t>
+  </si>
+  <si>
+    <t>Microthlaspi erraticum</t>
+  </si>
+  <si>
+    <t>Miscanthus lutarioriparius</t>
+  </si>
+  <si>
+    <t>Momordica charantia</t>
+  </si>
+  <si>
+    <t>Morus notabilis</t>
+  </si>
+  <si>
+    <t>Musa troglodytarum</t>
+  </si>
+  <si>
+    <t>Nelumbo nucifera</t>
+  </si>
+  <si>
+    <t>Nymphaea thermarum</t>
+  </si>
+  <si>
+    <t>Papaver armeniacum</t>
+  </si>
+  <si>
+    <t>Papaver atlanticum</t>
+  </si>
+  <si>
+    <t>Papaver bracteatum</t>
+  </si>
+  <si>
+    <t>Papaver californicum</t>
+  </si>
+  <si>
+    <t>Paulownia fortunei</t>
+  </si>
+  <si>
+    <t>Perilla frutescens</t>
+  </si>
+  <si>
+    <t>Phtheirospermum japonicum</t>
+  </si>
+  <si>
+    <t>Populus deltoides</t>
+  </si>
+  <si>
+    <t>Populus tomentosa</t>
+  </si>
+  <si>
+    <t>Potentilla anserina</t>
+  </si>
+  <si>
+    <t>Prosopis alba</t>
+  </si>
+  <si>
+    <t>Prunus armeniaca</t>
+  </si>
+  <si>
+    <t>Psidium guajava</t>
+  </si>
+  <si>
+    <t>Punica granatum</t>
+  </si>
+  <si>
+    <t>Quercus robur</t>
+  </si>
+  <si>
+    <t>Rhodamnia argentea</t>
+  </si>
+  <si>
+    <t>Rhododendron griersonianum</t>
+  </si>
+  <si>
+    <t>Rhododendron simsii</t>
+  </si>
+  <si>
+    <t>Salix dunnii</t>
+  </si>
+  <si>
+    <t>Salix suchowensis</t>
+  </si>
+  <si>
+    <t>Salvia hispanica</t>
+  </si>
+  <si>
+    <t>Salvia splendens</t>
+  </si>
+  <si>
+    <t>Senna tora</t>
+  </si>
+  <si>
+    <t>Shorea leprosula</t>
+  </si>
+  <si>
+    <t>Sinapis alba</t>
+  </si>
+  <si>
+    <t>Solanum commersonii</t>
+  </si>
+  <si>
+    <t>Solanum pennellii</t>
+  </si>
+  <si>
+    <t>Solanum stenotomum</t>
+  </si>
+  <si>
+    <t>Spirodela intermedia</t>
+  </si>
+  <si>
+    <t>Striga hermonthica</t>
+  </si>
+  <si>
+    <t>Tarenaya hassleriana</t>
+  </si>
+  <si>
+    <t>Taxus chinensis</t>
+  </si>
+  <si>
+    <t>Telopea speciosissima</t>
+  </si>
+  <si>
+    <t>Tetracentron sinense</t>
+  </si>
+  <si>
+    <t>Thalictrum thalictroides</t>
+  </si>
+  <si>
+    <t>Thlaspi arvense</t>
+  </si>
+  <si>
+    <t>Tripterygium wilfordii</t>
+  </si>
+  <si>
+    <t>Vigna umbellata</t>
+  </si>
+  <si>
+    <t>Vitis riparia</t>
+  </si>
+  <si>
+    <t>Xanthoceras sorbifolium</t>
+  </si>
+  <si>
+    <t>Zingiber officinale</t>
+  </si>
+  <si>
+    <t>Zizania palustris</t>
+  </si>
+  <si>
+    <t>Ziziphus jujuba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="&quot;''&quot;@&quot;''&quot;\,"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1498,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1528,6 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1809,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,10 +2192,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>66</v>
@@ -1848,10 +2204,10 @@
         <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1865,10 +2221,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="11">
@@ -1878,21 +2234,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -1918,10 +2274,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="11">
@@ -1931,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1956,10 +2312,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="11">
@@ -1969,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1977,13 +2333,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11">
@@ -1993,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,13 +2357,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2015,16 +2371,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11">
@@ -2034,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,16 +2453,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G16" s="11">
         <v>597</v>
@@ -2115,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2140,11 +2496,11 @@
         <v>169</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G18" s="11">
         <v>467</v>
@@ -2153,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,16 +2531,16 @@
         <v>128</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="G20" s="11">
         <v>56</v>
@@ -2193,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2207,7 +2563,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2218,7 +2574,7 @@
         <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,7 +2610,7 @@
         <v>157</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>159</v>
@@ -2266,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2636,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>159</v>
@@ -2292,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,13 +2667,13 @@
         <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>159</v>
@@ -2329,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2356,16 +2712,16 @@
         <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G31" s="11">
         <v>52</v>
@@ -2374,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,10 +2766,10 @@
         <v>171</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G34" s="11">
         <v>296</v>
@@ -2422,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2436,10 +2792,10 @@
         <v>174</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G35" s="11">
         <v>3171</v>
@@ -2448,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2473,7 +2829,7 @@
         <v>43</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G37" s="11">
         <v>337</v>
@@ -2482,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2493,7 +2849,7 @@
         <v>136</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2538,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,13 +3010,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G51" s="11">
         <v>1674</v>
@@ -2669,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2677,13 +3033,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G52" s="11">
         <v>240</v>
@@ -2694,13 +3050,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="G53" s="11">
         <v>279</v>
@@ -2717,7 +3073,7 @@
         <v>47</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2731,10 +3087,10 @@
         <v>183</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="11">
@@ -2744,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2765,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2784,10 +3140,10 @@
         <v>112</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="11">
@@ -2797,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2810,7 +3166,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,7 +3259,7 @@
         <v>189</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G66" s="11">
         <v>131</v>
@@ -2912,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,13 +3304,13 @@
         <v>99</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="G69" s="11">
         <v>200</v>
@@ -2963,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,7 +3358,7 @@
         <v>198</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G72" s="11">
         <v>136</v>
@@ -3011,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3030,13 +3386,13 @@
         <v>100</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>201</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G74" s="11">
         <v>44</v>
@@ -3045,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3064,10 +3420,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>159</v>
@@ -3079,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3090,10 +3446,10 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3107,7 +3463,7 @@
         <v>195</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3118,10 +3474,10 @@
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G79" s="11">
         <v>38</v>
@@ -3130,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3177,7 +3533,7 @@
         <v>205</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G83" s="11">
         <v>52</v>
@@ -3186,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G86" s="12">
         <v>3024</v>
@@ -3234,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -3248,7 +3604,7 @@
         <v>47</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G87" s="11">
         <v>85</v>
@@ -3257,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3265,13 +3621,13 @@
         <v>130</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>209</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G88" s="11">
         <v>747</v>
@@ -3280,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,7 +3693,7 @@
         <v>56</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G92" s="11">
         <v>52</v>
@@ -3346,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3398,7 +3754,7 @@
         <v>211</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G97" s="11">
         <v>428</v>
@@ -3407,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3448,13 +3804,13 @@
         <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G101" s="11">
         <v>909</v>
@@ -3463,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3471,13 +3827,13 @@
         <v>132</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G102" s="11">
         <v>38</v>
@@ -3486,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3502,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>145</v>
@@ -3513,10 +3869,10 @@
         <v>18</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>159</v>
@@ -3528,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3536,10 +3892,10 @@
         <v>79</v>
       </c>
       <c r="C106" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3561,13 +3917,13 @@
         <v>31</v>
       </c>
       <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C108" t="s">
-        <v>224</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3575,10 +3931,10 @@
         <v>31</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>159</v>
@@ -3590,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3598,13 +3954,13 @@
         <v>75</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G110" s="11">
         <v>296</v>
@@ -3613,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3621,13 +3977,13 @@
         <v>123</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G111" s="11">
         <v>36</v>
@@ -3636,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3669,7 +4025,7 @@
         <v>95</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3677,13 +4033,13 @@
         <v>23</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G115" s="11">
         <v>786</v>
@@ -3692,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3700,16 +4056,16 @@
         <v>32</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G116" s="11">
         <v>114</v>
@@ -3718,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,13 +4112,13 @@
         <v>10</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G120" s="11">
         <v>117</v>
@@ -3771,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3795,13 +4151,13 @@
         <v>9</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G123" s="11">
         <v>33</v>
@@ -3810,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3821,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G124" s="11"/>
     </row>
@@ -3854,10 +4210,10 @@
         <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3865,13 +4221,13 @@
         <v>160</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="11">
@@ -3881,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3900,24 +4256,24 @@
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>310</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="D131" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="11">
@@ -3927,21 +4283,21 @@
         <v>1</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="C132" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="11">
@@ -3951,21 +4307,21 @@
         <v>1</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="11">
@@ -3975,24 +4331,24 @@
         <v>1</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="G134" s="11">
         <v>10</v>
@@ -4001,35 +4357,35 @@
         <v>1</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="C136" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="G136" s="11">
         <v>135</v>
@@ -4038,24 +4394,24 @@
         <v>1</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G137" s="11">
         <v>7</v>
@@ -4064,15 +4420,15 @@
         <v>1</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>137</v>
@@ -4080,35 +4436,35 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="G141" s="11">
         <v>34</v>
@@ -4117,12 +4473,12 @@
         <v>1</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>137</v>
@@ -4130,10 +4486,10 @@
     </row>
     <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4141,21 +4497,21 @@
         <v>98</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="D145" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="11">
@@ -4165,43 +4521,43 @@
         <v>1</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D147" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="11">
@@ -4211,65 +4567,65 @@
         <v>1</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D150" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="G153" s="11">
         <v>14</v>
@@ -4278,37 +4634,37 @@
         <v>1</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="11">
@@ -4318,43 +4674,43 @@
         <v>1</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="C159" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="11">
@@ -4364,37 +4720,37 @@
         <v>1</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="11">
@@ -4404,38 +4760,38 @@
         <v>1</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>381</v>
+      </c>
+      <c r="B163" t="s">
         <v>383</v>
       </c>
-      <c r="B163" t="s">
-        <v>385</v>
-      </c>
       <c r="C163" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F164" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="G164" s="13">
         <v>16</v>
@@ -4444,18 +4800,18 @@
         <v>1</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="11">
@@ -4465,21 +4821,21 @@
         <v>1</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G166" s="13">
         <v>21</v>
@@ -4488,21 +4844,21 @@
         <v>1</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G167" s="13">
         <v>18</v>
@@ -4511,21 +4867,21 @@
         <v>1</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G168" s="13">
         <v>19</v>
@@ -4534,32 +4890,32 @@
         <v>1</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F170" s="14" t="s">
         <v>401</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>403</v>
       </c>
       <c r="G170" s="13">
         <v>10</v>
@@ -4568,24 +4924,24 @@
         <v>1</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="G171" s="11">
         <v>445</v>
@@ -4594,53 +4950,53 @@
         <v>1</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="G176" s="11">
         <v>27</v>
@@ -4649,24 +5005,24 @@
         <v>1</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="D177" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G177" s="11">
         <v>299</v>
@@ -4675,32 +5031,32 @@
         <v>1</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>419</v>
+      </c>
+      <c r="C178" t="s">
+        <v>420</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="C178" t="s">
-        <v>422</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="G179" s="11">
         <v>160</v>
@@ -4709,56 +5065,56 @@
         <v>1</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="D184" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F184" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="G184" s="11">
         <v>705</v>
@@ -4767,53 +5123,53 @@
         <v>1</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>437</v>
+      </c>
+      <c r="C186" t="s">
+        <v>438</v>
+      </c>
+      <c r="F186" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="C186" t="s">
-        <v>440</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F189" s="8"/>
       <c r="G189" s="11">
@@ -4823,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4831,10 +5187,10 @@
         <v>97</v>
       </c>
       <c r="C190" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4842,10 +5198,10 @@
         <v>97</v>
       </c>
       <c r="B191" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4853,13 +5209,13 @@
         <v>97</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F192" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="G192" s="11">
         <v>37</v>
@@ -4868,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>164</v>
       </c>
@@ -4885,7 +5241,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>168</v>
       </c>
@@ -4896,60 +5252,1007 @@
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>244</v>
-      </c>
-      <c r="B195" t="s">
-        <v>245</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="11">
+        <v>157</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+      <c r="B196" t="s">
+        <v>243</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>39</v>
-      </c>
-      <c r="C198" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G199" s="13">
-        <f>SUM(G2:G194)</f>
-        <v>27449</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G200" s="13">
-        <f>SUM(H2:H194)</f>
-        <v>71</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>239</v>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199" t="s">
+        <v>40</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>463</v>
+      </c>
+      <c r="D200" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>464</v>
+      </c>
+      <c r="D201" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>465</v>
+      </c>
+      <c r="D202" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>466</v>
+      </c>
+      <c r="D203" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>468</v>
+      </c>
+      <c r="D205" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>469</v>
+      </c>
+      <c r="D206" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>470</v>
+      </c>
+      <c r="D207" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>471</v>
+      </c>
+      <c r="D208" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>472</v>
+      </c>
+      <c r="D209" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>473</v>
+      </c>
+      <c r="D210" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>474</v>
+      </c>
+      <c r="D211" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>475</v>
+      </c>
+      <c r="D212" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>476</v>
+      </c>
+      <c r="D213" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>477</v>
+      </c>
+      <c r="D214" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>478</v>
+      </c>
+      <c r="D215" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>479</v>
+      </c>
+      <c r="D216" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>480</v>
+      </c>
+      <c r="D217" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>481</v>
+      </c>
+      <c r="D218" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>482</v>
+      </c>
+      <c r="D219" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>483</v>
+      </c>
+      <c r="D220" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>484</v>
+      </c>
+      <c r="D221" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>485</v>
+      </c>
+      <c r="D222" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>486</v>
+      </c>
+      <c r="D223" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>487</v>
+      </c>
+      <c r="D224" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>488</v>
+      </c>
+      <c r="D225" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>489</v>
+      </c>
+      <c r="D226" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>490</v>
+      </c>
+      <c r="D227" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>491</v>
+      </c>
+      <c r="D228" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>492</v>
+      </c>
+      <c r="D229" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>493</v>
+      </c>
+      <c r="D230" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>494</v>
+      </c>
+      <c r="D231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>495</v>
+      </c>
+      <c r="D232" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>496</v>
+      </c>
+      <c r="D233" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>497</v>
+      </c>
+      <c r="D234" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>498</v>
+      </c>
+      <c r="D235" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>499</v>
+      </c>
+      <c r="D236" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>500</v>
+      </c>
+      <c r="D237" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>501</v>
+      </c>
+      <c r="D238" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>502</v>
+      </c>
+      <c r="D239" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>503</v>
+      </c>
+      <c r="D240" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>504</v>
+      </c>
+      <c r="D241" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>505</v>
+      </c>
+      <c r="D242" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>506</v>
+      </c>
+      <c r="D243" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>507</v>
+      </c>
+      <c r="D244" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>508</v>
+      </c>
+      <c r="D245" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>509</v>
+      </c>
+      <c r="D246" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>510</v>
+      </c>
+      <c r="D247" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>511</v>
+      </c>
+      <c r="D248" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>512</v>
+      </c>
+      <c r="D249" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>513</v>
+      </c>
+      <c r="D250" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>514</v>
+      </c>
+      <c r="D251" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>515</v>
+      </c>
+      <c r="D252" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>516</v>
+      </c>
+      <c r="D253" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>517</v>
+      </c>
+      <c r="D254" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>518</v>
+      </c>
+      <c r="D255" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>519</v>
+      </c>
+      <c r="D256" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>520</v>
+      </c>
+      <c r="D257" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>521</v>
+      </c>
+      <c r="D258" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>522</v>
+      </c>
+      <c r="D259" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>523</v>
+      </c>
+      <c r="D260" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>524</v>
+      </c>
+      <c r="D261" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>525</v>
+      </c>
+      <c r="D262" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>526</v>
+      </c>
+      <c r="D263" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>527</v>
+      </c>
+      <c r="D264" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>528</v>
+      </c>
+      <c r="D265" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>529</v>
+      </c>
+      <c r="D266" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>530</v>
+      </c>
+      <c r="D267" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>531</v>
+      </c>
+      <c r="D268" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>532</v>
+      </c>
+      <c r="D269" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="D270" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>534</v>
+      </c>
+      <c r="D271" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>535</v>
+      </c>
+      <c r="D272" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>536</v>
+      </c>
+      <c r="D273" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>537</v>
+      </c>
+      <c r="D274" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>538</v>
+      </c>
+      <c r="D275" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>539</v>
+      </c>
+      <c r="D276" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>540</v>
+      </c>
+      <c r="D277" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>541</v>
+      </c>
+      <c r="D278" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>542</v>
+      </c>
+      <c r="D279" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>543</v>
+      </c>
+      <c r="D280" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>544</v>
+      </c>
+      <c r="D281" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>545</v>
+      </c>
+      <c r="D282" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>546</v>
+      </c>
+      <c r="D283" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>547</v>
+      </c>
+      <c r="D284" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>548</v>
+      </c>
+      <c r="D285" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>549</v>
+      </c>
+      <c r="D286" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>550</v>
+      </c>
+      <c r="D287" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>551</v>
+      </c>
+      <c r="D288" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>552</v>
+      </c>
+      <c r="D289" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>553</v>
+      </c>
+      <c r="D290" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>554</v>
+      </c>
+      <c r="D291" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>555</v>
+      </c>
+      <c r="D292" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>556</v>
+      </c>
+      <c r="D293" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>557</v>
+      </c>
+      <c r="D294" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>558</v>
+      </c>
+      <c r="D295" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>559</v>
+      </c>
+      <c r="D296" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>560</v>
+      </c>
+      <c r="D297" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>561</v>
+      </c>
+      <c r="D298" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>562</v>
+      </c>
+      <c r="D299" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>563</v>
+      </c>
+      <c r="D300" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>564</v>
+      </c>
+      <c r="D301" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>565</v>
+      </c>
+      <c r="D302" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>566</v>
+      </c>
+      <c r="D303" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>567</v>
+      </c>
+      <c r="D304" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>568</v>
+      </c>
+      <c r="D305" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>569</v>
+      </c>
+      <c r="D306" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>570</v>
+      </c>
+      <c r="D307" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>571</v>
+      </c>
+      <c r="D308" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>572</v>
+      </c>
+      <c r="D309" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>262</v>
+      </c>
+      <c r="D310" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>573</v>
+      </c>
+      <c r="D311" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>574</v>
+      </c>
+      <c r="D312" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>575</v>
+      </c>
+      <c r="D313" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>576</v>
+      </c>
+      <c r="D314" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>577</v>
+      </c>
+      <c r="D315" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>578</v>
+      </c>
+      <c r="D316" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4968,4 +6271,813 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA0D188-8CB9-4E9E-A4CF-6AB440175DE3}">
+  <dimension ref="A1:A158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A1:A158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\1771458_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/525510_2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC19667-8114-4598-AE0C-92806505D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{21C4D0B7-59BC-47B8-AA0A-8F4F599772A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4897AA6F-08FB-4F1F-8A35-A95848072406}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="613">
   <si>
     <t>Species</t>
   </si>
@@ -1774,6 +1774,108 @@
   </si>
   <si>
     <t>Ziziphus jujuba</t>
+  </si>
+  <si>
+    <t>RAD-seq data, but no WGS data in SRA</t>
+  </si>
+  <si>
+    <t>PRJNA309929</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/molbev/msw299</t>
+  </si>
+  <si>
+    <t>PRJEB39992</t>
+  </si>
+  <si>
+    <t>Maybe works, not sure if WGS</t>
+  </si>
+  <si>
+    <t>PRJNA525866</t>
+  </si>
+  <si>
+    <t>Maybe works</t>
+  </si>
+  <si>
+    <t>found only 1 WGS sample</t>
+  </si>
+  <si>
+    <t>PRJNA576075</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-019-13185-3</t>
+  </si>
+  <si>
+    <t>PRJNA577174</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nph.17637</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely</t>
+  </si>
+  <si>
+    <t>PRJNA506619</t>
+  </si>
+  <si>
+    <t>Maybe some data, need to look at more closely</t>
+  </si>
+  <si>
+    <t>PRJNA485527</t>
+  </si>
+  <si>
+    <t>PRJNA797700</t>
+  </si>
+  <si>
+    <t>don't think there's data, might need to confirm</t>
+  </si>
+  <si>
+    <t>PRJNA515691</t>
+  </si>
+  <si>
+    <t>RAD-seq data, but no WGS</t>
+  </si>
+  <si>
+    <t>PRJEB58004</t>
+  </si>
+  <si>
+    <t>PRJNA909356</t>
+  </si>
+  <si>
+    <t>PRJNA322175</t>
+  </si>
+  <si>
+    <t>maybe works</t>
+  </si>
+  <si>
+    <t>maybe some data</t>
+  </si>
+  <si>
+    <t>PRJNA565883</t>
+  </si>
+  <si>
+    <t>PRJNA659608</t>
+  </si>
+  <si>
+    <t>maybe the same as brassica napus?</t>
+  </si>
+  <si>
+    <t>PRJNA801489</t>
+  </si>
+  <si>
+    <t>I think I found some data, but its not public</t>
+  </si>
+  <si>
+    <t>PRJNA625382</t>
+  </si>
+  <si>
+    <t>PRJNA439007</t>
+  </si>
+  <si>
+    <t>GBS data, but no WGS data</t>
+  </si>
+  <si>
+    <t>PRJNA803965</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1883,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;''&quot;@&quot;''&quot;\,"/>
+    <numFmt numFmtId="164" formatCode="&quot;''&quot;@&quot;''&quot;\,"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1883,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2165,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,6 +5423,9 @@
       <c r="D200" t="s">
         <v>462</v>
       </c>
+      <c r="F200" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -5329,6 +5434,9 @@
       <c r="D201" t="s">
         <v>462</v>
       </c>
+      <c r="F201" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -5337,6 +5445,9 @@
       <c r="D202" t="s">
         <v>462</v>
       </c>
+      <c r="F202" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -5345,11 +5456,20 @@
       <c r="D203" t="s">
         <v>462</v>
       </c>
+      <c r="F203" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>467</v>
       </c>
+      <c r="B204" t="s">
+        <v>581</v>
+      </c>
+      <c r="C204" t="s">
+        <v>580</v>
+      </c>
       <c r="D204" t="s">
         <v>462</v>
       </c>
@@ -5358,24 +5478,42 @@
       <c r="A205" t="s">
         <v>468</v>
       </c>
+      <c r="C205" t="s">
+        <v>582</v>
+      </c>
       <c r="D205" t="s">
         <v>462</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>469</v>
       </c>
+      <c r="C206" t="s">
+        <v>584</v>
+      </c>
       <c r="D206" t="s">
         <v>462</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>470</v>
       </c>
+      <c r="C207" t="s">
+        <v>584</v>
+      </c>
       <c r="D207" t="s">
         <v>462</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -5385,874 +5523,1238 @@
       <c r="D208" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F208" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>472</v>
       </c>
       <c r="D209" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F209" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>473</v>
       </c>
+      <c r="B210" t="s">
+        <v>588</v>
+      </c>
+      <c r="C210" t="s">
+        <v>587</v>
+      </c>
       <c r="D210" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>474</v>
       </c>
       <c r="D211" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F211" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>475</v>
       </c>
+      <c r="B212" t="s">
+        <v>590</v>
+      </c>
+      <c r="C212" t="s">
+        <v>589</v>
+      </c>
       <c r="D212" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>476</v>
       </c>
       <c r="D213" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F213" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>477</v>
       </c>
       <c r="D214" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F214" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>478</v>
       </c>
       <c r="D215" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F215" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>479</v>
       </c>
       <c r="D216" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F216" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>480</v>
       </c>
       <c r="D217" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F217" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>481</v>
       </c>
+      <c r="C218" t="s">
+        <v>592</v>
+      </c>
       <c r="D218" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F218" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>482</v>
       </c>
       <c r="D219" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F219" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>483</v>
       </c>
       <c r="D220" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F220" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>484</v>
       </c>
       <c r="D221" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F221" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>485</v>
       </c>
+      <c r="C222" t="s">
+        <v>594</v>
+      </c>
       <c r="D222" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F222" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>486</v>
       </c>
+      <c r="C223" t="s">
+        <v>595</v>
+      </c>
       <c r="D223" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F223" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>487</v>
       </c>
       <c r="D224" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F224" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>488</v>
       </c>
       <c r="D225" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F225" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>489</v>
       </c>
       <c r="D226" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F226" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>490</v>
       </c>
       <c r="D227" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F227" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>491</v>
       </c>
       <c r="D228" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F228" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>492</v>
       </c>
       <c r="D229" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F229" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>493</v>
       </c>
       <c r="D230" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F230" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>494</v>
       </c>
+      <c r="C231" t="s">
+        <v>597</v>
+      </c>
       <c r="D231" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F231" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>495</v>
       </c>
       <c r="D232" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F232" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>496</v>
       </c>
       <c r="D233" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F233" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>497</v>
       </c>
       <c r="D234" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F234" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>498</v>
       </c>
       <c r="D235" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F235" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>499</v>
       </c>
+      <c r="C236" t="s">
+        <v>599</v>
+      </c>
       <c r="D236" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F236" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>500</v>
       </c>
       <c r="D237" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F237" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>501</v>
       </c>
       <c r="D238" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F238" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>502</v>
       </c>
       <c r="D239" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F239" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>503</v>
       </c>
       <c r="D240" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F240" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>504</v>
       </c>
       <c r="D241" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F241" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>505</v>
       </c>
       <c r="D242" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F242" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>506</v>
       </c>
       <c r="D243" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F243" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>507</v>
       </c>
       <c r="D244" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F244" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>508</v>
       </c>
       <c r="D245" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F245" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>509</v>
       </c>
       <c r="D246" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F246" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>510</v>
       </c>
       <c r="D247" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F247" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>511</v>
       </c>
       <c r="D248" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F248" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>512</v>
       </c>
       <c r="D249" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F249" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>513</v>
       </c>
       <c r="D250" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F250" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>514</v>
       </c>
       <c r="D251" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F251" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>515</v>
       </c>
       <c r="D252" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F252" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>516</v>
       </c>
       <c r="D253" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F253" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>517</v>
       </c>
       <c r="D254" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F254" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>518</v>
       </c>
       <c r="D255" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F255" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>519</v>
       </c>
       <c r="D256" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F256" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>520</v>
       </c>
       <c r="D257" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F257" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>521</v>
       </c>
       <c r="D258" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F258" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>522</v>
       </c>
       <c r="D259" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F259" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>523</v>
       </c>
+      <c r="C260" t="s">
+        <v>600</v>
+      </c>
       <c r="D260" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>524</v>
       </c>
       <c r="D261" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F261" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>525</v>
       </c>
+      <c r="C262" t="s">
+        <v>601</v>
+      </c>
       <c r="D262" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F262" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>526</v>
       </c>
       <c r="D263" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F263" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>527</v>
       </c>
       <c r="D264" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F264" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>528</v>
       </c>
       <c r="D265" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F265" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>529</v>
       </c>
       <c r="D266" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F266" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
       <c r="D267" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F267" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>531</v>
       </c>
       <c r="D268" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F268" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>532</v>
       </c>
       <c r="D269" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F269" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>533</v>
       </c>
       <c r="D270" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F270" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>534</v>
       </c>
       <c r="D271" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F271" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>535</v>
       </c>
       <c r="D272" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F272" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>536</v>
       </c>
       <c r="D273" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F273" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>537</v>
       </c>
       <c r="D274" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F274" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>538</v>
       </c>
       <c r="D275" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F275" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>539</v>
       </c>
       <c r="D276" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F276" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>540</v>
       </c>
       <c r="D277" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F277" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>541</v>
       </c>
       <c r="D278" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F278" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>542</v>
       </c>
       <c r="D279" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F279" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>543</v>
       </c>
       <c r="D280" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F280" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>544</v>
       </c>
       <c r="D281" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F281" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>545</v>
       </c>
       <c r="D282" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F282" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>546</v>
       </c>
       <c r="D283" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F283" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>547</v>
       </c>
       <c r="D284" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F284" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>548</v>
       </c>
+      <c r="C285" t="s">
+        <v>604</v>
+      </c>
       <c r="D285" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F285" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>549</v>
       </c>
       <c r="D286" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F286" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>550</v>
       </c>
       <c r="D287" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F287" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>551</v>
       </c>
       <c r="D288" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F288" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>552</v>
       </c>
+      <c r="C289" t="s">
+        <v>605</v>
+      </c>
       <c r="D289" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F289" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>553</v>
       </c>
       <c r="D290" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F290" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>554</v>
       </c>
       <c r="D291" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F291" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>555</v>
       </c>
       <c r="D292" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F292" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>556</v>
       </c>
       <c r="D293" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F293" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>557</v>
       </c>
       <c r="D294" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F294" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>558</v>
       </c>
       <c r="D295" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F295" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>559</v>
       </c>
       <c r="D296" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F296" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>560</v>
       </c>
       <c r="D297" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F297" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>561</v>
       </c>
       <c r="D298" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F298" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>562</v>
       </c>
       <c r="D299" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F299" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>563</v>
       </c>
       <c r="D300" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F300" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>564</v>
       </c>
       <c r="D301" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F301" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>565</v>
       </c>
+      <c r="C302" t="s">
+        <v>607</v>
+      </c>
       <c r="D302" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F302" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>566</v>
       </c>
       <c r="D303" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F303" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>567</v>
       </c>
       <c r="D304" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F304" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>568</v>
       </c>
       <c r="D305" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F305" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>569</v>
       </c>
+      <c r="C306" t="s">
+        <v>609</v>
+      </c>
       <c r="D306" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F306" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>570</v>
       </c>
+      <c r="C307" t="s">
+        <v>610</v>
+      </c>
       <c r="D307" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F307" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>571</v>
       </c>
       <c r="D308" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F308" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>572</v>
       </c>
       <c r="D309" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F309" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>262</v>
       </c>
       <c r="D310" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F310" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>573</v>
       </c>
+      <c r="C311" t="s">
+        <v>612</v>
+      </c>
       <c r="D311" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F311" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>574</v>
       </c>
       <c r="D312" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F312" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>575</v>
       </c>
       <c r="D313" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F313" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>576</v>
       </c>
       <c r="D314" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F314" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>577</v>
       </c>
       <c r="D315" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F315" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>578</v>
       </c>
       <c r="D316" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D317" t="s">
-        <v>462</v>
+      <c r="F316" s="7" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/525510_2_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\7931372_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{21C4D0B7-59BC-47B8-AA0A-8F4F599772A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4897AA6F-08FB-4F1F-8A35-A95848072406}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F8A15-B977-43BD-965E-0F11E2676A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="620">
   <si>
     <t>Species</t>
   </si>
@@ -1876,6 +1876,27 @@
   </si>
   <si>
     <t>PRJNA803965</t>
+  </si>
+  <si>
+    <t>I can't find a source because it looks like the data was published only recently</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-017-00336-7</t>
+  </si>
+  <si>
+    <t>I think this is GBS data, not WGS</t>
+  </si>
+  <si>
+    <t>WGS data from QTL study, so data comes from F2 population, not a natural population. Thus, data is not relevant to my study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.16086</t>
+  </si>
+  <si>
+    <t>Maybe some data, need to look at more closely, also includes Musa acuminata, only contains one sample of Ensete ventricosum, but about 48 samples of Musa acuminata!</t>
+  </si>
+  <si>
+    <t>no WGS data on SRA, only GBS and RAD-seq, but while searching SRA for wild banana reads later I found some Musa acuminata data!</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,15 +3623,27 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>203</v>
+      <c r="B81" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G81" s="11">
+        <v>48</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,18 +5493,28 @@
         <v>370</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D204" t="s">
-        <v>462</v>
+      <c r="D204" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F204" s="8"/>
+      <c r="G204" s="11">
+        <v>12</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -5527,7 +5570,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>472</v>
       </c>
@@ -5538,21 +5581,31 @@
         <v>586</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D210" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D210" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F210" s="8"/>
+      <c r="G210" s="11">
+        <v>146</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>474</v>
       </c>
@@ -5563,21 +5616,31 @@
         <v>370</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D212" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D212" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F212" s="8"/>
+      <c r="G212" s="11">
+        <v>97</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>476</v>
       </c>
@@ -5588,7 +5651,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>477</v>
       </c>
@@ -5599,7 +5662,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>478</v>
       </c>
@@ -5610,7 +5673,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>479</v>
       </c>
@@ -5621,7 +5684,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>480</v>
       </c>
@@ -5632,7 +5695,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>481</v>
       </c>
@@ -5646,7 +5709,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>482</v>
       </c>
@@ -5657,7 +5720,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>483</v>
       </c>
@@ -5668,7 +5731,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>484</v>
       </c>
@@ -5679,7 +5742,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>485</v>
       </c>
@@ -5690,10 +5753,10 @@
         <v>462</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>486</v>
       </c>
@@ -5704,10 +5767,10 @@
         <v>462</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>487</v>
       </c>
@@ -5842,10 +5905,13 @@
         <v>593</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>499</v>
       </c>
+      <c r="B236" t="s">
+        <v>617</v>
+      </c>
       <c r="C236" t="s">
         <v>599</v>
       </c>
@@ -5853,7 +5919,7 @@
         <v>462</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,7 +6142,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>520</v>
       </c>
@@ -6087,7 +6153,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>521</v>
       </c>
@@ -6098,7 +6164,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>522</v>
       </c>
@@ -6109,18 +6175,31 @@
         <v>370</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="260" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C260" t="s">
+      <c r="B260" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D260" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D260" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F260" s="8"/>
+      <c r="G260" s="11">
+        <v>208</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>524</v>
       </c>
@@ -6131,21 +6210,33 @@
         <v>591</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C262" t="s">
+      <c r="B262" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D262" t="s">
-        <v>462</v>
-      </c>
-      <c r="F262" s="7" t="s">
+      <c r="D262" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F262" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="11">
+        <v>10</v>
+      </c>
+      <c r="H262" s="3">
+        <v>1</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>526</v>
       </c>
@@ -6156,7 +6247,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -6167,7 +6258,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -6178,7 +6269,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>529</v>
       </c>
@@ -6189,7 +6280,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -6200,7 +6291,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>531</v>
       </c>
@@ -6211,7 +6302,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>532</v>
       </c>
@@ -6222,7 +6313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -6233,7 +6324,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -6244,7 +6335,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>535</v>
       </c>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\7931372_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\5965364_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F8A15-B977-43BD-965E-0F11E2676A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78DE89-4149-4B4B-962E-CFE9E0D28C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="634">
   <si>
     <t>Species</t>
   </si>
@@ -1897,6 +1897,48 @@
   </si>
   <si>
     <t>no WGS data on SRA, only GBS and RAD-seq, but while searching SRA for wild banana reads later I found some Musa acuminata data!</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-022-04808-9</t>
+  </si>
+  <si>
+    <t>Pangenome dataset, use to replace smaller dataset?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/molbev/msac015</t>
+  </si>
+  <si>
+    <t>PRJNA525866, PRJNA511155 and PRJNA490832</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-019-0405-z</t>
+  </si>
+  <si>
+    <t>Found while looking for data on Arachis duranensis, not sure why it didn't come up during my search for Arachis hypogaea</t>
+  </si>
+  <si>
+    <t>Maybe works, also contains A. ipaensis WGS data if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA383013 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ng.3872</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-18228-8</t>
+  </si>
+  <si>
+    <t>PRJNA646044</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. There's a dataset of 349 individuals uploaded to the SRA just last month! However, it doesn't seem to be in a peer-reviewed publication yet</t>
+  </si>
+  <si>
+    <t>PRJNA540917</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-17111-w</t>
   </si>
 </sst>
 </file>
@@ -2288,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="F321" sqref="F321"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,15 +2558,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>142</v>
+      <c r="B11" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G11" s="11">
+        <v>171</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2532,7 +2586,7 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>142</v>
@@ -2543,10 +2597,10 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>145</v>
@@ -2562,195 +2616,180 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>597</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>467</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>151</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>56</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>128</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="11">
-        <v>119</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>158</v>
@@ -2765,111 +2804,126 @@
         <v>159</v>
       </c>
       <c r="G26" s="11">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="11">
         <v>199</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>40</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>52</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>137</v>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>136</v>
@@ -2878,117 +2932,117 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" s="11">
-        <v>296</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>257</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>452</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="11">
+        <v>296</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>3171</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>337</v>
       </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>136</v>
@@ -2997,41 +3051,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>115</v>
       </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>145</v>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3042,7 +3093,7 @@
         <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>145</v>
@@ -3050,43 +3101,46 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
@@ -3097,7 +3151,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
@@ -3108,7 +3162,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
         <v>136</v>
@@ -3119,7 +3173,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>136</v>
@@ -3128,184 +3182,184 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="11">
-        <v>1674</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G52" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="11">
-        <v>185</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="11">
+        <v>185</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="11">
         <v>336</v>
       </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>111</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="11">
+      <c r="F59" s="8"/>
+      <c r="G59" s="11">
         <v>1081</v>
       </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="7" t="s">
-        <v>249</v>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="7" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
@@ -3316,7 +3370,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
         <v>136</v>
@@ -3327,528 +3381,528 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>25</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="11">
+      <c r="F65" s="8"/>
+      <c r="G65" s="11">
         <v>300</v>
       </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>131</v>
       </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>145</v>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>200</v>
       </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>197</v>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>136</v>
       </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>44</v>
       </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>200</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F77" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G77" s="3">
         <v>39</v>
       </c>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" t="s">
-        <v>250</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
       <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>195</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F80" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>38</v>
       </c>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>129</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F82" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>48</v>
       </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>69</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>136</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>52</v>
       </c>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" t="s">
-        <v>204</v>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
         <v>136</v>
       </c>
       <c r="C85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
         <v>136</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>3024</v>
       </c>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>85</v>
       </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F89" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>747</v>
       </c>
-      <c r="H88" s="3">
-        <v>1</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="11">
+      <c r="F91" s="8"/>
+      <c r="G91" s="11">
         <v>683</v>
       </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>118</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G93" s="11">
         <v>52</v>
       </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" t="s">
-        <v>53</v>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,65 +3910,65 @@
         <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>51</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G98" s="11">
         <v>428</v>
       </c>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>137</v>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
@@ -3925,7 +3979,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
         <v>136</v>
@@ -3934,58 +3988,61 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G101" s="11">
-        <v>909</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>257</v>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G102" s="11">
+        <v>909</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G103" s="11">
         <v>38</v>
       </c>
-      <c r="H102" s="3">
-        <v>1</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3993,276 +4050,265 @@
         <v>18</v>
       </c>
       <c r="C104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
         <v>217</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G106" s="11">
         <v>360</v>
       </c>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" t="s">
-        <v>221</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" t="s">
-        <v>33</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>31</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
         <v>224</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>223</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G111" s="11">
         <v>400</v>
       </c>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F112" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G112" s="11">
         <v>296</v>
       </c>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G113" s="11">
         <v>36</v>
       </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" t="s">
-        <v>65</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>142</v>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>95</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G117" s="11">
         <v>786</v>
       </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G118" s="11">
         <v>114</v>
       </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" t="s">
-        <v>136</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>137</v>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G120" s="11">
-        <v>117</v>
-      </c>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>257</v>
+        <v>136</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4270,197 +4316,180 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G122" s="11">
+        <v>117</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G123" s="11">
-        <v>33</v>
-      </c>
-      <c r="H123" s="3">
-        <v>1</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B125" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="C125" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="G125" s="11">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="11">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="C127" t="s">
-        <v>236</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>235</v>
+        <v>7</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="11">
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>307</v>
+        <v>9</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="11">
-        <v>306</v>
-      </c>
-      <c r="H128" s="3">
-        <v>1</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>257</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="11">
+        <v>306</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
         <v>162</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>310</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="11">
-        <v>306</v>
-      </c>
-      <c r="H131" s="3">
-        <v>1</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F132" s="8"/>
-      <c r="G132" s="11">
-        <v>479</v>
-      </c>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="11">
-        <v>1007</v>
+        <v>306</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -4469,24 +4498,22 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="F134" s="8"/>
       <c r="G134" s="11">
-        <v>10</v>
+        <v>479</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -4495,252 +4522,280 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>327</v>
-      </c>
-      <c r="D135" t="s">
+    <row r="135" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="8"/>
+      <c r="G135" s="11">
+        <v>1007</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F136" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G136" s="11">
+        <v>10</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>327</v>
+      </c>
+      <c r="D137" t="s">
+        <v>321</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G138" s="11">
         <v>135</v>
       </c>
-      <c r="H136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G139" s="11">
         <v>7</v>
       </c>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>337</v>
-      </c>
-      <c r="D138" t="s">
-        <v>321</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>338</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>339</v>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="D140" t="s">
+        <v>321</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="G141" s="11">
-        <v>34</v>
-      </c>
-      <c r="H141" s="3">
-        <v>1</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>257</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>338</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>348</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G143" s="11">
+        <v>34</v>
+      </c>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="11">
-        <v>1175</v>
-      </c>
-      <c r="H145" s="3">
-        <v>1</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>257</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>348</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="11">
+        <v>1175</v>
+      </c>
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>354</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D148" t="s">
         <v>321</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>356</v>
-      </c>
-      <c r="D147" t="s">
-        <v>321</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="11">
-        <v>171</v>
-      </c>
-      <c r="H148" s="3">
-        <v>1</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
         <v>321</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>362</v>
-      </c>
-      <c r="D150" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>341</v>
+      <c r="F150" s="8"/>
+      <c r="G150" s="11">
+        <v>171</v>
+      </c>
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D151" t="s">
         <v>321</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D152" t="s">
         <v>321</v>
@@ -4749,231 +4804,209 @@
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D153" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>363</v>
+      </c>
+      <c r="D153" t="s">
         <v>321</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G153" s="11">
-        <v>14</v>
-      </c>
-      <c r="H153" s="3">
-        <v>1</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>257</v>
+      <c r="F153" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>364</v>
+      </c>
+      <c r="D154" t="s">
+        <v>321</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G155" s="11">
+        <v>14</v>
+      </c>
+      <c r="H155" s="3">
+        <v>1</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>368</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F156" s="7" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>369</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="11">
-        <v>550</v>
-      </c>
-      <c r="H156" s="3">
-        <v>1</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>374</v>
-      </c>
-      <c r="D157" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>375</v>
-      </c>
-      <c r="D158" t="s">
+    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="8"/>
+      <c r="G158" s="11">
+        <v>550</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" t="s">
+        <v>321</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="11">
-        <v>55</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>379</v>
+        <v>375</v>
+      </c>
+      <c r="D160" t="s">
+        <v>321</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="11">
+        <v>55</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>379</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>380</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F163" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="11">
+      <c r="F164" s="8"/>
+      <c r="G164" s="11">
         <v>86</v>
       </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>381</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B165" t="s">
         <v>383</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C165" t="s">
         <v>382</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D165" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F165" s="7" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="G164" s="13">
-        <v>16</v>
-      </c>
-      <c r="H164" s="5">
-        <v>1</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="11">
-        <v>163</v>
-      </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>235</v>
+        <v>386</v>
       </c>
       <c r="G166" s="13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H166" s="5">
         <v>1</v>
@@ -4982,35 +5015,33 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G167" s="13">
-        <v>18</v>
-      </c>
-      <c r="H167" s="5">
-        <v>1</v>
-      </c>
-      <c r="I167" s="5" t="s">
+    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="11">
+        <v>163</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>321</v>
@@ -5019,7 +5050,7 @@
         <v>235</v>
       </c>
       <c r="G168" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H168" s="5">
         <v>1</v>
@@ -5028,411 +5059,441 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>397</v>
-      </c>
-      <c r="D169" t="s">
+    <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F169" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F169" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G169" s="13">
+        <v>18</v>
+      </c>
+      <c r="H169" s="5">
+        <v>1</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F170" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G170" s="13">
+        <v>19</v>
+      </c>
+      <c r="H170" s="5">
+        <v>1</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>397</v>
+      </c>
+      <c r="D171" t="s">
+        <v>321</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F172" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G170" s="13">
+      <c r="G172" s="13">
         <v>10</v>
       </c>
-      <c r="H170" s="5">
-        <v>1</v>
-      </c>
-      <c r="I170" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="H172" s="5">
+        <v>1</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F173" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="G171" s="11">
+      <c r="G173" s="11">
         <v>445</v>
       </c>
-      <c r="H171" s="3">
-        <v>1</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>406</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>407</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>408</v>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>409</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>411</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F177" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+    <row r="178" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F178" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G176" s="11">
+      <c r="G178" s="11">
         <v>27</v>
       </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G177" s="11">
-        <v>299</v>
-      </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>419</v>
-      </c>
-      <c r="C178" t="s">
-        <v>420</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F179" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G179" s="11">
+        <v>299</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" t="s">
+        <v>420</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="G179" s="11">
+      <c r="G181" s="11">
         <v>160</v>
       </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>425</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F182" s="7" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>426</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>427</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>426</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>427</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>429</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F185" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+    <row r="186" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F186" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G184" s="11">
+      <c r="G186" s="11">
         <v>705</v>
       </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>435</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F187" s="7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>437</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C188" t="s">
         <v>438</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F188" s="7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>440</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F189" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>441</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F190" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+    <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F189" s="8"/>
-      <c r="G189" s="11">
+      <c r="F191" s="8"/>
+      <c r="G191" s="11">
         <v>558</v>
       </c>
-      <c r="H189" s="3">
-        <v>1</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="H191" s="3">
+        <v>1</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>97</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C192" t="s">
         <v>445</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F192" s="7" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>97</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B193" t="s">
         <v>447</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F193" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+    <row r="194" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C194" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="F194" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="G192" s="11">
+      <c r="G194" s="11">
         <v>37</v>
       </c>
-      <c r="H192" s="3">
-        <v>1</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="H194" s="3">
+        <v>1</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>164</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C195" t="s">
         <v>166</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F195" s="7" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>168</v>
-      </c>
-      <c r="B194" t="s">
-        <v>167</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F195" s="8"/>
-      <c r="G195" s="11">
-        <v>157</v>
-      </c>
-      <c r="H195" s="3">
-        <v>1</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>262</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>163</v>
+    <row r="197" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="11">
+        <v>157</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>263</v>
+        <v>242</v>
+      </c>
+      <c r="B198" t="s">
+        <v>243</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>163</v>
@@ -5440,10 +5501,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>39</v>
-      </c>
-      <c r="C199" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>163</v>
@@ -5451,29 +5509,26 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>463</v>
-      </c>
-      <c r="D200" t="s">
-        <v>462</v>
+        <v>263</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>464</v>
-      </c>
-      <c r="D201" t="s">
-        <v>462</v>
+        <v>39</v>
+      </c>
+      <c r="C201" t="s">
+        <v>40</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>579</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D202" t="s">
         <v>462</v>
@@ -5484,154 +5539,169 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D203" t="s">
         <v>462</v>
       </c>
       <c r="F203" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>465</v>
+      </c>
+      <c r="D204" t="s">
+        <v>462</v>
+      </c>
+      <c r="F204" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="11">
-        <v>12</v>
-      </c>
-      <c r="H204" s="3">
-        <v>1</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>466</v>
+      </c>
+      <c r="D205" t="s">
+        <v>462</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F206" s="8"/>
+      <c r="G206" s="11">
+        <v>12</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B207" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D205" t="s">
-        <v>462</v>
-      </c>
-      <c r="F205" s="7" t="s">
+      <c r="D207" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="G207" s="11"/>
+    </row>
+    <row r="208" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B208" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G208" s="11">
+        <v>5</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D206" t="s">
-        <v>462</v>
-      </c>
-      <c r="F206" s="7" t="s">
+      <c r="D209" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>470</v>
-      </c>
-      <c r="C207" t="s">
-        <v>584</v>
-      </c>
-      <c r="D207" t="s">
-        <v>462</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="G209" s="11">
+        <v>3</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>471</v>
       </c>
-      <c r="D208" t="s">
-        <v>462</v>
-      </c>
-      <c r="F208" s="7" t="s">
+      <c r="D210" t="s">
+        <v>462</v>
+      </c>
+      <c r="F210" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>472</v>
-      </c>
-      <c r="D209" t="s">
-        <v>462</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="11">
-        <v>146</v>
-      </c>
-      <c r="H210" s="3">
-        <v>1</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D211" t="s">
         <v>462</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>370</v>
+        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>462</v>
       </c>
       <c r="F212" s="8"/>
       <c r="G212" s="11">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="H212" s="3">
         <v>1</v>
@@ -5642,76 +5712,131 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>474</v>
+      </c>
+      <c r="D213" t="s">
+        <v>462</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="11">
+        <v>97</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D213" t="s">
-        <v>462</v>
-      </c>
-      <c r="F213" s="7" t="s">
+      <c r="B215" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F215" s="8" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="G215" s="11">
+        <v>292</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D214" t="s">
-        <v>462</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>478</v>
-      </c>
-      <c r="D215" t="s">
-        <v>462</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>479</v>
-      </c>
-      <c r="D216" t="s">
-        <v>462</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>591</v>
+      <c r="B216" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G216" s="11">
+        <v>127</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D217" t="s">
         <v>462</v>
       </c>
       <c r="F217" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F218" s="8" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>481</v>
-      </c>
-      <c r="C218" t="s">
-        <v>592</v>
-      </c>
-      <c r="D218" t="s">
-        <v>462</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>585</v>
+      <c r="G218" s="11">
+        <v>565</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D219" t="s">
         <v>462</v>
@@ -5720,114 +5845,117 @@
         <v>591</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>483</v>
+        <v>481</v>
+      </c>
+      <c r="C220" t="s">
+        <v>592</v>
       </c>
       <c r="D220" t="s">
         <v>462</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>482</v>
+      </c>
+      <c r="D221" t="s">
+        <v>462</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>483</v>
+      </c>
+      <c r="D222" t="s">
+        <v>462</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>484</v>
       </c>
-      <c r="D221" t="s">
-        <v>462</v>
-      </c>
-      <c r="F221" s="7" t="s">
+      <c r="D223" t="s">
+        <v>462</v>
+      </c>
+      <c r="F223" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>485</v>
-      </c>
-      <c r="C222" t="s">
-        <v>594</v>
-      </c>
-      <c r="D222" t="s">
-        <v>462</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>486</v>
-      </c>
-      <c r="C223" t="s">
-        <v>595</v>
-      </c>
-      <c r="D223" t="s">
-        <v>462</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>485</v>
+      </c>
+      <c r="C224" t="s">
+        <v>594</v>
+      </c>
+      <c r="D224" t="s">
+        <v>462</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>486</v>
+      </c>
+      <c r="C225" t="s">
+        <v>595</v>
+      </c>
+      <c r="D225" t="s">
+        <v>462</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>487</v>
       </c>
-      <c r="D224" t="s">
-        <v>462</v>
-      </c>
-      <c r="F224" s="7" t="s">
+      <c r="D226" t="s">
+        <v>462</v>
+      </c>
+      <c r="F226" s="7" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>488</v>
-      </c>
-      <c r="D225" t="s">
-        <v>462</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>489</v>
-      </c>
-      <c r="D226" t="s">
-        <v>462</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D227" t="s">
         <v>462</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D228" t="s">
         <v>462</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>370</v>
+        <v>593</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D229" t="s">
         <v>462</v>
@@ -5836,117 +5964,117 @@
         <v>370</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>491</v>
+      </c>
+      <c r="D230" t="s">
+        <v>462</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>492</v>
+      </c>
+      <c r="D231" t="s">
+        <v>462</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>493</v>
       </c>
-      <c r="D230" t="s">
-        <v>462</v>
-      </c>
-      <c r="F230" s="7" t="s">
+      <c r="D232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>494</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C233" t="s">
         <v>597</v>
       </c>
-      <c r="D231" t="s">
-        <v>462</v>
-      </c>
-      <c r="F231" s="7" t="s">
+      <c r="D233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>495</v>
       </c>
-      <c r="D232" t="s">
-        <v>462</v>
-      </c>
-      <c r="F232" s="7" t="s">
+      <c r="D234" t="s">
+        <v>462</v>
+      </c>
+      <c r="F234" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>496</v>
       </c>
-      <c r="D233" t="s">
-        <v>462</v>
-      </c>
-      <c r="F233" s="7" t="s">
+      <c r="D235" t="s">
+        <v>462</v>
+      </c>
+      <c r="F235" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>497</v>
       </c>
-      <c r="D234" t="s">
-        <v>462</v>
-      </c>
-      <c r="F234" s="7" t="s">
+      <c r="D236" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>498</v>
       </c>
-      <c r="D235" t="s">
-        <v>462</v>
-      </c>
-      <c r="F235" s="7" t="s">
+      <c r="D237" t="s">
+        <v>462</v>
+      </c>
+      <c r="F237" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="238" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>499</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B238" t="s">
         <v>617</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C238" t="s">
         <v>599</v>
       </c>
-      <c r="D236" t="s">
-        <v>462</v>
-      </c>
-      <c r="F236" s="7" t="s">
+      <c r="D238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>500</v>
-      </c>
-      <c r="D237" t="s">
-        <v>462</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>501</v>
-      </c>
-      <c r="D238" t="s">
-        <v>462</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D239" t="s">
         <v>462</v>
@@ -5957,18 +6085,18 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D240" t="s">
         <v>462</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D241" t="s">
         <v>462</v>
@@ -5979,18 +6107,18 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D242" t="s">
         <v>462</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D243" t="s">
         <v>462</v>
@@ -6001,7 +6129,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D244" t="s">
         <v>462</v>
@@ -6012,7 +6140,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D245" t="s">
         <v>462</v>
@@ -6023,7 +6151,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D246" t="s">
         <v>462</v>
@@ -6034,7 +6162,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D247" t="s">
         <v>462</v>
@@ -6045,7 +6173,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D248" t="s">
         <v>462</v>
@@ -6056,7 +6184,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D249" t="s">
         <v>462</v>
@@ -6067,7 +6195,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D250" t="s">
         <v>462</v>
@@ -6078,7 +6206,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D251" t="s">
         <v>462</v>
@@ -6089,18 +6217,18 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D252" t="s">
         <v>462</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>598</v>
+        <v>370</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D253" t="s">
         <v>462</v>
@@ -6111,18 +6239,18 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D254" t="s">
         <v>462</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D255" t="s">
         <v>462</v>
@@ -6133,7 +6261,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D256" t="s">
         <v>462</v>
@@ -6144,7 +6272,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D257" t="s">
         <v>462</v>
@@ -6155,18 +6283,18 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D258" t="s">
         <v>462</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D259" t="s">
         <v>462</v>
@@ -6175,59 +6303,44 @@
         <v>370</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F260" s="8"/>
-      <c r="G260" s="11">
-        <v>208</v>
-      </c>
-      <c r="H260" s="3">
-        <v>1</v>
-      </c>
-      <c r="I260" s="3" t="s">
-        <v>257</v>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>521</v>
+      </c>
+      <c r="D260" t="s">
+        <v>462</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D261" t="s">
         <v>462</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F262" s="8" t="s">
-        <v>602</v>
-      </c>
+      <c r="F262" s="8"/>
       <c r="G262" s="11">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="H262" s="3">
         <v>1</v>
@@ -6238,7 +6351,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D263" t="s">
         <v>462</v>
@@ -6247,31 +6360,46 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>527</v>
-      </c>
-      <c r="D264" t="s">
-        <v>462</v>
-      </c>
-      <c r="F264" s="7" t="s">
-        <v>370</v>
+    <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G264" s="11">
+        <v>10</v>
+      </c>
+      <c r="H264" s="3">
+        <v>1</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D265" t="s">
         <v>462</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D266" t="s">
         <v>462</v>
@@ -6282,84 +6410,84 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D267" t="s">
         <v>462</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>598</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D268" t="s">
         <v>462</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D269" t="s">
         <v>462</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>370</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D270" t="s">
         <v>462</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D271" t="s">
         <v>462</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D272" t="s">
         <v>462</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>370</v>
+        <v>603</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D273" t="s">
         <v>462</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D274" t="s">
         <v>462</v>
@@ -6370,7 +6498,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D275" t="s">
         <v>462</v>
@@ -6381,7 +6509,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D276" t="s">
         <v>462</v>
@@ -6392,7 +6520,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D277" t="s">
         <v>462</v>
@@ -6403,18 +6531,18 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D278" t="s">
         <v>462</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D279" t="s">
         <v>462</v>
@@ -6425,7 +6553,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D280" t="s">
         <v>462</v>
@@ -6436,87 +6564,87 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D281" t="s">
         <v>462</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D282" t="s">
         <v>462</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D283" t="s">
         <v>462</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D284" t="s">
         <v>462</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>548</v>
-      </c>
-      <c r="C285" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="D285" t="s">
         <v>462</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D286" t="s">
         <v>462</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="C287" t="s">
+        <v>604</v>
       </c>
       <c r="D287" t="s">
         <v>462</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D288" t="s">
         <v>462</v>
@@ -6527,21 +6655,18 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>552</v>
-      </c>
-      <c r="C289" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="D289" t="s">
         <v>462</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D290" t="s">
         <v>462</v>
@@ -6552,51 +6677,54 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>554</v>
+        <v>552</v>
+      </c>
+      <c r="C291" t="s">
+        <v>605</v>
       </c>
       <c r="D291" t="s">
         <v>462</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D292" t="s">
         <v>462</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>603</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D293" t="s">
         <v>462</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>370</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D294" t="s">
         <v>462</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>370</v>
+        <v>603</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D295" t="s">
         <v>462</v>
@@ -6607,259 +6735,281 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D296" t="s">
         <v>462</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>603</v>
+        <v>370</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D297" t="s">
         <v>462</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>606</v>
+        <v>370</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D298" t="s">
         <v>462</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>370</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D299" t="s">
         <v>462</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D300" t="s">
         <v>462</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>603</v>
+        <v>370</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D301" t="s">
         <v>462</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>565</v>
-      </c>
-      <c r="C302" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="D302" t="s">
         <v>462</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D303" t="s">
         <v>462</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>608</v>
+        <v>370</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>567</v>
+        <v>565</v>
+      </c>
+      <c r="C304" t="s">
+        <v>607</v>
       </c>
       <c r="D304" t="s">
         <v>462</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>370</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D305" t="s">
         <v>462</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>370</v>
+        <v>608</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>569</v>
-      </c>
-      <c r="C306" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="D306" t="s">
         <v>462</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>570</v>
-      </c>
-      <c r="C307" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="D307" t="s">
         <v>462</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>569</v>
+      </c>
+      <c r="C308" t="s">
+        <v>609</v>
       </c>
       <c r="D308" t="s">
         <v>462</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>572</v>
+        <v>570</v>
+      </c>
+      <c r="C309" t="s">
+        <v>610</v>
       </c>
       <c r="D309" t="s">
         <v>462</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>370</v>
+        <v>602</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>262</v>
+        <v>571</v>
       </c>
       <c r="D310" t="s">
         <v>462</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>573</v>
-      </c>
-      <c r="C311" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="D311" t="s">
         <v>462</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>574</v>
+        <v>262</v>
       </c>
       <c r="D312" t="s">
         <v>462</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>575</v>
+        <v>573</v>
+      </c>
+      <c r="C313" t="s">
+        <v>612</v>
       </c>
       <c r="D313" t="s">
         <v>462</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D314" t="s">
         <v>462</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D315" t="s">
         <v>462</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>576</v>
+      </c>
+      <c r="D316" t="s">
+        <v>462</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>577</v>
+      </c>
+      <c r="D317" t="s">
+        <v>462</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>578</v>
       </c>
-      <c r="D316" t="s">
-        <v>462</v>
-      </c>
-      <c r="F316" s="7" t="s">
+      <c r="D318" t="s">
+        <v>462</v>
+      </c>
+      <c r="F318" s="7" t="s">
         <v>591</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F127">
-    <sortCondition ref="A2:A127"/>
-    <sortCondition ref="C2:C127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
+    <sortCondition ref="A2:A129"/>
+    <sortCondition ref="C2:C129"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B193" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
-    <hyperlink ref="B74" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
-    <hyperlink ref="B31" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
-    <hyperlink ref="B20" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
-    <hyperlink ref="B88" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
+    <hyperlink ref="B195" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
+    <hyperlink ref="B75" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
+    <hyperlink ref="B21" r:id="rId5" display="https://doi.org/10.3390%2Fijms21186700" xr:uid="{EC67C21D-41B4-4AED-B5CA-A031949BD1CE}"/>
+    <hyperlink ref="B89" r:id="rId6" xr:uid="{2677786D-08C7-4346-837D-960E754FAB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\5965364_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\5047028_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78DE89-4149-4B4B-962E-CFE9E0D28C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A474588-0505-4388-A0D1-133B13DCBE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="683">
   <si>
     <t>Species</t>
   </si>
@@ -1122,9 +1122,6 @@
     <t>Dioscorea rotundata</t>
   </si>
   <si>
-    <t>Maybe WGS data for 3 genotypes</t>
-  </si>
-  <si>
     <t>Echinochloa crus-galli</t>
   </si>
   <si>
@@ -1939,6 +1936,156 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/s41467-020-17111-w</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. There's some WGS data from JGI, but its new and separated by bioprojects. This is also a moss species</t>
+  </si>
+  <si>
+    <t>I don't think this dataset looks at nuclear DNA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12870-022-03449-4</t>
+  </si>
+  <si>
+    <t>PRJNA790687</t>
+  </si>
+  <si>
+    <t>Maybe some data, need to look at more closely. Some WGS data, but not enough</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. I don't think there's enough WGS data</t>
+  </si>
+  <si>
+    <t>PRJNA523120</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41438-019-0176-9</t>
+  </si>
+  <si>
+    <t>Maybe some data, need to look at more closely. No WGS data after all</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.aaw1947</t>
+  </si>
+  <si>
+    <t>Maybe WGS data for 3 genotypes. Actually, I found some data while looking for data on D. cayanensis</t>
+  </si>
+  <si>
+    <t>Maybe some data, need to look at more closely. This is the same species as D. rotundata</t>
+  </si>
+  <si>
+    <t>PRJDB11628</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.gpb.2022.11.002</t>
+  </si>
+  <si>
+    <t>PRJNA610152</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-018-0116-x</t>
+  </si>
+  <si>
+    <t>PRJNA349094</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. Found GBS data, but no WGS</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. Didn't find WGS data</t>
+  </si>
+  <si>
+    <t>maybe works, also includes malus domestica</t>
+  </si>
+  <si>
+    <t>PRJNA487154</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-020-01959-8</t>
+  </si>
+  <si>
+    <t>PRJEB24033</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. There could be more if I look at some other studies</t>
+  </si>
+  <si>
+    <t>maybe some data. No WGS data</t>
+  </si>
+  <si>
+    <t>PRJNA357653</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12864-019-6376-8</t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. No WGS data</t>
+  </si>
+  <si>
+    <t>PRJNA628142</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-19559-2</t>
+  </si>
+  <si>
+    <t>PRJEB40984</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-021-24283-6</t>
+  </si>
+  <si>
+    <t>maybe works… still not sure</t>
+  </si>
+  <si>
+    <t>PRJEB30573</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/f12121683</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.15399</t>
+  </si>
+  <si>
+    <t>PRJEB46635</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/pbi.13775</t>
+  </si>
+  <si>
+    <t>PRJNA790469</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/f13020338</t>
+  </si>
+  <si>
+    <t>PRJNA560664</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41438-020-0312-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/2022.02.01.478712 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-020-02198-7</t>
+  </si>
+  <si>
+    <t>maybe works. Not enough WGS data</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-022-33515-2</t>
+  </si>
+  <si>
+    <t>PRJNA671733</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1755-0998.13362</t>
+  </si>
+  <si>
+    <t>PRJNA394943</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-022-04822-x</t>
   </si>
 </sst>
 </file>
@@ -2332,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2507,7 @@
         <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>66</v>
@@ -2386,10 +2533,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="11">
@@ -2404,16 +2551,16 @@
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -2439,10 +2586,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="11">
@@ -2477,10 +2624,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="11">
@@ -2501,10 +2648,10 @@
         <v>297</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11">
@@ -2542,10 +2689,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11">
@@ -2563,13 +2710,13 @@
         <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="G11" s="11">
         <v>171</v>
@@ -2647,7 +2794,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>239</v>
@@ -2684,7 +2831,7 @@
         <v>169</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="8" t="s">
@@ -2725,7 +2872,7 @@
         <v>282</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>283</v>
@@ -2798,7 +2945,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>159</v>
@@ -2824,7 +2971,7 @@
         <v>157</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>159</v>
@@ -2861,7 +3008,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>159</v>
@@ -2906,7 +3053,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>259</v>
@@ -2954,7 +3101,7 @@
         <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>260</v>
@@ -2980,7 +3127,7 @@
         <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>261</v>
@@ -3275,10 +3422,10 @@
         <v>183</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="11">
@@ -3693,13 +3840,13 @@
         <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G82" s="11">
         <v>48</v>
@@ -4092,10 +4239,10 @@
         <v>18</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>621</v>
       </c>
       <c r="G107" s="13"/>
     </row>
@@ -4782,20 +4929,35 @@
         <v>257</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D151" t="s">
+      <c r="B151" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>361</v>
+      <c r="F151" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="G151" s="11">
+        <v>86</v>
+      </c>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D152" t="s">
         <v>321</v>
@@ -4806,7 +4968,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D153" t="s">
         <v>321</v>
@@ -4817,7 +4979,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D154" t="s">
         <v>321</v>
@@ -4828,16 +4990,16 @@
     </row>
     <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G155" s="11">
         <v>14</v>
@@ -4851,7 +5013,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>355</v>
@@ -4859,21 +5021,21 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>368</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>321</v>
@@ -4891,35 +5053,35 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D159" t="s">
         <v>321</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D160" t="s">
         <v>321</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>321</v>
@@ -4937,29 +5099,29 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>321</v>
@@ -4977,33 +5139,33 @@
     </row>
     <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>380</v>
+      </c>
+      <c r="B165" t="s">
+        <v>382</v>
+      </c>
+      <c r="C165" t="s">
         <v>381</v>
-      </c>
-      <c r="B165" t="s">
-        <v>383</v>
-      </c>
-      <c r="C165" t="s">
-        <v>382</v>
       </c>
       <c r="D165" t="s">
         <v>321</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G166" s="13">
         <v>16</v>
@@ -5017,13 +5179,13 @@
     </row>
     <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="11">
@@ -5038,10 +5200,10 @@
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>321</v>
@@ -5061,10 +5223,10 @@
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>321</v>
@@ -5084,10 +5246,10 @@
     </row>
     <row r="170" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>321</v>
@@ -5107,27 +5269,27 @@
     </row>
     <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D171" t="s">
         <v>321</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G172" s="13">
         <v>10</v>
@@ -5141,19 +5303,19 @@
     </row>
     <row r="173" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G173" s="11">
         <v>445</v>
@@ -5167,7 +5329,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>355</v>
@@ -5175,23 +5337,23 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>406</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>408</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>341</v>
@@ -5199,16 +5361,16 @@
     </row>
     <row r="178" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G178" s="11">
         <v>27</v>
@@ -5222,19 +5384,19 @@
     </row>
     <row r="179" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G179" s="11">
         <v>299</v>
@@ -5248,27 +5410,27 @@
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>418</v>
+      </c>
+      <c r="C180" t="s">
         <v>419</v>
       </c>
-      <c r="C180" t="s">
+      <c r="F180" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G181" s="11">
         <v>160</v>
@@ -5282,7 +5444,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>341</v>
@@ -5290,7 +5452,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>341</v>
@@ -5298,35 +5460,35 @@
     </row>
     <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>426</v>
+      </c>
+      <c r="F184" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>428</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G186" s="11">
         <v>705</v>
@@ -5340,48 +5502,48 @@
     </row>
     <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>434</v>
+      </c>
+      <c r="F187" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>436</v>
+      </c>
+      <c r="C188" t="s">
         <v>437</v>
       </c>
-      <c r="C188" t="s">
+      <c r="F188" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="11">
@@ -5399,10 +5561,10 @@
         <v>97</v>
       </c>
       <c r="C192" t="s">
+        <v>444</v>
+      </c>
+      <c r="F192" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5410,10 +5572,10 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
+        <v>446</v>
+      </c>
+      <c r="F193" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5421,13 +5583,13 @@
         <v>97</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="G194" s="11">
         <v>37</v>
@@ -5469,13 +5631,13 @@
         <v>242</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="D197" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F197" s="8"/>
       <c r="G197" s="11">
@@ -5528,60 +5690,60 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D202" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D204" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D205" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F206" s="8"/>
       <c r="G206" s="11">
@@ -5596,37 +5758,37 @@
     </row>
     <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="G207" s="11"/>
     </row>
     <row r="208" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G208" s="11">
         <v>5</v>
@@ -5640,19 +5802,19 @@
     </row>
     <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>585</v>
       </c>
       <c r="G209" s="11">
         <v>3</v>
@@ -5666,38 +5828,38 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D210" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D211" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F212" s="8"/>
       <c r="G212" s="11">
@@ -5712,27 +5874,27 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D213" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F214" s="8"/>
       <c r="G214" s="11">
@@ -5747,19 +5909,19 @@
     </row>
     <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G215" s="11">
         <v>292</v>
@@ -5773,19 +5935,19 @@
     </row>
     <row r="216" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>631</v>
       </c>
       <c r="G216" s="11">
         <v>127</v>
@@ -5799,30 +5961,30 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D217" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G218" s="11">
         <v>565</v>
@@ -5834,509 +5996,581 @@
         <v>257</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D219" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>480</v>
+      </c>
+      <c r="C220" t="s">
+        <v>591</v>
+      </c>
+      <c r="D220" t="s">
+        <v>461</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C220" t="s">
-        <v>592</v>
-      </c>
-      <c r="D220" t="s">
-        <v>462</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>482</v>
-      </c>
-      <c r="D221" t="s">
-        <v>462</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>591</v>
+      <c r="B221" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G221" s="11">
+        <v>90</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D222" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D223" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>484</v>
+      </c>
+      <c r="C224" t="s">
+        <v>593</v>
+      </c>
+      <c r="D224" t="s">
+        <v>461</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>485</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>594</v>
       </c>
-      <c r="D224" t="s">
-        <v>462</v>
-      </c>
-      <c r="F224" s="7" t="s">
+      <c r="D225" t="s">
+        <v>461</v>
+      </c>
+      <c r="F225" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>486</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D226" t="s">
+        <v>461</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G227" s="11">
+        <v>8</v>
+      </c>
+      <c r="H227" s="3">
+        <v>1</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>488</v>
+      </c>
+      <c r="D228" t="s">
+        <v>461</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>489</v>
+      </c>
+      <c r="D229" t="s">
+        <v>461</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>490</v>
+      </c>
+      <c r="D230" t="s">
+        <v>461</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>491</v>
+      </c>
+      <c r="D231" t="s">
+        <v>461</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>492</v>
+      </c>
+      <c r="D232" t="s">
+        <v>461</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="D225" t="s">
-        <v>462</v>
-      </c>
-      <c r="F225" s="7" t="s">
+    </row>
+    <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>493</v>
+      </c>
+      <c r="C233" t="s">
+        <v>596</v>
+      </c>
+      <c r="D233" t="s">
+        <v>461</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>494</v>
+      </c>
+      <c r="D234" t="s">
+        <v>461</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>495</v>
+      </c>
+      <c r="D235" t="s">
+        <v>461</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G236" s="11">
+        <v>72</v>
+      </c>
+      <c r="H236" s="3">
+        <v>1</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G237" s="11">
+        <v>88</v>
+      </c>
+      <c r="H237" s="3">
+        <v>1</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>498</v>
+      </c>
+      <c r="B238" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>487</v>
-      </c>
-      <c r="D226" t="s">
-        <v>462</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>488</v>
-      </c>
-      <c r="D227" t="s">
-        <v>462</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>489</v>
-      </c>
-      <c r="D228" t="s">
-        <v>462</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>490</v>
-      </c>
-      <c r="D229" t="s">
-        <v>462</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>491</v>
-      </c>
-      <c r="D230" t="s">
-        <v>462</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>492</v>
-      </c>
-      <c r="D231" t="s">
-        <v>462</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>493</v>
-      </c>
-      <c r="D232" t="s">
-        <v>462</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>494</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="C238" t="s">
+        <v>598</v>
+      </c>
+      <c r="D238" t="s">
+        <v>461</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>499</v>
+      </c>
+      <c r="D239" t="s">
+        <v>461</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>500</v>
+      </c>
+      <c r="D240" t="s">
+        <v>461</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>501</v>
+      </c>
+      <c r="D241" t="s">
+        <v>461</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F242" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G242" s="11">
+        <v>228</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>503</v>
+      </c>
+      <c r="D243" t="s">
+        <v>461</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>504</v>
+      </c>
+      <c r="D244" t="s">
+        <v>461</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>505</v>
+      </c>
+      <c r="D245" t="s">
+        <v>461</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>506</v>
+      </c>
+      <c r="D246" t="s">
+        <v>461</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>507</v>
+      </c>
+      <c r="D247" t="s">
+        <v>461</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>508</v>
+      </c>
+      <c r="D248" t="s">
+        <v>461</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>509</v>
+      </c>
+      <c r="D249" t="s">
+        <v>461</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>510</v>
+      </c>
+      <c r="D250" t="s">
+        <v>461</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>511</v>
+      </c>
+      <c r="D251" t="s">
+        <v>461</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>512</v>
+      </c>
+      <c r="D252" t="s">
+        <v>461</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>513</v>
+      </c>
+      <c r="D253" t="s">
+        <v>461</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>514</v>
+      </c>
+      <c r="D254" t="s">
+        <v>461</v>
+      </c>
+      <c r="F254" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="D233" t="s">
-        <v>462</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>495</v>
-      </c>
-      <c r="D234" t="s">
-        <v>462</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>496</v>
-      </c>
-      <c r="D235" t="s">
-        <v>462</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>497</v>
-      </c>
-      <c r="D236" t="s">
-        <v>462</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>498</v>
-      </c>
-      <c r="D237" t="s">
-        <v>462</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>499</v>
-      </c>
-      <c r="B238" t="s">
-        <v>617</v>
-      </c>
-      <c r="C238" t="s">
-        <v>599</v>
-      </c>
-      <c r="D238" t="s">
-        <v>462</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>500</v>
-      </c>
-      <c r="D239" t="s">
-        <v>462</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>501</v>
-      </c>
-      <c r="D240" t="s">
-        <v>462</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>502</v>
-      </c>
-      <c r="D241" t="s">
-        <v>462</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>503</v>
-      </c>
-      <c r="D242" t="s">
-        <v>462</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>504</v>
-      </c>
-      <c r="D243" t="s">
-        <v>462</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>505</v>
-      </c>
-      <c r="D244" t="s">
-        <v>462</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>506</v>
-      </c>
-      <c r="D245" t="s">
-        <v>462</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>507</v>
-      </c>
-      <c r="D246" t="s">
-        <v>462</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>508</v>
-      </c>
-      <c r="D247" t="s">
-        <v>462</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>509</v>
-      </c>
-      <c r="D248" t="s">
-        <v>462</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>510</v>
-      </c>
-      <c r="D249" t="s">
-        <v>462</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>511</v>
-      </c>
-      <c r="D250" t="s">
-        <v>462</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>512</v>
-      </c>
-      <c r="D251" t="s">
-        <v>462</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>513</v>
-      </c>
-      <c r="D252" t="s">
-        <v>462</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>514</v>
-      </c>
-      <c r="D253" t="s">
-        <v>462</v>
-      </c>
-      <c r="F253" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>515</v>
       </c>
-      <c r="D254" t="s">
-        <v>462</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="D255" t="s">
+        <v>461</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>516</v>
       </c>
-      <c r="D255" t="s">
-        <v>462</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>517</v>
-      </c>
       <c r="D256" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>591</v>
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>517</v>
+      </c>
+      <c r="D257" t="s">
+        <v>461</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>518</v>
       </c>
-      <c r="D257" t="s">
-        <v>462</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>519</v>
-      </c>
       <c r="D258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>591</v>
+        <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D260" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="11">
@@ -6349,32 +6583,47 @@
         <v>257</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>524</v>
-      </c>
-      <c r="D263" t="s">
-        <v>462</v>
-      </c>
-      <c r="F263" s="7" t="s">
-        <v>591</v>
+    <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G263" s="11">
+        <v>86</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="G264" s="11">
         <v>10</v>
@@ -6386,616 +6635,806 @@
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>526</v>
-      </c>
-      <c r="D265" t="s">
-        <v>462</v>
-      </c>
-      <c r="F265" s="7" t="s">
-        <v>591</v>
+    <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G265" s="11">
+        <v>49</v>
+      </c>
+      <c r="H265" s="3">
+        <v>1</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D267" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D268" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>529</v>
+      </c>
+      <c r="D269" t="s">
+        <v>461</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D269" t="s">
-        <v>462</v>
-      </c>
-      <c r="F269" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>531</v>
-      </c>
-      <c r="D270" t="s">
-        <v>462</v>
-      </c>
-      <c r="F270" s="7" t="s">
-        <v>591</v>
+      <c r="C270" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="G270" s="11">
+        <v>181</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>532</v>
+      </c>
+      <c r="D272" t="s">
+        <v>461</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D272" t="s">
-        <v>462</v>
-      </c>
-      <c r="F272" s="7" t="s">
+      <c r="B273" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G273" s="11">
+        <v>67</v>
+      </c>
+      <c r="H273" s="3">
+        <v>1</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>534</v>
+      </c>
+      <c r="D274" t="s">
+        <v>461</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>535</v>
+      </c>
+      <c r="D275" t="s">
+        <v>461</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>536</v>
+      </c>
+      <c r="D276" t="s">
+        <v>461</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>537</v>
+      </c>
+      <c r="D277" t="s">
+        <v>461</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>538</v>
+      </c>
+      <c r="D278" t="s">
+        <v>461</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>539</v>
+      </c>
+      <c r="D279" t="s">
+        <v>461</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>540</v>
+      </c>
+      <c r="D280" t="s">
+        <v>461</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>541</v>
+      </c>
+      <c r="D281" t="s">
+        <v>461</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F282" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G282" s="11">
+        <v>95</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>543</v>
+      </c>
+      <c r="D283" t="s">
+        <v>461</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>544</v>
+      </c>
+      <c r="D284" t="s">
+        <v>461</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>545</v>
+      </c>
+      <c r="D285" t="s">
+        <v>461</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G286" s="11">
+        <v>359</v>
+      </c>
+      <c r="H286" s="3">
+        <v>1</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>547</v>
+      </c>
+      <c r="C287" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>534</v>
-      </c>
-      <c r="D273" t="s">
-        <v>462</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>535</v>
-      </c>
-      <c r="D274" t="s">
-        <v>462</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>536</v>
-      </c>
-      <c r="D275" t="s">
-        <v>462</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>537</v>
-      </c>
-      <c r="D276" t="s">
-        <v>462</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>538</v>
-      </c>
-      <c r="D277" t="s">
-        <v>462</v>
-      </c>
-      <c r="F277" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>539</v>
-      </c>
-      <c r="D278" t="s">
-        <v>462</v>
-      </c>
-      <c r="F278" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>540</v>
-      </c>
-      <c r="D279" t="s">
-        <v>462</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>541</v>
-      </c>
-      <c r="D280" t="s">
-        <v>462</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>542</v>
-      </c>
-      <c r="D281" t="s">
-        <v>462</v>
-      </c>
-      <c r="F281" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>543</v>
-      </c>
-      <c r="D282" t="s">
-        <v>462</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>544</v>
-      </c>
-      <c r="D283" t="s">
-        <v>462</v>
-      </c>
-      <c r="F283" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>545</v>
-      </c>
-      <c r="D284" t="s">
-        <v>462</v>
-      </c>
-      <c r="F284" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>546</v>
-      </c>
-      <c r="D285" t="s">
-        <v>462</v>
-      </c>
-      <c r="F285" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>547</v>
-      </c>
-      <c r="D286" t="s">
-        <v>462</v>
-      </c>
-      <c r="F286" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="D287" t="s">
+        <v>461</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>548</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D288" t="s">
+        <v>461</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G289" s="11">
+        <v>447</v>
+      </c>
+      <c r="H289" s="3">
+        <v>1</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>550</v>
+      </c>
+      <c r="D290" t="s">
+        <v>461</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D287" t="s">
-        <v>462</v>
-      </c>
-      <c r="F287" s="7" t="s">
+      <c r="D291" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G291" s="11">
+        <v>32</v>
+      </c>
+      <c r="H291" s="3">
+        <v>1</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>552</v>
+      </c>
+      <c r="D292" t="s">
+        <v>461</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F293" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>549</v>
-      </c>
-      <c r="D288" t="s">
-        <v>462</v>
-      </c>
-      <c r="F288" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>550</v>
-      </c>
-      <c r="D289" t="s">
-        <v>462</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>551</v>
-      </c>
-      <c r="D290" t="s">
-        <v>462</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>552</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="G293" s="11"/>
+      <c r="H293" s="3">
+        <v>1</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>554</v>
+      </c>
+      <c r="D294" t="s">
+        <v>461</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>555</v>
+      </c>
+      <c r="D295" t="s">
+        <v>461</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>556</v>
+      </c>
+      <c r="D296" t="s">
+        <v>461</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>557</v>
+      </c>
+      <c r="D297" t="s">
+        <v>461</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>558</v>
+      </c>
+      <c r="D298" t="s">
+        <v>461</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>559</v>
+      </c>
+      <c r="D299" t="s">
+        <v>461</v>
+      </c>
+      <c r="F299" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="D291" t="s">
-        <v>462</v>
-      </c>
-      <c r="F291" s="7" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>560</v>
+      </c>
+      <c r="D300" t="s">
+        <v>461</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>561</v>
+      </c>
+      <c r="D301" t="s">
+        <v>461</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F302" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>553</v>
-      </c>
-      <c r="D292" t="s">
-        <v>462</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>554</v>
-      </c>
-      <c r="D293" t="s">
-        <v>462</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>555</v>
-      </c>
-      <c r="D294" t="s">
-        <v>462</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>556</v>
-      </c>
-      <c r="D295" t="s">
-        <v>462</v>
-      </c>
-      <c r="F295" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>557</v>
-      </c>
-      <c r="D296" t="s">
-        <v>462</v>
-      </c>
-      <c r="F296" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>558</v>
-      </c>
-      <c r="D297" t="s">
-        <v>462</v>
-      </c>
-      <c r="F297" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>559</v>
-      </c>
-      <c r="D298" t="s">
-        <v>462</v>
-      </c>
-      <c r="F298" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>560</v>
-      </c>
-      <c r="D299" t="s">
-        <v>462</v>
-      </c>
-      <c r="F299" s="7" t="s">
+      <c r="G302" s="11"/>
+      <c r="H302" s="3">
+        <v>1</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>563</v>
+      </c>
+      <c r="D303" t="s">
+        <v>461</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>561</v>
-      </c>
-      <c r="D300" t="s">
-        <v>462</v>
-      </c>
-      <c r="F300" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>562</v>
-      </c>
-      <c r="D301" t="s">
-        <v>462</v>
-      </c>
-      <c r="F301" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>563</v>
-      </c>
-      <c r="D302" t="s">
-        <v>462</v>
-      </c>
-      <c r="F302" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>564</v>
-      </c>
-      <c r="D303" t="s">
-        <v>462</v>
-      </c>
-      <c r="F303" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="D304" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F304" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G304" s="11"/>
+      <c r="H304" s="3">
+        <v>1</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>565</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D305" t="s">
+        <v>461</v>
+      </c>
+      <c r="F305" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="D304" t="s">
-        <v>462</v>
-      </c>
-      <c r="F304" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>566</v>
       </c>
-      <c r="D305" t="s">
-        <v>462</v>
-      </c>
-      <c r="F305" s="7" t="s">
+      <c r="D306" t="s">
+        <v>461</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>567</v>
+      </c>
+      <c r="D307" t="s">
+        <v>461</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>567</v>
-      </c>
-      <c r="D306" t="s">
-        <v>462</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>568</v>
-      </c>
-      <c r="D307" t="s">
-        <v>462</v>
-      </c>
-      <c r="F307" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="D308" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F308" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G308" s="11"/>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>569</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" t="s">
         <v>609</v>
       </c>
-      <c r="D308" t="s">
-        <v>462</v>
-      </c>
-      <c r="F308" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="D309" t="s">
+        <v>461</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C309" t="s">
-        <v>610</v>
-      </c>
-      <c r="D309" t="s">
-        <v>462</v>
-      </c>
-      <c r="F309" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B310" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F310" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G310" s="11"/>
+      <c r="H310" s="3">
+        <v>1</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>571</v>
       </c>
-      <c r="D310" t="s">
-        <v>462</v>
-      </c>
-      <c r="F310" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>572</v>
-      </c>
       <c r="D311" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>262</v>
       </c>
       <c r="D312" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F312" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="D313" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G313" s="11"/>
+    </row>
+    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>573</v>
       </c>
-      <c r="C313" t="s">
-        <v>612</v>
-      </c>
-      <c r="D313" t="s">
-        <v>462</v>
-      </c>
-      <c r="F313" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="D314" t="s">
+        <v>461</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D314" t="s">
-        <v>462</v>
-      </c>
-      <c r="F314" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B315" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G315" s="11">
+        <v>119</v>
+      </c>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>575</v>
       </c>
-      <c r="D315" t="s">
-        <v>462</v>
-      </c>
-      <c r="F315" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="D316" t="s">
+        <v>461</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>576</v>
       </c>
-      <c r="D316" t="s">
-        <v>462</v>
-      </c>
-      <c r="F316" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="D317" t="s">
+        <v>461</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D317" t="s">
-        <v>462</v>
-      </c>
-      <c r="F317" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>578</v>
-      </c>
-      <c r="D318" t="s">
-        <v>462</v>
-      </c>
-      <c r="F318" s="7" t="s">
-        <v>591</v>
+      <c r="B318" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G318" s="11"/>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7036,7 +7475,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -7601,197 +8040,197 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\5047028_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\67318_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A474588-0505-4388-A0D1-133B13DCBE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6EC8D-F8D2-4ECA-913B-6487EFD7B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Included species" sheetId="2" r:id="rId2"/>
+    <sheet name="diversity vs population size" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'diversity vs population size'!$A$1:$B$318</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="685">
   <si>
     <t>Species</t>
   </si>
@@ -2086,6 +2090,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/s41586-022-04822-x</t>
+  </si>
+  <si>
+    <t>Species with genetic diversity estimates</t>
+  </si>
+  <si>
+    <t>Species with population size estimates</t>
   </si>
 </sst>
 </file>
@@ -2479,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,8 +7469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA0D188-8CB9-4E9E-A4CF-6AB440175DE3}">
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A56" sqref="A1:A158"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8262,4 +8272,596 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5CC31-DEE7-4BD6-8EEB-669C598FA203}">
+  <dimension ref="A1:B108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
+    <sortCondition ref="A2:A318"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\67318_2_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/1377500_2_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6EC8D-F8D2-4ECA-913B-6487EFD7B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{42C6EC8D-F8D2-4ECA-913B-6487EFD7B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293A5F4A-6E4F-42A1-B169-B3037E2E7578}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
     <sheet name="Included species" sheetId="2" r:id="rId2"/>
     <sheet name="diversity vs population size" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="695">
   <si>
     <t>Species</t>
   </si>
@@ -2096,6 +2096,36 @@
   </si>
   <si>
     <t>Species with population size estimates</t>
+  </si>
+  <si>
+    <t>Solanum melongena</t>
+  </si>
+  <si>
+    <t>Solanum lycopersicoides</t>
+  </si>
+  <si>
+    <t>Solanum pimpinellifolium</t>
+  </si>
+  <si>
+    <t>Iochroma cyaneum</t>
+  </si>
+  <si>
+    <t>Nicotiana benthamiana</t>
+  </si>
+  <si>
+    <t>Nicotiana tabacum</t>
+  </si>
+  <si>
+    <t>Petunia axillaris</t>
+  </si>
+  <si>
+    <t>Petunia inflata</t>
+  </si>
+  <si>
+    <t>Solanum chilense</t>
+  </si>
+  <si>
+    <t>Coffea humblotiana</t>
   </si>
 </sst>
 </file>
@@ -2487,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,6 +7475,61 @@
       </c>
       <c r="I318" s="3" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -8278,7 +8363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5CC31-DEE7-4BD6-8EEB-669C598FA203}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/1377500_2_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\67280_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{42C6EC8D-F8D2-4ECA-913B-6487EFD7B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293A5F4A-6E4F-42A1-B169-B3037E2E7578}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6F109-7AE2-4592-8214-F367871F8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="699">
   <si>
     <t>Species</t>
   </si>
@@ -2126,6 +2126,18 @@
   </si>
   <si>
     <t>Coffea humblotiana</t>
+  </si>
+  <si>
+    <t>GBIF taxon key</t>
+  </si>
+  <si>
+    <t>Brassica cretica</t>
+  </si>
+  <si>
+    <t>Brassica elongata</t>
+  </si>
+  <si>
+    <t>Arabis planisiliqua</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2236,6 +2248,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2519,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,6 +2774,9 @@
       <c r="C11" s="3" t="s">
         <v>622</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F11" s="8" t="s">
         <v>624</v>
       </c>
@@ -3203,6 +3225,9 @@
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F38" s="8" t="s">
         <v>302</v>
       </c>
@@ -3259,6 +3284,9 @@
       <c r="C42" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="D42" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F42" s="8" t="s">
         <v>159</v>
       </c>
@@ -3390,6 +3418,9 @@
       <c r="C52" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="D52" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F52" s="8" t="s">
         <v>291</v>
       </c>
@@ -3413,6 +3444,9 @@
       <c r="C53" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="D53" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>292</v>
       </c>
@@ -3430,6 +3464,9 @@
       <c r="C54" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="D54" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F54" s="8" t="s">
         <v>290</v>
       </c>
@@ -3488,6 +3525,9 @@
       <c r="C57" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="D57" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="G57" s="11">
         <v>336</v>
@@ -3519,6 +3559,9 @@
       </c>
       <c r="C59" s="3" t="s">
         <v>247</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="11">
@@ -3601,6 +3644,9 @@
       <c r="C65" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="D65" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="11">
         <v>300</v>
@@ -3633,6 +3679,9 @@
       <c r="C67" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="D67" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F67" s="8" t="s">
         <v>264</v>
       </c>
@@ -3684,6 +3733,9 @@
       <c r="C70" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="D70" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F70" s="8" t="s">
         <v>306</v>
       </c>
@@ -3732,6 +3784,9 @@
       <c r="C73" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F73" s="8" t="s">
         <v>265</v>
       </c>
@@ -3766,6 +3821,9 @@
       <c r="C75" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="D75" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F75" s="8" t="s">
         <v>266</v>
       </c>
@@ -3800,6 +3858,9 @@
       <c r="C77" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="D77" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F77" s="8" t="s">
         <v>159</v>
       </c>
@@ -3851,6 +3912,9 @@
       <c r="C80" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F80" s="8" t="s">
         <v>270</v>
       </c>
@@ -3885,6 +3949,9 @@
       <c r="C82" s="3" t="s">
         <v>598</v>
       </c>
+      <c r="D82" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F82" s="8" t="s">
         <v>618</v>
       </c>
@@ -3919,6 +3986,9 @@
       <c r="C84" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F84" s="8" t="s">
         <v>271</v>
       </c>
@@ -3967,6 +4037,9 @@
       <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D87" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F87" s="8" t="s">
         <v>272</v>
       </c>
@@ -3990,6 +4063,9 @@
       <c r="C88" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D88" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F88" s="8" t="s">
         <v>293</v>
       </c>
@@ -4013,6 +4089,9 @@
       <c r="C89" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="D89" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F89" s="8" t="s">
         <v>273</v>
       </c>
@@ -4047,6 +4126,9 @@
       <c r="C91" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F91" s="8"/>
       <c r="G91" s="11">
         <v>683</v>
@@ -4079,6 +4161,9 @@
       <c r="C93" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D93" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F93" s="8" t="s">
         <v>252</v>
       </c>
@@ -4140,6 +4225,9 @@
       <c r="C98" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="D98" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F98" s="8" t="s">
         <v>274</v>
       </c>
@@ -4196,6 +4284,9 @@
       <c r="C102" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F102" s="8" t="s">
         <v>275</v>
       </c>
@@ -4219,6 +4310,9 @@
       <c r="C103" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="D103" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F103" s="8" t="s">
         <v>276</v>
       </c>
@@ -4261,6 +4355,9 @@
       <c r="C106" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F106" s="8" t="s">
         <v>159</v>
       </c>
@@ -4286,16 +4383,17 @@
       </c>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="17" t="s">
         <v>222</v>
       </c>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4335,6 +4433,9 @@
       <c r="C111" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="D111" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F111" s="8" t="s">
         <v>159</v>
       </c>
@@ -4358,6 +4459,9 @@
       <c r="C112" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="D112" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F112" s="8" t="s">
         <v>277</v>
       </c>
@@ -4381,6 +4485,9 @@
       <c r="C113" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="D113" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F113" s="8" t="s">
         <v>279</v>
       </c>
@@ -4437,6 +4544,9 @@
       <c r="C117" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="D117" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F117" s="8" t="s">
         <v>233</v>
       </c>
@@ -4516,6 +4626,9 @@
       <c r="C122" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D122" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F122" s="8" t="s">
         <v>278</v>
       </c>
@@ -4555,6 +4668,9 @@
       <c r="C125" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D125" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F125" s="8" t="s">
         <v>295</v>
       </c>
@@ -4575,6 +4691,9 @@
       <c r="C126" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D126" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F126" s="8" t="s">
         <v>296</v>
       </c>
@@ -4587,6 +4706,9 @@
       <c r="C127" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D127" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="F127" s="8"/>
       <c r="G127" s="11">
         <v>277</v>
@@ -4598,6 +4720,9 @@
       </c>
       <c r="C128" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="11">
@@ -8361,10 +8486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5CC31-DEE7-4BD6-8EEB-669C598FA203}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8373,186 +8498,252 @@
     <col min="2" max="2" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>683</v>
       </c>
       <c r="B1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3052450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3052468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3052544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3052436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>5375020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10">
+        <v>5374933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>3043392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>5290143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18">
+        <v>9073641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19">
+        <v>3042888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20">
+        <v>3042837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>7903057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5375387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>5375425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -8948,5 +9139,6 @@
     <sortCondition ref="A2:A318"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\67280_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/394744_2_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6F109-7AE2-4592-8214-F367871F8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{4BC6F109-7AE2-4592-8214-F367871F8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C23F8C-65A4-4CDE-8B5B-8A5CCA971711}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="715">
   <si>
     <t>Species</t>
   </si>
@@ -2138,6 +2138,54 @@
   </si>
   <si>
     <t>Arabis planisiliqua</t>
+  </si>
+  <si>
+    <t>SolGenomics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/tpj.15313</t>
+  </si>
+  <si>
+    <t>Publication mentions 23, but I only found 15 on SRA</t>
+  </si>
+  <si>
+    <t>PRJNA649091</t>
+  </si>
+  <si>
+    <t>No WGS data</t>
+  </si>
+  <si>
+    <t>PRJNA454805</t>
+  </si>
+  <si>
+    <t>Lots more GBS, RAD-seq data</t>
+  </si>
+  <si>
+    <t>GBS data for RILs</t>
+  </si>
+  <si>
+    <t>Maybe some rad-seq data</t>
+  </si>
+  <si>
+    <t>PRJNA904563</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2022.1086950</t>
+  </si>
+  <si>
+    <t>More GBS data</t>
+  </si>
+  <si>
+    <t>PRJEB47577</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nph.18634</t>
+  </si>
+  <si>
+    <t>BrassicaDB</t>
+  </si>
+  <si>
+    <t>Genome Database for Rosaceae</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2248,13 +2296,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2536,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,17 +4424,16 @@
       </c>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -7602,59 +7642,193 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="319" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
         <v>685</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="G319" s="11">
+        <v>15</v>
+      </c>
+      <c r="H319" s="3">
+        <v>1</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="D320" t="s">
+        <v>699</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="G321" s="11">
+        <v>14</v>
+      </c>
+      <c r="H321" s="3">
+        <v>1</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>699</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>699</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="D324" t="s">
+        <v>699</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="G325" s="11">
+        <v>5</v>
+      </c>
+      <c r="H325" s="3">
+        <v>1</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>699</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="D327" t="s">
+        <v>699</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F328" s="8"/>
+      <c r="G328" s="11">
+        <v>30</v>
+      </c>
+      <c r="H328" s="3">
+        <v>1</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>694</v>
+      </c>
+      <c r="D329" t="s">
+        <v>699</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -8583,7 +8757,7 @@
       <c r="A10" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" t="s">
         <v>698</v>
       </c>
       <c r="C10">

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/394744_2_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\133032_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{4BC6F109-7AE2-4592-8214-F367871F8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C23F8C-65A4-4CDE-8B5B-8A5CCA971711}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="726">
   <si>
     <t>Species</t>
   </si>
@@ -2186,6 +2186,39 @@
   </si>
   <si>
     <t>Genome Database for Rosaceae</t>
+  </si>
+  <si>
+    <t>Aethionema arabicum</t>
+  </si>
+  <si>
+    <t>Boechera retrofracta</t>
+  </si>
+  <si>
+    <t>Brassica nigra </t>
+  </si>
+  <si>
+    <t>Caradmine hirsuta</t>
+  </si>
+  <si>
+    <t>Crucihimalaya himalaica</t>
+  </si>
+  <si>
+    <t>Descurainia sophia</t>
+  </si>
+  <si>
+    <t>Isatis indigotica</t>
+  </si>
+  <si>
+    <t>Leavenworthia alabamica</t>
+  </si>
+  <si>
+    <t>Raphanus sativus</t>
+  </si>
+  <si>
+    <t>Sisymbrium irio</t>
+  </si>
+  <si>
+    <t>Thellungiella halophila</t>
   </si>
 </sst>
 </file>
@@ -2577,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="G322" sqref="G322"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,12 +7855,111 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>715</v>
+      </c>
       <c r="D330" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>716</v>
+      </c>
       <c r="D331" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>473</v>
+      </c>
+      <c r="D332" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>717</v>
+      </c>
+      <c r="D333" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>718</v>
+      </c>
+      <c r="D334" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>719</v>
+      </c>
+      <c r="D335" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>720</v>
+      </c>
+      <c r="D336" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>721</v>
+      </c>
+      <c r="D337" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>722</v>
+      </c>
+      <c r="D338" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>723</v>
+      </c>
+      <c r="D339" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>724</v>
+      </c>
+      <c r="D340" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>725</v>
+      </c>
+      <c r="D341" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>570</v>
+      </c>
+      <c r="D342" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
         <v>714</v>
       </c>
     </row>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\133032_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/394744_2_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39FCC6D-D1D8-41CB-A824-6A1C93F3125D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="731">
   <si>
     <t>Species</t>
   </si>
@@ -2219,6 +2219,21 @@
   </si>
   <si>
     <t>Thellungiella halophila</t>
+  </si>
+  <si>
+    <t>WGS data for mapping population</t>
+  </si>
+  <si>
+    <t>lots of data, need to look at more closely</t>
+  </si>
+  <si>
+    <t>found data in set for other species</t>
+  </si>
+  <si>
+    <t>PRJNA634208</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038%2Fs41438-020-00385-y</t>
   </si>
 </sst>
 </file>
@@ -2610,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7861,6 +7876,9 @@
       <c r="D330" t="s">
         <v>713</v>
       </c>
+      <c r="F330" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -7869,6 +7887,9 @@
       <c r="D331" t="s">
         <v>713</v>
       </c>
+      <c r="F331" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -7877,13 +7898,34 @@
       <c r="D332" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="F332" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D333" t="s">
+      <c r="B333" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D333" s="3" t="s">
         <v>713</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="G333" s="11">
+        <v>7</v>
+      </c>
+      <c r="H333" s="3">
+        <v>1</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -7893,6 +7935,9 @@
       <c r="D334" t="s">
         <v>713</v>
       </c>
+      <c r="F334" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
@@ -7901,6 +7946,9 @@
       <c r="D335" t="s">
         <v>713</v>
       </c>
+      <c r="F335" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -7909,57 +7957,82 @@
       <c r="D336" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F336" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>721</v>
       </c>
       <c r="D337" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F337" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>722</v>
       </c>
       <c r="D338" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="F338" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D339" t="s">
+      <c r="B339" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F339" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="G339" s="11">
+        <v>179</v>
+      </c>
+      <c r="H339" s="3">
+        <v>1</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>724</v>
       </c>
       <c r="D340" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F340" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>725</v>
       </c>
       <c r="D341" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>570</v>
-      </c>
+      <c r="F341" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
         <v>714</v>
       </c>
     </row>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/394744_2_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/198084_2_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39FCC6D-D1D8-41CB-A824-6A1C93F3125D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702FF519-3A50-44B6-98A4-F8C76C83D394}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="732">
   <si>
     <t>Species</t>
   </si>
@@ -2234,6 +2234,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1038%2Fs41438-020-00385-y</t>
+  </si>
+  <si>
+    <t>PLAZA 5.0</t>
   </si>
 </sst>
 </file>
@@ -2625,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="D342" sqref="D342"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8034,6 +8037,11 @@
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>714</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/198084_2_11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/198084_2_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702FF519-3A50-44B6-98A4-F8C76C83D394}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D419457E-B084-4D40-8E38-07DE7690EE3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,9 +883,6 @@
     <t>WGS; I found 38 accessions in the SRA, but only 36 are mentioned in the publication</t>
   </si>
   <si>
-    <t>Found 537 in SRA based on the project numbers given in the publication</t>
-  </si>
-  <si>
     <t>doi: 10.3390/ijms21186700</t>
   </si>
   <si>
@@ -2237,6 +2234,9 @@
   </si>
   <si>
     <t>PLAZA 5.0</t>
+  </si>
+  <si>
+    <t>Found 537 in SRA based on the project numbers given in the publication; I think SAMN02946044 might be GBS data</t>
   </si>
 </sst>
 </file>
@@ -2630,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="D333" sqref="D333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>66</v>
@@ -2684,10 +2684,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="11">
@@ -2702,16 +2702,16 @@
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>458</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -2737,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="11">
@@ -2775,10 +2775,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="11">
@@ -2796,13 +2796,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="11">
@@ -2840,10 +2840,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="11">
@@ -2861,16 +2861,16 @@
         <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>624</v>
       </c>
       <c r="G11" s="11">
         <v>171</v>
@@ -2948,7 +2948,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>239</v>
@@ -2974,7 +2974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
@@ -2985,11 +2985,11 @@
         <v>169</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="8" t="s">
-        <v>280</v>
+        <v>731</v>
       </c>
       <c r="G19" s="11">
         <v>467</v>
@@ -3020,16 +3020,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="G21" s="11">
         <v>56</v>
@@ -3063,7 +3063,7 @@
         <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>159</v>
@@ -3125,7 +3125,7 @@
         <v>157</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>159</v>
@@ -3162,7 +3162,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>159</v>
@@ -3207,7 +3207,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>259</v>
@@ -3255,7 +3255,7 @@
         <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>260</v>
@@ -3281,7 +3281,7 @@
         <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>261</v>
@@ -3318,10 +3318,10 @@
         <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G38" s="11">
         <v>337</v>
@@ -3341,7 +3341,7 @@
         <v>136</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>159</v>
@@ -3505,16 +3505,16 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G52" s="11">
         <v>1674</v>
@@ -3531,16 +3531,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G53" s="11">
         <v>240</v>
@@ -3551,16 +3551,16 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="G54" s="11">
         <v>279</v>
@@ -3591,10 +3591,10 @@
         <v>183</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="11">
@@ -3618,7 +3618,7 @@
         <v>185</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="11">
@@ -3653,7 +3653,7 @@
         <v>247</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="11">
@@ -3737,7 +3737,7 @@
         <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="11">
@@ -3772,7 +3772,7 @@
         <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>264</v>
@@ -3820,16 +3820,16 @@
         <v>99</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="G70" s="11">
         <v>200</v>
@@ -3877,7 +3877,7 @@
         <v>198</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>265</v>
@@ -3914,7 +3914,7 @@
         <v>201</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>266</v>
@@ -3951,7 +3951,7 @@
         <v>267</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>159</v>
@@ -4005,7 +4005,7 @@
         <v>244</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>270</v>
@@ -4036,16 +4036,16 @@
         <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G82" s="11">
         <v>48</v>
@@ -4079,7 +4079,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>271</v>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>272</v>
@@ -4156,10 +4156,10 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G88" s="11">
         <v>85</v>
@@ -4176,13 +4176,13 @@
         <v>130</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>273</v>
@@ -4219,7 +4219,7 @@
         <v>41</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="11">
@@ -4254,7 +4254,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>252</v>
@@ -4318,7 +4318,7 @@
         <v>211</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>274</v>
@@ -4377,7 +4377,7 @@
         <v>213</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>275</v>
@@ -4403,7 +4403,7 @@
         <v>215</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>276</v>
@@ -4448,7 +4448,7 @@
         <v>219</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>159</v>
@@ -4468,10 +4468,10 @@
         <v>18</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="G107" s="13"/>
     </row>
@@ -4525,7 +4525,7 @@
         <v>227</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>159</v>
@@ -4551,7 +4551,7 @@
         <v>228</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>277</v>
@@ -4577,7 +4577,7 @@
         <v>230</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>279</v>
@@ -4630,13 +4630,13 @@
         <v>23</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>233</v>
@@ -4656,16 +4656,16 @@
         <v>32</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>234</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G118" s="11">
         <v>114</v>
@@ -4718,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>278</v>
@@ -4754,16 +4754,16 @@
         <v>9</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G125" s="11">
         <v>33</v>
@@ -4783,10 +4783,10 @@
         <v>7</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -4798,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="11">
@@ -4813,7 +4813,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="11">
@@ -4836,13 +4836,13 @@
         <v>160</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="11">
@@ -4871,24 +4871,24 @@
     </row>
     <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="D133" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="11">
@@ -4903,16 +4903,16 @@
     </row>
     <row r="134" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="D134" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="11">
@@ -4927,16 +4927,16 @@
     </row>
     <row r="135" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="11">
@@ -4951,19 +4951,19 @@
     </row>
     <row r="136" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="G136" s="11">
         <v>10</v>
@@ -4977,30 +4977,30 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>326</v>
+      </c>
+      <c r="D137" t="s">
+        <v>320</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="D137" t="s">
-        <v>321</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="G138" s="11">
         <v>135</v>
@@ -5014,19 +5014,19 @@
     </row>
     <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="G139" s="11">
         <v>7</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D140" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>137</v>
@@ -5051,35 +5051,35 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>337</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>339</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="G143" s="11">
         <v>34</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>137</v>
@@ -5101,10 +5101,10 @@
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>347</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5112,21 +5112,21 @@
         <v>98</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="D147" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="11">
@@ -5141,38 +5141,38 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="D148" t="s">
-        <v>321</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="D150" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="11">
@@ -5187,19 +5187,19 @@
     </row>
     <row r="151" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>643</v>
       </c>
       <c r="G151" s="11">
         <v>86</v>
@@ -5213,49 +5213,49 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="G155" s="11">
         <v>14</v>
@@ -5269,32 +5269,32 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>367</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="D158" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="11">
@@ -5309,38 +5309,38 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="D161" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="11">
@@ -5355,32 +5355,32 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="11">
@@ -5395,33 +5395,33 @@
     </row>
     <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" t="s">
         <v>380</v>
       </c>
-      <c r="B165" t="s">
-        <v>382</v>
-      </c>
-      <c r="C165" t="s">
-        <v>381</v>
-      </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="G166" s="13">
         <v>16</v>
@@ -5435,13 +5435,13 @@
     </row>
     <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="11">
@@ -5456,13 +5456,13 @@
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>235</v>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="D169" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>235</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="170" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F170" s="14" t="s">
         <v>235</v>
@@ -5525,27 +5525,27 @@
     </row>
     <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>395</v>
+      </c>
+      <c r="D171" t="s">
+        <v>320</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="D171" t="s">
-        <v>321</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="D172" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="G172" s="13">
         <v>10</v>
@@ -5559,19 +5559,19 @@
     </row>
     <row r="173" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="G173" s="11">
         <v>445</v>
@@ -5585,48 +5585,48 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>405</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>407</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="D178" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F178" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="G178" s="11">
         <v>27</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="179" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="G179" s="11">
         <v>299</v>
@@ -5666,27 +5666,27 @@
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" t="s">
         <v>418</v>
       </c>
-      <c r="C180" t="s">
+      <c r="F180" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="G181" s="11">
         <v>160</v>
@@ -5700,51 +5700,51 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>425</v>
+      </c>
+      <c r="F184" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>427</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F186" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="G186" s="11">
         <v>705</v>
@@ -5758,48 +5758,48 @@
     </row>
     <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>433</v>
+      </c>
+      <c r="F187" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" t="s">
         <v>436</v>
       </c>
-      <c r="C188" t="s">
+      <c r="F188" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="11">
@@ -5817,10 +5817,10 @@
         <v>97</v>
       </c>
       <c r="C192" t="s">
+        <v>443</v>
+      </c>
+      <c r="F192" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5828,10 +5828,10 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
+        <v>445</v>
+      </c>
+      <c r="F193" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5839,13 +5839,13 @@
         <v>97</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="G194" s="11">
         <v>37</v>
@@ -5887,13 +5887,13 @@
         <v>242</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="D197" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F197" s="8"/>
       <c r="G197" s="11">
@@ -5946,60 +5946,60 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D202" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D203" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D204" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D205" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F206" s="8"/>
       <c r="G206" s="11">
@@ -6014,37 +6014,37 @@
     </row>
     <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="G207" s="11"/>
     </row>
     <row r="208" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G208" s="11">
         <v>5</v>
@@ -6058,19 +6058,19 @@
     </row>
     <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="G209" s="11">
         <v>3</v>
@@ -6084,38 +6084,38 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D210" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D211" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F212" s="8"/>
       <c r="G212" s="11">
@@ -6130,27 +6130,27 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D213" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F214" s="8"/>
       <c r="G214" s="11">
@@ -6165,19 +6165,19 @@
     </row>
     <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G215" s="11">
         <v>292</v>
@@ -6191,19 +6191,19 @@
     </row>
     <row r="216" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>630</v>
       </c>
       <c r="G216" s="11">
         <v>127</v>
@@ -6217,30 +6217,30 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D217" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G218" s="11">
         <v>565</v>
@@ -6254,44 +6254,44 @@
     </row>
     <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D219" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C220" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D220" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="D221" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G221" s="11">
         <v>90</v>
@@ -6305,80 +6305,80 @@
     </row>
     <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D222" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D223" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C224" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D224" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C225" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D225" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D226" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G227" s="11">
         <v>8</v>
@@ -6392,110 +6392,110 @@
     </row>
     <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D228" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D229" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D230" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D231" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D232" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C233" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D233" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D234" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D235" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="236" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G236" s="11">
         <v>72</v>
@@ -6509,16 +6509,16 @@
     </row>
     <row r="237" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G237" s="11">
         <v>88</v>
@@ -6532,69 +6532,69 @@
     </row>
     <row r="238" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B238" t="s">
+        <v>615</v>
+      </c>
+      <c r="C238" t="s">
+        <v>597</v>
+      </c>
+      <c r="D238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="C238" t="s">
-        <v>598</v>
-      </c>
-      <c r="D238" t="s">
-        <v>461</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D239" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D240" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D241" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="D242" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G242" s="11">
         <v>228</v>
@@ -6608,225 +6608,225 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D243" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D244" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D245" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D246" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D247" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D248" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D249" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D250" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D251" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D253" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D254" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D255" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D257" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D259" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D261" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="11">
@@ -6841,19 +6841,19 @@
     </row>
     <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G263" s="11">
         <v>86</v>
@@ -6867,19 +6867,19 @@
     </row>
     <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G264" s="11">
         <v>10</v>
@@ -6893,19 +6893,19 @@
     </row>
     <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G265" s="11">
         <v>49</v>
@@ -6919,60 +6919,60 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D267" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D268" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C270" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F270" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="G270" s="11">
         <v>181</v>
@@ -6986,41 +6986,41 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D271" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G273" s="11">
         <v>67</v>
@@ -7034,107 +7034,107 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D275" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D276" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D277" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D279" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D281" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G282" s="11">
         <v>95</v>
@@ -7148,52 +7148,52 @@
     </row>
     <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D283" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D284" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D285" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G286" s="11">
         <v>359</v>
@@ -7207,44 +7207,44 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C287" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D287" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D288" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G289" s="11">
         <v>447</v>
@@ -7258,30 +7258,30 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D290" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G291" s="11">
         <v>32</v>
@@ -7295,30 +7295,30 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D292" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G293" s="11"/>
       <c r="H293" s="3">
@@ -7330,107 +7330,107 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D294" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D295" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D296" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D297" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D298" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D299" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D300" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D301" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G302" s="11"/>
       <c r="H302" s="3">
@@ -7442,30 +7442,30 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D303" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G304" s="11"/>
       <c r="H304" s="3">
@@ -7477,52 +7477,52 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D305" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D306" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D307" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G308" s="11"/>
       <c r="H308" s="3">
@@ -7534,33 +7534,33 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C309" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D309" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G310" s="11"/>
       <c r="H310" s="3">
@@ -7572,13 +7572,13 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D311" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -7586,56 +7586,56 @@
         <v>262</v>
       </c>
       <c r="D312" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G313" s="11"/>
     </row>
     <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D314" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G315" s="11">
         <v>119</v>
@@ -7649,41 +7649,41 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D316" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D317" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G318" s="11"/>
       <c r="H318" s="3">
@@ -7695,19 +7695,19 @@
     </row>
     <row r="319" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F319" s="8" t="s">
         <v>700</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>701</v>
       </c>
       <c r="G319" s="11">
         <v>15</v>
@@ -7721,30 +7721,30 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D320" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C321" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F321" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="F321" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="G321" s="11">
         <v>14</v>
@@ -7758,52 +7758,52 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D322" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D323" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D324" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F325" s="8" t="s">
         <v>709</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="F325" s="8" t="s">
-        <v>710</v>
       </c>
       <c r="G325" s="11">
         <v>5</v>
@@ -7817,38 +7817,38 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D326" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F326" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D327" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F328" s="8"/>
       <c r="G328" s="11">
@@ -7863,63 +7863,63 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D329" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D330" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D331" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D332" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="D333" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G333" s="11">
         <v>7</v>
@@ -7933,74 +7933,74 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D334" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D335" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D336" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D337" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D338" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G339" s="11">
         <v>179</v>
@@ -8014,34 +8014,34 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D340" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F340" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D341" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8547,72 +8547,72 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -8622,222 +8622,222 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -8887,18 +8887,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" t="s">
         <v>683</v>
       </c>
-      <c r="B1" t="s">
-        <v>684</v>
-      </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8935,10 +8935,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7">
         <v>3052544</v>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C10">
         <v>5374933</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8989,12 +8989,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9026,10 +9026,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18">
         <v>9073641</v>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C19">
         <v>3042888</v>
@@ -9051,7 +9051,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C20">
         <v>3042837</v>
@@ -9070,22 +9070,22 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9112,12 +9112,12 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9137,17 +9137,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9157,32 +9157,32 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9220,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9240,27 +9240,27 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,7 +9283,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9303,42 +9303,42 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -9368,12 +9368,12 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -9383,12 +9383,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -9398,32 +9398,32 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -9443,7 +9443,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -9463,17 +9463,17 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -9488,12 +9488,12 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -9508,7 +9508,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -9518,7 +9518,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/198084_2_12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/1312106_2_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D419457E-B084-4D40-8E38-07DE7690EE3F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA672FB4-6E90-4E30-B727-5803AF69ACE3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,9 +820,6 @@
     <t>This study seems suspicious, I'm not sure which runs are from GBS data vs runs from WGS data. They are all labeled as WGS data on the SRA, but the associated paper only lists 107 WGS accessions</t>
   </si>
   <si>
-    <t>Publication only mentions 50 genomes, but SRA dataset has 52</t>
-  </si>
-  <si>
     <t>Publication mentions 310 genomes, but only 296 are in the SRA</t>
   </si>
   <si>
@@ -2237,6 +2234,9 @@
   </si>
   <si>
     <t>Found 537 in SRA based on the project numbers given in the publication; I think SAMN02946044 might be GBS data</t>
+  </si>
+  <si>
+    <t>Publication only mentions 50 genomes, but SRA dataset has 52, ERR636156 is single end</t>
   </si>
 </sst>
 </file>
@@ -2316,12 +2316,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2347,6 +2346,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2630,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,8 +2640,8 @@
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="9" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2655,15 +2656,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F1" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>210</v>
       </c>
       <c r="H1" t="s">
@@ -2684,13 +2685,13 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="11">
+        <v>451</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="10">
         <v>48</v>
       </c>
       <c r="H2" s="3">
@@ -2700,20 +2701,20 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2722,7 +2723,7 @@
       <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2737,13 +2738,13 @@
         <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11">
+        <v>452</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10">
         <v>87</v>
       </c>
       <c r="H5" s="3">
@@ -2760,7 +2761,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2775,13 +2776,13 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11">
+        <v>453</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10">
         <v>56</v>
       </c>
       <c r="H7" s="3">
@@ -2796,16 +2797,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11">
+        <v>453</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10">
         <v>142</v>
       </c>
       <c r="H8" s="3">
@@ -2825,7 +2826,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2840,13 +2841,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11">
+        <v>453</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10">
         <v>1135</v>
       </c>
       <c r="H10" s="3">
@@ -2861,18 +2862,18 @@
         <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>171</v>
       </c>
       <c r="H11" s="3">
@@ -2889,7 +2890,7 @@
       <c r="C12" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2900,7 +2901,7 @@
       <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2911,7 +2912,7 @@
       <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2922,7 +2923,7 @@
       <c r="C15" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2933,7 +2934,7 @@
       <c r="C16" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2948,12 +2949,12 @@
         <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F17" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>597</v>
       </c>
       <c r="H17" s="3">
@@ -2970,34 +2971,34 @@
       <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="D19" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="G19" s="12">
         <v>467</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3011,7 +3012,7 @@
       <c r="C20" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3019,19 +3020,19 @@
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>56</v>
       </c>
       <c r="H21" s="3">
@@ -3051,7 +3052,7 @@
       <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3062,8 +3063,8 @@
       <c r="B23" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>308</v>
+      <c r="F23" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,7 +3074,7 @@
       <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3099,12 +3100,12 @@
         <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F26" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>119</v>
       </c>
       <c r="H26" s="3">
@@ -3125,12 +3126,12 @@
         <v>157</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>199</v>
       </c>
       <c r="H27" s="3">
@@ -3147,7 +3148,7 @@
       <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3162,12 +3163,12 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F29" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>40</v>
       </c>
       <c r="H29" s="3">
@@ -3192,33 +3193,33 @@
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="D32" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="G32" s="12">
         <v>52</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3229,7 +3230,7 @@
       <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3240,7 +3241,7 @@
       <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3255,12 +3256,12 @@
         <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G35" s="11">
+        <v>449</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="10">
         <v>296</v>
       </c>
       <c r="H35" s="3">
@@ -3274,19 +3275,19 @@
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" s="11">
+        <v>449</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="10">
         <v>3171</v>
       </c>
       <c r="H36" s="3">
@@ -3303,7 +3304,7 @@
       <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3318,12 +3319,12 @@
         <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G38" s="11">
+        <v>449</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" s="10">
         <v>337</v>
       </c>
       <c r="H38" s="3">
@@ -3340,8 +3341,8 @@
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>341</v>
+      <c r="F39" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3351,7 +3352,7 @@
       <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3362,7 +3363,7 @@
       <c r="C41" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3377,12 +3378,12 @@
         <v>178</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F42" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>115</v>
       </c>
       <c r="H42" s="3">
@@ -3402,7 +3403,7 @@
       <c r="C43" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3416,7 +3417,7 @@
       <c r="C44" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3427,7 +3428,7 @@
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3441,7 +3442,7 @@
       <c r="C46" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3452,7 +3453,7 @@
       <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3463,7 +3464,7 @@
       <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3474,7 +3475,7 @@
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3485,7 +3486,7 @@
       <c r="C50" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3496,7 +3497,7 @@
       <c r="C51" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3505,18 +3506,18 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G52" s="11">
+        <v>449</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" s="10">
         <v>1674</v>
       </c>
       <c r="H52" s="3">
@@ -3531,18 +3532,18 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" s="11">
+        <v>449</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" s="10">
         <v>240</v>
       </c>
     </row>
@@ -3551,18 +3552,18 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>279</v>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3587,17 +3588,17 @@
       <c r="B56" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="11">
+      <c r="D56" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="10">
         <v>185</v>
       </c>
       <c r="H56" s="3">
@@ -3618,10 +3619,10 @@
         <v>185</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="11">
+        <v>449</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="10">
         <v>336</v>
       </c>
       <c r="H57" s="3">
@@ -3638,7 +3639,7 @@
       <c r="C58" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3653,10 +3654,10 @@
         <v>247</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="11">
+        <v>449</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="10">
         <v>1081</v>
       </c>
       <c r="H59" s="3">
@@ -3675,7 +3676,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3686,7 +3687,7 @@
       <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3697,7 +3698,7 @@
       <c r="C62" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3708,7 +3709,7 @@
       <c r="C63" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3722,7 +3723,7 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3737,10 +3738,10 @@
         <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="11">
+        <v>449</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="10">
         <v>300</v>
       </c>
       <c r="H65" s="3">
@@ -3757,7 +3758,7 @@
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3772,12 +3773,12 @@
         <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G67" s="11">
+        <v>449</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G67" s="10">
         <v>131</v>
       </c>
       <c r="H67" s="3">
@@ -3797,7 +3798,7 @@
       <c r="C68" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3811,7 +3812,7 @@
       <c r="C69" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3820,18 +3821,18 @@
         <v>99</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>200</v>
       </c>
       <c r="H70" s="3">
@@ -3851,7 +3852,7 @@
       <c r="C71" t="s">
         <v>196</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3862,7 +3863,7 @@
       <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3877,12 +3878,12 @@
         <v>198</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G73" s="11">
+        <v>449</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" s="10">
         <v>136</v>
       </c>
       <c r="H73" s="3">
@@ -3899,7 +3900,7 @@
       <c r="C74" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3907,19 +3908,19 @@
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G75" s="11">
+        <v>449</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="10">
         <v>44</v>
       </c>
       <c r="H75" s="3">
@@ -3936,7 +3937,7 @@
       <c r="C76" t="s">
         <v>200</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3945,15 +3946,15 @@
         <v>67</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F77" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G77" s="3">
@@ -3976,8 +3977,8 @@
       <c r="C78" t="s">
         <v>250</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>269</v>
+      <c r="F78" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3990,7 +3991,7 @@
       <c r="C79" t="s">
         <v>195</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4005,12 +4006,12 @@
         <v>244</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G80" s="11">
+        <v>449</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="10">
         <v>38</v>
       </c>
       <c r="H80" s="3">
@@ -4027,7 +4028,7 @@
       <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4036,18 +4037,18 @@
         <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="G82" s="11">
+        <v>449</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" s="10">
         <v>48</v>
       </c>
       <c r="H82" s="3">
@@ -4064,7 +4065,7 @@
       <c r="C83" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4079,12 +4080,12 @@
         <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G84" s="11">
+        <v>449</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="10">
         <v>52</v>
       </c>
       <c r="H84" s="3">
@@ -4115,7 +4116,7 @@
       <c r="C86" t="s">
         <v>136</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4130,12 +4131,12 @@
         <v>4</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G87" s="12">
+        <v>449</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G87" s="11">
         <v>3024</v>
       </c>
       <c r="H87" s="3">
@@ -4156,12 +4157,12 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G88" s="11">
+        <v>449</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G88" s="10">
         <v>85</v>
       </c>
       <c r="H88" s="3">
@@ -4175,19 +4176,19 @@
       <c r="A89" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>300</v>
+      <c r="B89" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G89" s="11">
+        <v>449</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G89" s="10">
         <v>747</v>
       </c>
       <c r="H89" s="3">
@@ -4204,7 +4205,7 @@
       <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4219,10 +4220,10 @@
         <v>41</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="11">
+        <v>449</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="10">
         <v>683</v>
       </c>
       <c r="H91" s="3">
@@ -4239,7 +4240,7 @@
       <c r="C92" t="s">
         <v>136</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4254,12 +4255,12 @@
         <v>56</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F93" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="10">
         <v>52</v>
       </c>
       <c r="H93" s="3">
@@ -4318,12 +4319,12 @@
         <v>211</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G98" s="11">
+        <v>449</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G98" s="10">
         <v>428</v>
       </c>
       <c r="H98" s="3">
@@ -4340,7 +4341,7 @@
       <c r="C99" t="s">
         <v>136</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4351,7 +4352,7 @@
       <c r="C100" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4362,7 +4363,7 @@
       <c r="C101" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4377,12 +4378,12 @@
         <v>213</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G102" s="11">
+        <v>449</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G102" s="10">
         <v>909</v>
       </c>
       <c r="H102" s="3">
@@ -4403,12 +4404,12 @@
         <v>215</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G103" s="11">
+        <v>449</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G103" s="10">
         <v>38</v>
       </c>
       <c r="H103" s="3">
@@ -4433,7 +4434,7 @@
       <c r="C105" t="s">
         <v>217</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4448,12 +4449,12 @@
         <v>219</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F106" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="10">
         <v>360</v>
       </c>
       <c r="H106" s="3">
@@ -4463,17 +4464,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F107" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="F107" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G107" s="13"/>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -4482,7 +4483,7 @@
       <c r="C108" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4496,7 +4497,7 @@
       <c r="C109" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4510,7 +4511,7 @@
       <c r="C110" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4525,12 +4526,12 @@
         <v>227</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F111" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="10">
         <v>400</v>
       </c>
       <c r="H111" s="3">
@@ -4551,12 +4552,12 @@
         <v>228</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G112" s="11">
+        <v>449</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G112" s="10">
         <v>296</v>
       </c>
       <c r="H112" s="3">
@@ -4577,12 +4578,12 @@
         <v>230</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G113" s="11">
+        <v>449</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G113" s="10">
         <v>36</v>
       </c>
       <c r="H113" s="3">
@@ -4599,7 +4600,7 @@
       <c r="C114" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4613,7 +4614,7 @@
       <c r="C115" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4621,7 +4622,7 @@
       <c r="A116" t="s">
         <v>95</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4630,18 +4631,18 @@
         <v>23</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F117" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>786</v>
       </c>
       <c r="H117" s="3">
@@ -4656,18 +4657,18 @@
         <v>32</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>234</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G118" s="11">
+        <v>319</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118" s="10">
         <v>114</v>
       </c>
       <c r="H118" s="3">
@@ -4684,7 +4685,7 @@
       <c r="C119" t="s">
         <v>136</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4695,7 +4696,7 @@
       <c r="C120" t="s">
         <v>136</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4718,12 +4719,12 @@
         <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G122" s="11">
+        <v>449</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G122" s="10">
         <v>117</v>
       </c>
       <c r="H122" s="3">
@@ -4754,18 +4755,18 @@
         <v>9</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G125" s="11">
+        <v>449</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G125" s="10">
         <v>33</v>
       </c>
       <c r="H125" s="3">
@@ -4783,12 +4784,12 @@
         <v>7</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G126" s="11"/>
+        <v>449</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -4798,10 +4799,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="11">
+        <v>449</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="10">
         <v>277</v>
       </c>
     </row>
@@ -4813,10 +4814,10 @@
         <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="11">
+        <v>449</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="10">
         <v>599</v>
       </c>
     </row>
@@ -4827,7 +4828,7 @@
       <c r="C129" t="s">
         <v>236</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4836,16 +4837,16 @@
         <v>160</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="11">
+        <v>319</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="10">
         <v>306</v>
       </c>
       <c r="H130" s="3">
@@ -4865,33 +4866,33 @@
       <c r="C131" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>309</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="D133" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="11">
+        <v>319</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="10">
         <v>306</v>
       </c>
       <c r="H133" s="3">
@@ -4903,19 +4904,19 @@
     </row>
     <row r="134" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="D134" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="11">
+        <v>319</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="10">
         <v>479</v>
       </c>
       <c r="H134" s="3">
@@ -4927,19 +4928,19 @@
     </row>
     <row r="135" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F135" s="8"/>
-      <c r="G135" s="11">
+        <v>319</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="10">
         <v>1007</v>
       </c>
       <c r="H135" s="3">
@@ -4951,21 +4952,21 @@
     </row>
     <row r="136" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F136" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G136" s="11">
+      <c r="G136" s="10">
         <v>10</v>
       </c>
       <c r="H136" s="3">
@@ -4977,32 +4978,32 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>325</v>
+      </c>
+      <c r="D137" t="s">
+        <v>319</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="D137" t="s">
-        <v>320</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F138" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G138" s="11">
+      <c r="G138" s="10">
         <v>135</v>
       </c>
       <c r="H138" s="3">
@@ -5014,21 +5015,21 @@
     </row>
     <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G139" s="11">
+      <c r="G139" s="10">
         <v>7</v>
       </c>
       <c r="H139" s="3">
@@ -5040,48 +5041,48 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D140" t="s">
-        <v>320</v>
-      </c>
-      <c r="F140" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>336</v>
+      </c>
+      <c r="F141" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>338</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F143" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G143" s="11">
+      <c r="G143" s="10">
         <v>34</v>
       </c>
       <c r="H143" s="3">
@@ -5093,43 +5094,43 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>346</v>
-      </c>
-      <c r="F144" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>346</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
-      <c r="F146" s="7" t="s">
-        <v>349</v>
+      <c r="F146" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="D147" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="11">
+        <v>319</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="10">
         <v>1175</v>
       </c>
       <c r="H147" s="3">
@@ -5141,41 +5142,41 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" t="s">
+        <v>319</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="D148" t="s">
-        <v>320</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D149" t="s">
-        <v>320</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D150" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="11">
+        <v>319</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="10">
         <v>171</v>
       </c>
       <c r="H150" s="3">
@@ -5187,21 +5188,21 @@
     </row>
     <row r="151" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F151" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="G151" s="11">
+      <c r="G151" s="10">
         <v>86</v>
       </c>
       <c r="H151" s="3">
@@ -5213,51 +5214,51 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D154" t="s">
-        <v>320</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="G155" s="11">
+      <c r="G155" s="10">
         <v>14</v>
       </c>
       <c r="H155" s="3">
@@ -5269,35 +5270,35 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>366</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>366</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="D158" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="11">
+        <v>319</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="10">
         <v>550</v>
       </c>
       <c r="H158" s="3">
@@ -5309,41 +5310,41 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D159" t="s">
-        <v>320</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D160" t="s">
-        <v>320</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="D161" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="11">
+        <v>319</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="10">
         <v>55</v>
       </c>
       <c r="H161" s="3">
@@ -5355,35 +5356,35 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>377</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>378</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="11">
+        <v>319</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="10">
         <v>86</v>
       </c>
       <c r="H164" s="3">
@@ -5395,185 +5396,185 @@
     </row>
     <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>378</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+      <c r="C165" t="s">
         <v>379</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C165" t="s">
-        <v>380</v>
-      </c>
-      <c r="D165" t="s">
-        <v>320</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="D166" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F166" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="G166" s="13">
+      <c r="G166" s="12">
         <v>16</v>
       </c>
-      <c r="H166" s="5">
-        <v>1</v>
-      </c>
-      <c r="I166" s="5" t="s">
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="10">
+        <v>163</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F167" s="8"/>
-      <c r="G167" s="11">
-        <v>163</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="D168" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G168" s="12">
+        <v>21</v>
+      </c>
+      <c r="H168" s="4">
+        <v>1</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F168" s="14" t="s">
+      <c r="C169" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G168" s="13">
-        <v>21</v>
-      </c>
-      <c r="H168" s="5">
-        <v>1</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C169" s="5" t="s">
+      <c r="G169" s="12">
+        <v>18</v>
+      </c>
+      <c r="H169" s="4">
+        <v>1</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F169" s="14" t="s">
+      <c r="D170" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F170" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G169" s="13">
-        <v>18</v>
-      </c>
-      <c r="H169" s="5">
-        <v>1</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G170" s="13">
+      <c r="G170" s="12">
         <v>19</v>
       </c>
-      <c r="H170" s="5">
-        <v>1</v>
-      </c>
-      <c r="I170" s="5" t="s">
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>394</v>
+      </c>
+      <c r="D171" t="s">
+        <v>319</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D171" t="s">
-        <v>320</v>
-      </c>
-      <c r="F171" s="7" t="s">
+    </row>
+    <row r="172" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="C172" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="D172" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F172" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="G172" s="13">
+      <c r="G172" s="12">
         <v>10</v>
       </c>
-      <c r="H172" s="5">
-        <v>1</v>
-      </c>
-      <c r="I172" s="5" t="s">
+      <c r="H172" s="4">
+        <v>1</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F173" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G173" s="11">
+      <c r="G173" s="10">
         <v>445</v>
       </c>
       <c r="H173" s="3">
@@ -5585,50 +5586,50 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>404</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>354</v>
+        <v>403</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>404</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>406</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>409</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>340</v>
+        <v>408</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="D178" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G178" s="11">
+      <c r="G178" s="10">
         <v>27</v>
       </c>
       <c r="H178" s="3">
@@ -5640,21 +5641,21 @@
     </row>
     <row r="179" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G179" s="11">
+      <c r="G179" s="10">
         <v>299</v>
       </c>
       <c r="H179" s="3">
@@ -5666,29 +5667,29 @@
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" t="s">
         <v>417</v>
       </c>
-      <c r="C180" t="s">
+      <c r="F180" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F181" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="G181" s="11">
+      <c r="G181" s="10">
         <v>160</v>
       </c>
       <c r="H181" s="3">
@@ -5700,53 +5701,53 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>423</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>340</v>
+        <v>422</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>424</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>340</v>
+        <v>423</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>424</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>426</v>
+      </c>
+      <c r="F185" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F186" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G186" s="11">
+      <c r="G186" s="10">
         <v>705</v>
       </c>
       <c r="H186" s="3">
@@ -5758,51 +5759,51 @@
     </row>
     <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>432</v>
+      </c>
+      <c r="F187" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>434</v>
+      </c>
+      <c r="C188" t="s">
         <v>435</v>
       </c>
-      <c r="C188" t="s">
+      <c r="F188" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>438</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>368</v>
+        <v>437</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>439</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>368</v>
+        <v>438</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="11">
+        <v>439</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="10">
         <v>558</v>
       </c>
       <c r="H191" s="3">
@@ -5817,10 +5818,10 @@
         <v>97</v>
       </c>
       <c r="C192" t="s">
+        <v>442</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5828,10 +5829,10 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
+        <v>444</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5839,15 +5840,15 @@
         <v>97</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G194" s="11">
+      <c r="G194" s="10">
         <v>37</v>
       </c>
       <c r="H194" s="3">
@@ -5867,7 +5868,7 @@
       <c r="C195" t="s">
         <v>166</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5878,7 +5879,7 @@
       <c r="B196" t="s">
         <v>167</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5887,16 +5888,16 @@
         <v>242</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="D197" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F197" s="8"/>
-      <c r="G197" s="11">
+        <v>459</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="10">
         <v>157</v>
       </c>
       <c r="H197" s="3">
@@ -5913,23 +5914,23 @@
       <c r="B198" t="s">
         <v>243</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>262</v>
-      </c>
-      <c r="F199" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>263</v>
-      </c>
-      <c r="F200" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F200" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5940,69 +5941,69 @@
       <c r="C201" t="s">
         <v>40</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D202" t="s">
-        <v>460</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D203" t="s">
-        <v>460</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>577</v>
+        <v>459</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D204" t="s">
-        <v>460</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D205" t="s">
-        <v>460</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="11">
+        <v>459</v>
+      </c>
+      <c r="F206" s="7"/>
+      <c r="G206" s="10">
         <v>12</v>
       </c>
       <c r="H206" s="3">
@@ -6014,39 +6015,39 @@
     </row>
     <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F207" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="G207" s="11"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="G208" s="11">
+        <v>459</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G208" s="10">
         <v>5</v>
       </c>
       <c r="H208" s="3">
@@ -6058,21 +6059,21 @@
     </row>
     <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F209" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="G209" s="11">
+      <c r="G209" s="10">
         <v>3</v>
       </c>
       <c r="H209" s="3">
@@ -6084,41 +6085,41 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D210" t="s">
-        <v>460</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D211" t="s">
-        <v>460</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>584</v>
+        <v>459</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="11">
+        <v>459</v>
+      </c>
+      <c r="F212" s="7"/>
+      <c r="G212" s="10">
         <v>146</v>
       </c>
       <c r="H212" s="3">
@@ -6130,30 +6131,30 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D213" t="s">
-        <v>460</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="11">
+        <v>459</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="G214" s="10">
         <v>97</v>
       </c>
       <c r="H214" s="3">
@@ -6165,21 +6166,21 @@
     </row>
     <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G215" s="11">
+        <v>459</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G215" s="10">
         <v>292</v>
       </c>
       <c r="H215" s="3">
@@ -6191,21 +6192,21 @@
     </row>
     <row r="216" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F216" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="G216" s="11">
+      <c r="G216" s="10">
         <v>127</v>
       </c>
       <c r="H216" s="3">
@@ -6217,32 +6218,32 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D217" t="s">
-        <v>460</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G218" s="11">
+        <v>459</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G218" s="10">
         <v>565</v>
       </c>
       <c r="H218" s="3">
@@ -6254,46 +6255,46 @@
     </row>
     <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D219" t="s">
-        <v>460</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>632</v>
+        <v>459</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C220" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D220" t="s">
-        <v>460</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>633</v>
+        <v>459</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="D221" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F221" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G221" s="11">
+        <v>459</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G221" s="10">
         <v>90</v>
       </c>
       <c r="H221" s="3">
@@ -6305,82 +6306,82 @@
     </row>
     <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D222" t="s">
-        <v>460</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>636</v>
+        <v>459</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D223" t="s">
-        <v>460</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D224" t="s">
-        <v>460</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>613</v>
+        <v>459</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C225" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D225" t="s">
-        <v>460</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>614</v>
+        <v>459</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D226" t="s">
-        <v>460</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>637</v>
+        <v>459</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F227" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G227" s="11">
+        <v>459</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G227" s="10">
         <v>8</v>
       </c>
       <c r="H227" s="3">
@@ -6392,112 +6393,112 @@
     </row>
     <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D228" t="s">
-        <v>460</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>640</v>
+        <v>459</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D229" t="s">
-        <v>460</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D231" t="s">
-        <v>460</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D232" t="s">
-        <v>460</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>594</v>
+        <v>459</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C233" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D233" t="s">
-        <v>460</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>643</v>
+        <v>459</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D234" t="s">
-        <v>460</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D235" t="s">
-        <v>460</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>596</v>
+        <v>459</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F236" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G236" s="11">
+        <v>459</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G236" s="10">
         <v>72</v>
       </c>
       <c r="H236" s="3">
@@ -6509,18 +6510,18 @@
     </row>
     <row r="237" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G237" s="11">
+        <v>459</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G237" s="10">
         <v>88</v>
       </c>
       <c r="H237" s="3">
@@ -6532,71 +6533,71 @@
     </row>
     <row r="238" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B238" t="s">
+        <v>614</v>
+      </c>
+      <c r="C238" t="s">
+        <v>596</v>
+      </c>
+      <c r="D238" t="s">
+        <v>459</v>
+      </c>
+      <c r="F238" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="C238" t="s">
-        <v>597</v>
-      </c>
-      <c r="D238" t="s">
-        <v>460</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D239" t="s">
-        <v>460</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D240" t="s">
-        <v>460</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>460</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="D242" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G242" s="11">
+        <v>459</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G242" s="10">
         <v>228</v>
       </c>
       <c r="H242" s="3">
@@ -6608,228 +6609,228 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D243" t="s">
-        <v>460</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D244" t="s">
-        <v>460</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D245" t="s">
-        <v>460</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D246" t="s">
-        <v>460</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D247" t="s">
-        <v>460</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D248" t="s">
-        <v>460</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D249" t="s">
-        <v>460</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D250" t="s">
-        <v>460</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D251" t="s">
-        <v>460</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D252" t="s">
-        <v>460</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D253" t="s">
-        <v>460</v>
-      </c>
-      <c r="F253" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D254" t="s">
-        <v>460</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>596</v>
+        <v>459</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D255" t="s">
-        <v>460</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>649</v>
+        <v>459</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D257" t="s">
-        <v>460</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D258" t="s">
-        <v>460</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>650</v>
+        <v>459</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D259" t="s">
-        <v>460</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D260" t="s">
-        <v>460</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D261" t="s">
-        <v>460</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F262" s="8"/>
-      <c r="G262" s="11">
+        <v>459</v>
+      </c>
+      <c r="F262" s="7"/>
+      <c r="G262" s="10">
         <v>208</v>
       </c>
       <c r="H262" s="3">
@@ -6841,21 +6842,21 @@
     </row>
     <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F263" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G263" s="11">
+        <v>459</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G263" s="10">
         <v>86</v>
       </c>
       <c r="H263" s="3">
@@ -6867,21 +6868,21 @@
     </row>
     <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F264" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="G264" s="11">
+        <v>459</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G264" s="10">
         <v>10</v>
       </c>
       <c r="H264" s="3">
@@ -6893,21 +6894,21 @@
     </row>
     <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F265" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G265" s="11">
+        <v>459</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G265" s="10">
         <v>49</v>
       </c>
       <c r="H265" s="3">
@@ -6919,62 +6920,62 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D266" t="s">
-        <v>460</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D267" t="s">
-        <v>460</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D268" t="s">
-        <v>460</v>
-      </c>
-      <c r="F268" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D269" t="s">
-        <v>460</v>
-      </c>
-      <c r="F269" s="7" t="s">
-        <v>596</v>
+        <v>459</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C270" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F270" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="G270" s="11">
+      <c r="G270" s="10">
         <v>181</v>
       </c>
       <c r="H270" s="3">
@@ -6986,43 +6987,43 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D271" t="s">
-        <v>460</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D272" t="s">
-        <v>460</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>656</v>
+        <v>459</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F273" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G273" s="11">
+        <v>459</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G273" s="10">
         <v>67</v>
       </c>
       <c r="H273" s="3">
@@ -7034,109 +7035,109 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D274" t="s">
-        <v>460</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D275" t="s">
-        <v>460</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D276" t="s">
-        <v>460</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D277" t="s">
-        <v>460</v>
-      </c>
-      <c r="F277" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D278" t="s">
-        <v>460</v>
-      </c>
-      <c r="F278" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D279" t="s">
-        <v>460</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D280" t="s">
-        <v>460</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>659</v>
+        <v>459</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D281" t="s">
-        <v>460</v>
-      </c>
-      <c r="F281" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F282" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G282" s="11">
+        <v>459</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G282" s="10">
         <v>95</v>
       </c>
       <c r="H282" s="3">
@@ -7148,54 +7149,54 @@
     </row>
     <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D283" t="s">
-        <v>460</v>
-      </c>
-      <c r="F283" s="7" t="s">
-        <v>659</v>
+        <v>459</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D284" t="s">
-        <v>460</v>
-      </c>
-      <c r="F284" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D285" t="s">
-        <v>460</v>
-      </c>
-      <c r="F285" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F286" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G286" s="11">
+        <v>459</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G286" s="10">
         <v>359</v>
       </c>
       <c r="H286" s="3">
@@ -7207,46 +7208,46 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C287" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D287" t="s">
-        <v>460</v>
-      </c>
-      <c r="F287" s="7" t="s">
-        <v>664</v>
+        <v>459</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D288" t="s">
-        <v>460</v>
-      </c>
-      <c r="F288" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G289" s="11">
+        <v>459</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G289" s="10">
         <v>447</v>
       </c>
       <c r="H289" s="3">
@@ -7258,32 +7259,32 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D290" t="s">
-        <v>460</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F291" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="G291" s="11">
+        <v>459</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G291" s="10">
         <v>32</v>
       </c>
       <c r="H291" s="3">
@@ -7295,32 +7296,32 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D292" t="s">
-        <v>460</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F293" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="G293" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G293" s="10"/>
       <c r="H293" s="3">
         <v>1</v>
       </c>
@@ -7330,109 +7331,109 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D294" t="s">
-        <v>460</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>656</v>
+        <v>459</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D295" t="s">
-        <v>460</v>
-      </c>
-      <c r="F295" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D296" t="s">
-        <v>460</v>
-      </c>
-      <c r="F296" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D297" t="s">
-        <v>460</v>
-      </c>
-      <c r="F297" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D298" t="s">
-        <v>460</v>
-      </c>
-      <c r="F298" s="7" t="s">
-        <v>656</v>
+        <v>459</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D299" t="s">
-        <v>460</v>
-      </c>
-      <c r="F299" s="7" t="s">
-        <v>604</v>
+        <v>459</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D300" t="s">
-        <v>460</v>
-      </c>
-      <c r="F300" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D301" t="s">
-        <v>460</v>
-      </c>
-      <c r="F301" s="7" t="s">
-        <v>637</v>
+        <v>459</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F302" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="G302" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G302" s="10"/>
       <c r="H302" s="3">
         <v>1</v>
       </c>
@@ -7442,32 +7443,32 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D303" t="s">
-        <v>460</v>
-      </c>
-      <c r="F303" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F304" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="G304" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G304" s="10"/>
       <c r="H304" s="3">
         <v>1</v>
       </c>
@@ -7477,54 +7478,54 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D305" t="s">
-        <v>460</v>
-      </c>
-      <c r="F305" s="7" t="s">
-        <v>606</v>
+        <v>459</v>
+      </c>
+      <c r="F305" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D306" t="s">
-        <v>460</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D307" t="s">
-        <v>460</v>
-      </c>
-      <c r="F307" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="G308" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G308" s="10"/>
       <c r="H308" s="3">
         <v>1</v>
       </c>
@@ -7534,35 +7535,35 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C309" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D309" t="s">
-        <v>460</v>
-      </c>
-      <c r="F309" s="7" t="s">
-        <v>676</v>
+        <v>459</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F310" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G310" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G310" s="10"/>
       <c r="H310" s="3">
         <v>1</v>
       </c>
@@ -7572,72 +7573,72 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D311" t="s">
-        <v>460</v>
-      </c>
-      <c r="F311" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D312" t="s">
-        <v>460</v>
-      </c>
-      <c r="F312" s="7" t="s">
-        <v>609</v>
+        <v>459</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F313" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="G313" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G313" s="10"/>
     </row>
     <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D314" t="s">
-        <v>460</v>
-      </c>
-      <c r="F314" s="7" t="s">
-        <v>637</v>
+        <v>459</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F315" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G315" s="11">
+        <v>459</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G315" s="10">
         <v>119</v>
       </c>
       <c r="H315" s="3">
@@ -7649,43 +7650,43 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D316" t="s">
-        <v>460</v>
-      </c>
-      <c r="F316" s="7" t="s">
-        <v>368</v>
+        <v>459</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D317" t="s">
-        <v>460</v>
-      </c>
-      <c r="F317" s="7" t="s">
-        <v>609</v>
+        <v>459</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F318" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G318" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G318" s="10"/>
       <c r="H318" s="3">
         <v>1</v>
       </c>
@@ -7695,21 +7696,21 @@
     </row>
     <row r="319" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F319" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="G319" s="11">
+      <c r="G319" s="10">
         <v>15</v>
       </c>
       <c r="H319" s="3">
@@ -7721,32 +7722,32 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D320" t="s">
-        <v>698</v>
-      </c>
-      <c r="F320" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C321" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F321" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="D321" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F321" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="G321" s="11">
+      <c r="G321" s="10">
         <v>14</v>
       </c>
       <c r="H321" s="3">
@@ -7758,54 +7759,54 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D322" t="s">
-        <v>698</v>
-      </c>
-      <c r="F322" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D323" t="s">
-        <v>698</v>
-      </c>
-      <c r="F323" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D324" t="s">
-        <v>698</v>
-      </c>
-      <c r="F324" s="7" t="s">
-        <v>706</v>
+        <v>697</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F325" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F325" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="G325" s="11">
+      <c r="G325" s="10">
         <v>5</v>
       </c>
       <c r="H325" s="3">
@@ -7817,41 +7818,41 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D326" t="s">
-        <v>698</v>
-      </c>
-      <c r="F326" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D327" t="s">
-        <v>698</v>
-      </c>
-      <c r="F327" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F328" s="8"/>
-      <c r="G328" s="11">
+        <v>697</v>
+      </c>
+      <c r="F328" s="7"/>
+      <c r="G328" s="10">
         <v>30</v>
       </c>
       <c r="H328" s="3">
@@ -7863,65 +7864,65 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D329" t="s">
-        <v>698</v>
-      </c>
-      <c r="F329" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D330" t="s">
-        <v>712</v>
-      </c>
-      <c r="F330" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D331" t="s">
-        <v>712</v>
-      </c>
-      <c r="F331" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D332" t="s">
-        <v>712</v>
-      </c>
-      <c r="F332" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="D333" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F333" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="G333" s="11">
+        <v>711</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G333" s="10">
         <v>7</v>
       </c>
       <c r="H333" s="3">
@@ -7933,76 +7934,76 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D334" t="s">
-        <v>712</v>
-      </c>
-      <c r="F334" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D335" t="s">
-        <v>712</v>
-      </c>
-      <c r="F335" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D336" t="s">
-        <v>712</v>
-      </c>
-      <c r="F336" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D337" t="s">
-        <v>712</v>
-      </c>
-      <c r="F337" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D338" t="s">
-        <v>712</v>
-      </c>
-      <c r="F338" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F339" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="G339" s="11">
+        <v>711</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G339" s="10">
         <v>179</v>
       </c>
       <c r="H339" s="3">
@@ -8014,34 +8015,34 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D340" t="s">
-        <v>712</v>
-      </c>
-      <c r="F340" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D341" t="s">
-        <v>712</v>
-      </c>
-      <c r="F341" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
+      </c>
+      <c r="F341" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -8076,792 +8077,792 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>455</v>
+      <c r="A2" s="14" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>326</v>
+      <c r="A100" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>328</v>
+      <c r="A101" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>332</v>
+      <c r="A102" s="14" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>339</v>
+      <c r="A105" s="14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
-        <v>343</v>
+      <c r="A106" s="14" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>350</v>
+      <c r="A110" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>353</v>
+      <c r="A111" s="14" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>355</v>
+      <c r="A112" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
-        <v>364</v>
+      <c r="A118" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>369</v>
+      <c r="A121" s="14" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
-        <v>383</v>
+      <c r="A128" s="14" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
-        <v>386</v>
+      <c r="A129" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>391</v>
-      </c>
-    </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>397</v>
+      <c r="A134" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
-        <v>401</v>
+      <c r="A135" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>407</v>
+      <c r="A138" s="14" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
-        <v>413</v>
+      <c r="A141" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>417</v>
+      <c r="A142" s="14" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>421</v>
+      <c r="A143" s="14" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
-        <v>427</v>
+      <c r="A147" s="14" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15" t="s">
-        <v>429</v>
+      <c r="A148" s="14" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
-        <v>433</v>
+      <c r="A149" s="14" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
-        <v>435</v>
+      <c r="A150" s="14" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
-        <v>442</v>
+      <c r="A153" s="14" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8887,18 +8888,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>682</v>
       </c>
-      <c r="B1" t="s">
-        <v>683</v>
-      </c>
       <c r="C1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8935,10 +8936,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7">
         <v>3052544</v>
@@ -8968,10 +8969,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C10">
         <v>5374933</v>
@@ -8979,7 +8980,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8989,12 +8990,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9026,10 +9027,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18">
         <v>9073641</v>
@@ -9037,10 +9038,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C19">
         <v>3042888</v>
@@ -9051,7 +9052,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C20">
         <v>3042837</v>
@@ -9070,22 +9071,22 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9112,12 +9113,12 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9137,17 +9138,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9157,32 +9158,32 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9200,7 +9201,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9221,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9240,27 +9241,27 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,7 +9284,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9293,7 +9294,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9303,42 +9304,42 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>383</v>
+      <c r="A66" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>394</v>
+      <c r="A70" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>397</v>
+      <c r="A71" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -9368,12 +9369,12 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -9383,12 +9384,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -9398,32 +9399,32 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -9443,7 +9444,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -9463,17 +9464,17 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -9488,12 +9489,12 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -9508,7 +9509,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -9518,7 +9519,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/1312106_2_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\66558_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{288CFB60-3D1E-438A-AD79-978746AFC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA672FB4-6E90-4E30-B727-5803AF69ACE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="736">
   <si>
     <t>Species</t>
   </si>
@@ -2237,6 +2237,18 @@
   </si>
   <si>
     <t>Publication only mentions 50 genomes, but SRA dataset has 52, ERR636156 is single end</t>
+  </si>
+  <si>
+    <t>PRJNA207721</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/aob/mcu084</t>
+  </si>
+  <si>
+    <t>PRJNA765476</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpls.2021.748750</t>
   </si>
 </sst>
 </file>
@@ -2631,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,18 +3444,30 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="D46" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>145</v>
+      </c>
+      <c r="G46" s="10">
+        <v>643</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,18 +3737,30 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="D64" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>145</v>
+      </c>
+      <c r="G64" s="10">
+        <v>98</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3788,32 +3824,50 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="G68" s="10">
+        <v>176</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="7" t="s">
         <v>145</v>
+      </c>
+      <c r="G69" s="10">
+        <v>17</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4021,15 +4075,30 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="B81" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>203</v>
+      </c>
+      <c r="G81" s="10">
+        <v>2644</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4476,16 +4545,17 @@
       </c>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="13" t="s">
         <v>222</v>
       </c>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4604,26 +4674,56 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="D115" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="G115" s="10">
+        <v>768</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="B116" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>232</v>
+      </c>
+      <c r="G116" s="10">
+        <v>672</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILESR~1\AppData\Local\Temp\Mxt213\RemoteFiles\66558_2_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8D5F08-6BD5-4BF5-A473-2958FFD0FA54}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="760">
   <si>
     <t>Species</t>
   </si>
@@ -973,9 +973,6 @@
     <t>Secale cereale</t>
   </si>
   <si>
-    <t>Available on Ensembl; but no WGS data available, only GBS</t>
-  </si>
-  <si>
     <t>Aegilops tauschii</t>
   </si>
   <si>
@@ -1039,9 +1036,6 @@
     <t>Capsicum annuum</t>
   </si>
   <si>
-    <t>GBS data for 10000 accessions</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/dnares/dsac052</t>
   </si>
   <si>
@@ -1342,9 +1336,6 @@
     <t>Triticum dicoccoides</t>
   </si>
   <si>
-    <t>found exome capture data, and GBS data, but no WGS data</t>
-  </si>
-  <si>
     <t>Triticum spelta</t>
   </si>
   <si>
@@ -1771,9 +1762,6 @@
     <t>Ziziphus jujuba</t>
   </si>
   <si>
-    <t>RAD-seq data, but no WGS data in SRA</t>
-  </si>
-  <si>
     <t>PRJNA309929</t>
   </si>
   <si>
@@ -1987,9 +1975,6 @@
     <t>PRJNA349094</t>
   </si>
   <si>
-    <t>A lot of data, need to look at more closely. Found GBS data, but no WGS</t>
-  </si>
-  <si>
     <t>A lot of data, need to look at more closely. Didn't find WGS data</t>
   </si>
   <si>
@@ -2249,6 +2234,93 @@
   </si>
   <si>
     <t>https://doi.org/10.3389/fpls.2021.748750</t>
+  </si>
+  <si>
+    <t>Available on Ensembl; but no WGS data available, only GBS, but all RAD-seq data comes from F1 mapping populations</t>
+  </si>
+  <si>
+    <t>PRJNA302330</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0143193</t>
+  </si>
+  <si>
+    <t>PRJNA477644</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ympev.2018.06.031</t>
+  </si>
+  <si>
+    <t>GBS data for 10000 accessions, but WGS data for 7 accessions, I think I'll go with the dataset that has more individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB45375 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.2104315118</t>
+  </si>
+  <si>
+    <t>GBS data for 8000 accessions</t>
+  </si>
+  <si>
+    <t>PRJEB32239</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1002/ppp3.10078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJNA759347 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-021-04056-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB42105 </t>
+  </si>
+  <si>
+    <t>found exome capture data, and GBS data, but no WGS data, there is one slightly larger GBS study but it looks at two populations sampled 30 years apart</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371%2Fjournal.pone.0227148</t>
+  </si>
+  <si>
+    <t>RAD-seq data, but no WGS data in SRA, RAD-seq data may come from a mapping population</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41438-021-00544-9</t>
+  </si>
+  <si>
+    <t>PRJNA867527</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/d14090769</t>
+  </si>
+  <si>
+    <t>PRJNA308183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/044354 </t>
+  </si>
+  <si>
+    <t>A lot of data, need to look at more closely. Found GBS data, but no WGS, HOWEVER GBS data came from an F1 mapping population</t>
+  </si>
+  <si>
+    <t>PRJNA575709</t>
+  </si>
+  <si>
+    <t>RAD-seq data, but no WGS, I don't think there are at least 5 individuals for RAD-seq… I could maybe look at this data more closely</t>
+  </si>
+  <si>
+    <t>PRJNA733522</t>
+  </si>
+  <si>
+    <t>PRJNA774842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/2022.08.25.505308 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.plantsci.2021.111019</t>
   </si>
 </sst>
 </file>
@@ -2641,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B305" workbookViewId="0">
+      <selection activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>66</v>
@@ -2697,10 +2769,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="10">
@@ -2715,16 +2787,16 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -2750,10 +2822,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="10">
@@ -2788,10 +2860,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="10">
@@ -2812,10 +2884,10 @@
         <v>295</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10">
@@ -2853,10 +2925,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="10">
@@ -2874,16 +2946,16 @@
         <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G11" s="10">
         <v>171</v>
@@ -2961,7 +3033,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>239</v>
@@ -2998,11 +3070,11 @@
         <v>169</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="13" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G19" s="12">
         <v>467</v>
@@ -3039,7 +3111,7 @@
         <v>280</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>281</v>
@@ -3112,7 +3184,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>159</v>
@@ -3138,7 +3210,7 @@
         <v>157</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>159</v>
@@ -3175,7 +3247,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>159</v>
@@ -3220,10 +3292,10 @@
         <v>58</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G32" s="12">
         <v>52</v>
@@ -3268,7 +3340,7 @@
         <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>259</v>
@@ -3294,7 +3366,7 @@
         <v>174</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>260</v>
@@ -3331,7 +3403,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>300</v>
@@ -3354,7 +3426,7 @@
         <v>136</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3390,7 +3462,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>159</v>
@@ -3455,7 +3527,7 @@
         <v>180</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>145</v>
@@ -3536,7 +3608,7 @@
         <v>282</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>289</v>
@@ -3562,7 +3634,7 @@
         <v>285</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>290</v>
@@ -3582,7 +3654,7 @@
         <v>286</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>288</v>
@@ -3616,10 +3688,10 @@
         <v>183</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="10">
@@ -3643,7 +3715,7 @@
         <v>185</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10">
@@ -3678,7 +3750,7 @@
         <v>247</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="10">
@@ -3748,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>145</v>
@@ -3774,7 +3846,7 @@
         <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10">
@@ -3809,7 +3881,7 @@
         <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>263</v>
@@ -3881,7 +3953,7 @@
         <v>302</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>304</v>
@@ -3932,7 +4004,7 @@
         <v>198</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>264</v>
@@ -3969,7 +4041,7 @@
         <v>201</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>265</v>
@@ -4006,7 +4078,7 @@
         <v>266</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>159</v>
@@ -4060,7 +4132,7 @@
         <v>244</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>269</v>
@@ -4080,13 +4152,13 @@
         <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>203</v>
@@ -4106,16 +4178,16 @@
         <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G82" s="10">
         <v>48</v>
@@ -4149,7 +4221,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>270</v>
@@ -4200,7 +4272,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>271</v>
@@ -4226,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>291</v>
@@ -4252,7 +4324,7 @@
         <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>272</v>
@@ -4289,7 +4361,7 @@
         <v>41</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="10">
@@ -4324,7 +4396,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>252</v>
@@ -4388,7 +4460,7 @@
         <v>211</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>273</v>
@@ -4447,7 +4519,7 @@
         <v>213</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>274</v>
@@ -4473,7 +4545,7 @@
         <v>215</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>275</v>
@@ -4518,7 +4590,7 @@
         <v>219</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>159</v>
@@ -4538,10 +4610,10 @@
         <v>18</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G107" s="12"/>
     </row>
@@ -4585,29 +4657,29 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F111" s="7" t="s">
+      <c r="D111" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F111" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="12">
         <v>400</v>
       </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="3" t="s">
+      <c r="H111" s="4">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4622,7 +4694,7 @@
         <v>228</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>276</v>
@@ -4648,7 +4720,7 @@
         <v>230</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>278</v>
@@ -4685,7 +4757,7 @@
         <v>65</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>142</v>
@@ -4705,13 +4777,13 @@
         <v>95</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>232</v>
@@ -4737,7 +4809,7 @@
         <v>298</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>233</v>
@@ -4763,7 +4835,7 @@
         <v>234</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>301</v>
@@ -4819,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>277</v>
@@ -4861,7 +4933,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>293</v>
@@ -4884,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>294</v>
@@ -4899,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="10">
@@ -4914,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="10">
@@ -4943,7 +5015,7 @@
         <v>306</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="10">
@@ -4970,26 +5042,44 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>310</v>
+      <c r="B132" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G132" s="10">
+        <v>5</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="D133" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="10">
@@ -5004,16 +5094,16 @@
     </row>
     <row r="134" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="D134" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10">
@@ -5028,16 +5118,16 @@
     </row>
     <row r="135" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="10">
@@ -5050,549 +5140,579 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F136" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F136" s="7" t="s">
+      <c r="G136" s="12">
+        <v>10</v>
+      </c>
+      <c r="H136" s="4">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G136" s="10">
-        <v>10</v>
-      </c>
-      <c r="H136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F137" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D137" t="s">
-        <v>319</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="12">
+        <v>5</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="B138" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D138" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G138" s="10">
+      <c r="G138" s="12">
         <v>135</v>
       </c>
-      <c r="H138" s="3">
-        <v>1</v>
-      </c>
-      <c r="I138" s="3" t="s">
+      <c r="H138" s="4">
+        <v>1</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G139" s="10">
+        <v>8028</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" t="s">
         <v>331</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F139" s="7" t="s">
+      <c r="C140" t="s">
         <v>332</v>
       </c>
-      <c r="G139" s="10">
+      <c r="D140" t="s">
+        <v>318</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G140" s="9">
         <v>7</v>
       </c>
-      <c r="H139" s="3">
-        <v>1</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>335</v>
-      </c>
-      <c r="D140" t="s">
-        <v>319</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>137</v>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="D141" t="s">
+        <v>318</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F142" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>336</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="C144" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F144" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="G144" s="12">
+        <v>34</v>
+      </c>
+      <c r="H144" s="4">
+        <v>1</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>343</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F143" s="7" t="s">
+      <c r="F145" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G143" s="10">
-        <v>34</v>
-      </c>
-      <c r="H143" s="3">
-        <v>1</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B146" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="G146" s="10">
+        <v>254</v>
+      </c>
+      <c r="H146" s="3">
+        <v>1</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>98</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F145" s="6" t="s">
+    </row>
+    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>98</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="B148" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="10">
+      <c r="D148" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="10">
         <v>1175</v>
       </c>
-      <c r="H147" s="3">
-        <v>1</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>352</v>
-      </c>
-      <c r="D148" t="s">
-        <v>319</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>353</v>
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>350</v>
+      </c>
+      <c r="D149" t="s">
+        <v>318</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>352</v>
+      </c>
+      <c r="D150" t="s">
+        <v>318</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D149" t="s">
-        <v>319</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="D151" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="10">
+        <v>171</v>
+      </c>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="10">
-        <v>171</v>
-      </c>
-      <c r="H150" s="3">
-        <v>1</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="G151" s="10">
+      <c r="B152" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G152" s="10">
         <v>86</v>
       </c>
-      <c r="H151" s="3">
-        <v>1</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>359</v>
-      </c>
-      <c r="D152" t="s">
-        <v>319</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>339</v>
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" t="s">
+        <v>318</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" t="s">
+        <v>318</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D154" t="s">
-        <v>319</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B155" s="3" t="s">
+      <c r="B156" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F156" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G155" s="10">
+      <c r="G156" s="12">
         <v>14</v>
       </c>
-      <c r="H155" s="3">
-        <v>1</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>365</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>353</v>
+      <c r="H156" s="4">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>363</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>364</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="B159" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="10">
+      <c r="D159" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="10">
         <v>550</v>
       </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>371</v>
-      </c>
-      <c r="D159" t="s">
-        <v>319</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>367</v>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>369</v>
+      </c>
+      <c r="D160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D160" t="s">
-        <v>319</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="10">
+      <c r="D162" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="10">
         <v>55</v>
       </c>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>376</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>367</v>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>374</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>375</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="10">
+        <v>86</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>376</v>
+      </c>
+      <c r="B166" t="s">
+        <v>378</v>
+      </c>
+      <c r="C166" t="s">
         <v>377</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="D166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="10">
-        <v>86</v>
-      </c>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>378</v>
-      </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="167" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D165" t="s">
-        <v>319</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="D167" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G167" s="12">
+        <v>16</v>
+      </c>
+      <c r="H167" s="4">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="G166" s="12">
-        <v>16</v>
-      </c>
-      <c r="H166" s="4">
-        <v>1</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F167" s="7"/>
-      <c r="G167" s="10">
+      <c r="F168" s="7"/>
+      <c r="G168" s="10">
         <v>163</v>
       </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G168" s="12">
-        <v>21</v>
-      </c>
-      <c r="H168" s="4">
-        <v>1</v>
-      </c>
-      <c r="I168" s="4" t="s">
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F169" s="13" t="s">
         <v>235</v>
       </c>
       <c r="G169" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H169" s="4">
         <v>1</v>
@@ -5603,424 +5723,469 @@
     </row>
     <row r="170" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>235</v>
       </c>
       <c r="G170" s="12">
+        <v>18</v>
+      </c>
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G171" s="12">
         <v>19</v>
       </c>
-      <c r="H170" s="4">
-        <v>1</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" t="s">
+        <v>318</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D171" t="s">
-        <v>319</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="C173" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="D173" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="G173" s="12">
+        <v>10</v>
+      </c>
+      <c r="H173" s="4">
+        <v>1</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F172" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="G172" s="12">
-        <v>10</v>
-      </c>
-      <c r="H172" s="4">
-        <v>1</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="C174" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G173" s="10">
+      <c r="G174" s="10">
         <v>445</v>
       </c>
-      <c r="H173" s="3">
-        <v>1</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>403</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>353</v>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>406</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>407</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G176" s="10">
+        <v>91</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>404</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>406</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F177" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="D179" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="G179" s="10">
+        <v>27</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F178" s="7" t="s">
+      <c r="B180" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G178" s="10">
-        <v>27</v>
-      </c>
-      <c r="H178" s="3">
-        <v>1</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="D180" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F180" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="G180" s="10">
+        <v>299</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>414</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F179" s="7" t="s">
+      <c r="C181" t="s">
         <v>415</v>
       </c>
-      <c r="G179" s="10">
-        <v>299</v>
-      </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="F181" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="182" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F180" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="D182" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F182" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G181" s="10">
+      <c r="G182" s="10">
         <v>160</v>
       </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>422</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>339</v>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>420</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>421</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>422</v>
+      </c>
+      <c r="F185" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F183" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>424</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="F186" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="187" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="B187" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="D187" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F187" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="G187" s="10">
+        <v>705</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F186" s="7" t="s">
+      <c r="B188" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="G188" s="10">
+        <v>109</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>431</v>
       </c>
-      <c r="G186" s="10">
-        <v>705</v>
-      </c>
-      <c r="H186" s="3">
-        <v>1</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C189" t="s">
         <v>432</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="F189" s="6" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>434</v>
-      </c>
-      <c r="C188" t="s">
-        <v>435</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>437</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>434</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>435</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F190" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F191" s="7"/>
-      <c r="G191" s="10">
+      <c r="B192" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="10">
         <v>558</v>
       </c>
-      <c r="H191" s="3">
-        <v>1</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>97</v>
-      </c>
-      <c r="C192" t="s">
-        <v>442</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>443</v>
+      <c r="H192" s="3">
+        <v>1</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>97</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
+        <v>439</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>97</v>
+      </c>
+      <c r="B194" t="s">
+        <v>441</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="C195" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F195" s="7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G194" s="10">
+      <c r="G195" s="10">
         <v>37</v>
       </c>
-      <c r="H194" s="3">
-        <v>1</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>164</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C195" t="s">
-        <v>166</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>163</v>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>168</v>
-      </c>
-      <c r="B196" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" t="s">
+        <v>166</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" t="s">
+        <v>167</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="10">
+      <c r="B198" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="10">
         <v>157</v>
       </c>
-      <c r="H197" s="3">
-        <v>1</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>242</v>
-      </c>
-      <c r="B198" t="s">
-        <v>243</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>163</v>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>261</v>
+        <v>242</v>
+      </c>
+      <c r="B199" t="s">
+        <v>243</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>163</v>
@@ -6028,7 +6193,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>163</v>
@@ -6036,10 +6201,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>39</v>
-      </c>
-      <c r="C201" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>163</v>
@@ -6047,559 +6209,571 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>460</v>
-      </c>
-      <c r="D202" t="s">
-        <v>459</v>
+        <v>39</v>
+      </c>
+      <c r="C202" t="s">
+        <v>40</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D203" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D204" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>367</v>
+        <v>747</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D205" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F206" s="7"/>
-      <c r="G206" s="10">
-        <v>12</v>
-      </c>
-      <c r="H206" s="3">
-        <v>1</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>257</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>460</v>
+      </c>
+      <c r="D206" t="s">
+        <v>456</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="10">
+        <v>12</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F209" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G207" s="10"/>
-    </row>
-    <row r="208" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="G208" s="10">
+      <c r="G209" s="10">
         <v>5</v>
       </c>
-      <c r="H208" s="3">
-        <v>1</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G209" s="10">
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G210" s="10">
         <v>3</v>
       </c>
-      <c r="H209" s="3">
-        <v>1</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>468</v>
-      </c>
-      <c r="D210" t="s">
-        <v>459</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>367</v>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D211" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F212" s="7"/>
-      <c r="G212" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>466</v>
+      </c>
+      <c r="D212" t="s">
+        <v>456</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="10">
         <v>146</v>
       </c>
-      <c r="H212" s="3">
-        <v>1</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>471</v>
-      </c>
-      <c r="D213" t="s">
-        <v>459</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F214" s="7"/>
-      <c r="G214" s="10">
-        <v>97</v>
-      </c>
-      <c r="H214" s="3">
-        <v>1</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>257</v>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>468</v>
+      </c>
+      <c r="D214" t="s">
+        <v>456</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="10">
+        <v>97</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G216" s="10">
+        <v>292</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G217" s="10">
+        <v>127</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>472</v>
+      </c>
+      <c r="D218" t="s">
+        <v>456</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B219" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G215" s="10">
-        <v>292</v>
-      </c>
-      <c r="H215" s="3">
-        <v>1</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="D219" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G219" s="10">
+        <v>565</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>474</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C216" s="3" t="s">
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+      <c r="F220" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F216" s="7" t="s">
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>475</v>
+      </c>
+      <c r="C221" t="s">
+        <v>585</v>
+      </c>
+      <c r="D221" t="s">
+        <v>456</v>
+      </c>
+      <c r="F221" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="G216" s="10">
-        <v>127</v>
-      </c>
-      <c r="H216" s="3">
-        <v>1</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>475</v>
-      </c>
-      <c r="D217" t="s">
-        <v>459</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+    </row>
+    <row r="222" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B222" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G218" s="10">
-        <v>565</v>
-      </c>
-      <c r="H218" s="3">
-        <v>1</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="D222" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G222" s="10">
+        <v>90</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>477</v>
       </c>
-      <c r="D219" t="s">
-        <v>459</v>
-      </c>
-      <c r="F219" s="6" t="s">
+      <c r="D223" t="s">
+        <v>456</v>
+      </c>
+      <c r="F223" s="6" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>478</v>
-      </c>
-      <c r="C220" t="s">
-        <v>589</v>
-      </c>
-      <c r="D220" t="s">
-        <v>459</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G221" s="10">
-        <v>90</v>
-      </c>
-      <c r="H221" s="3">
-        <v>1</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>480</v>
-      </c>
-      <c r="D222" t="s">
-        <v>459</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>481</v>
-      </c>
-      <c r="D223" t="s">
-        <v>459</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>478</v>
+      </c>
+      <c r="D224" t="s">
+        <v>456</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G225" s="10">
+        <v>186</v>
+      </c>
+      <c r="H225" s="3">
+        <v>1</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>480</v>
+      </c>
+      <c r="C226" t="s">
+        <v>588</v>
+      </c>
+      <c r="D226" t="s">
+        <v>456</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>481</v>
+      </c>
+      <c r="D227" t="s">
+        <v>456</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C224" t="s">
-        <v>591</v>
-      </c>
-      <c r="D224" t="s">
-        <v>459</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B228" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G228" s="10">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3">
+        <v>1</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>483</v>
       </c>
-      <c r="C225" t="s">
-        <v>592</v>
-      </c>
-      <c r="D225" t="s">
-        <v>459</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>484</v>
-      </c>
-      <c r="D226" t="s">
-        <v>459</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G227" s="10">
-        <v>8</v>
-      </c>
-      <c r="H227" s="3">
-        <v>1</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>486</v>
-      </c>
-      <c r="D228" t="s">
-        <v>459</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>487</v>
-      </c>
       <c r="D229" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>367</v>
+        <v>635</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D230" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D231" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>491</v>
-      </c>
-      <c r="C233" t="s">
-        <v>594</v>
+        <v>487</v>
       </c>
       <c r="D233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>492</v>
+        <v>488</v>
+      </c>
+      <c r="C234" t="s">
+        <v>590</v>
       </c>
       <c r="D234" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>367</v>
+        <v>638</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D235" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G236" s="10">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H236" s="3">
         <v>1</v>
@@ -6610,354 +6784,369 @@
     </row>
     <row r="237" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G237" s="10">
+        <v>72</v>
+      </c>
+      <c r="H237" s="3">
+        <v>1</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G238" s="10">
         <v>88</v>
       </c>
-      <c r="H237" s="3">
-        <v>1</v>
-      </c>
-      <c r="I237" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>496</v>
-      </c>
-      <c r="B238" t="s">
-        <v>614</v>
-      </c>
-      <c r="C238" t="s">
-        <v>596</v>
-      </c>
-      <c r="D238" t="s">
-        <v>459</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H238" s="3">
+        <v>1</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="B239" t="s">
+        <v>610</v>
+      </c>
+      <c r="C239" t="s">
+        <v>592</v>
       </c>
       <c r="D239" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>367</v>
+        <v>611</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D240" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D241" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G242" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>496</v>
+      </c>
+      <c r="D242" t="s">
+        <v>456</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G243" s="10">
         <v>228</v>
       </c>
-      <c r="H242" s="3">
-        <v>1</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>501</v>
-      </c>
-      <c r="D243" t="s">
-        <v>459</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>367</v>
+      <c r="H243" s="3">
+        <v>1</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D244" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D245" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D246" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D247" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D249" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D250" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D251" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D252" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D253" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>508</v>
+      </c>
+      <c r="D254" t="s">
+        <v>456</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G255" s="10">
+        <v>50</v>
+      </c>
+      <c r="H255" s="3">
+        <v>1</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="D256" t="s">
+        <v>456</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>511</v>
+      </c>
+      <c r="D257" t="s">
+        <v>456</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>512</v>
       </c>
-      <c r="D254" t="s">
-        <v>459</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="D258" t="s">
+        <v>456</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>513</v>
       </c>
-      <c r="D255" t="s">
-        <v>459</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>514</v>
-      </c>
-      <c r="D256" t="s">
-        <v>459</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>515</v>
-      </c>
-      <c r="D257" t="s">
-        <v>459</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>516</v>
-      </c>
-      <c r="D258" t="s">
-        <v>459</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>517</v>
-      </c>
       <c r="D259" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>367</v>
+        <v>644</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D260" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D261" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F262" s="7"/>
-      <c r="G262" s="10">
-        <v>208</v>
-      </c>
-      <c r="H262" s="3">
-        <v>1</v>
-      </c>
-      <c r="I262" s="3" t="s">
-        <v>257</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>516</v>
+      </c>
+      <c r="D262" t="s">
+        <v>456</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F263" s="7" t="s">
-        <v>588</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F263" s="7"/>
       <c r="G263" s="10">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="H263" s="3">
         <v>1</v>
@@ -6968,22 +7157,22 @@
     </row>
     <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="G264" s="10">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="H264" s="3">
         <v>1</v>
@@ -6994,799 +7183,834 @@
     </row>
     <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="G265" s="10">
+        <v>10</v>
+      </c>
+      <c r="H265" s="3">
+        <v>1</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G266" s="10">
         <v>49</v>
       </c>
-      <c r="H265" s="3">
-        <v>1</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>524</v>
-      </c>
-      <c r="D266" t="s">
-        <v>459</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>367</v>
+      <c r="H266" s="3">
+        <v>1</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D267" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D268" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D269" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F270" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G270" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>524</v>
+      </c>
+      <c r="C270" t="s">
+        <v>754</v>
+      </c>
+      <c r="D270" t="s">
+        <v>456</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G271" s="10">
         <v>181</v>
       </c>
-      <c r="H270" s="3">
-        <v>1</v>
-      </c>
-      <c r="I270" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>529</v>
-      </c>
-      <c r="D271" t="s">
-        <v>459</v>
-      </c>
-      <c r="F271" s="6" t="s">
-        <v>367</v>
+      <c r="H271" s="3">
+        <v>1</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D272" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G273" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>527</v>
+      </c>
+      <c r="D273" t="s">
+        <v>456</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G274" s="10">
         <v>67</v>
       </c>
-      <c r="H273" s="3">
-        <v>1</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>532</v>
-      </c>
-      <c r="D274" t="s">
-        <v>459</v>
-      </c>
-      <c r="F274" s="6" t="s">
-        <v>367</v>
+      <c r="H274" s="3">
+        <v>1</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D275" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D276" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D277" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D278" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>533</v>
+      </c>
+      <c r="D279" t="s">
+        <v>456</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>534</v>
+      </c>
+      <c r="D280" t="s">
+        <v>456</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>535</v>
+      </c>
+      <c r="D281" t="s">
+        <v>456</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>536</v>
+      </c>
+      <c r="D282" t="s">
+        <v>456</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D279" t="s">
-        <v>459</v>
-      </c>
-      <c r="F279" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B283" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G283" s="10">
+        <v>95</v>
+      </c>
+      <c r="H283" s="3">
+        <v>1</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>538</v>
       </c>
-      <c r="D280" t="s">
-        <v>459</v>
-      </c>
-      <c r="F280" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>539</v>
-      </c>
-      <c r="D281" t="s">
-        <v>459</v>
-      </c>
-      <c r="F281" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G282" s="10">
-        <v>95</v>
-      </c>
-      <c r="H282" s="3">
-        <v>1</v>
-      </c>
-      <c r="I282" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>541</v>
-      </c>
-      <c r="D283" t="s">
-        <v>459</v>
-      </c>
-      <c r="F283" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>542</v>
-      </c>
       <c r="D284" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>367</v>
+        <v>653</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D285" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F286" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G286" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>540</v>
+      </c>
+      <c r="D286" t="s">
+        <v>456</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G287" s="10">
         <v>359</v>
       </c>
-      <c r="H286" s="3">
-        <v>1</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>545</v>
-      </c>
-      <c r="C287" t="s">
-        <v>601</v>
-      </c>
-      <c r="D287" t="s">
-        <v>459</v>
-      </c>
-      <c r="F287" s="6" t="s">
-        <v>663</v>
+      <c r="H287" s="3">
+        <v>1</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>542</v>
+      </c>
+      <c r="C288" t="s">
+        <v>597</v>
+      </c>
+      <c r="D288" t="s">
+        <v>456</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>543</v>
+      </c>
+      <c r="D289" t="s">
+        <v>456</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G290" s="10">
+        <v>447</v>
+      </c>
+      <c r="H290" s="3">
+        <v>1</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>545</v>
+      </c>
+      <c r="D291" t="s">
+        <v>456</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D288" t="s">
-        <v>459</v>
-      </c>
-      <c r="F288" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+      <c r="B292" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G292" s="10">
+        <v>32</v>
+      </c>
+      <c r="H292" s="3">
+        <v>1</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>547</v>
       </c>
-      <c r="B289" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G289" s="10">
-        <v>447</v>
-      </c>
-      <c r="H289" s="3">
-        <v>1</v>
-      </c>
-      <c r="I289" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="D293" t="s">
+        <v>456</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D290" t="s">
-        <v>459</v>
-      </c>
-      <c r="F290" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F291" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G291" s="10">
-        <v>32</v>
-      </c>
-      <c r="H291" s="3">
-        <v>1</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>550</v>
-      </c>
-      <c r="D292" t="s">
-        <v>459</v>
-      </c>
-      <c r="F292" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G293" s="10"/>
-      <c r="H293" s="3">
-        <v>1</v>
-      </c>
-      <c r="I293" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>552</v>
-      </c>
-      <c r="D294" t="s">
-        <v>459</v>
-      </c>
-      <c r="F294" s="6" t="s">
-        <v>655</v>
+      <c r="B294" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G294" s="10"/>
+      <c r="H294" s="3">
+        <v>1</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D295" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>367</v>
+        <v>650</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D296" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D297" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D298" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>655</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D299" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>554</v>
+      </c>
+      <c r="D300" t="s">
+        <v>456</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>555</v>
+      </c>
+      <c r="D301" t="s">
+        <v>456</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>556</v>
+      </c>
+      <c r="D302" t="s">
+        <v>456</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G303" s="10"/>
+      <c r="H303" s="3">
+        <v>1</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>558</v>
       </c>
-      <c r="D300" t="s">
-        <v>459</v>
-      </c>
-      <c r="F300" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="D304" t="s">
+        <v>456</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D301" t="s">
-        <v>459</v>
-      </c>
-      <c r="F301" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F302" s="7" t="s">
+      <c r="B305" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="G302" s="10"/>
-      <c r="H302" s="3">
-        <v>1</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>561</v>
-      </c>
-      <c r="D303" t="s">
-        <v>459</v>
-      </c>
-      <c r="F303" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F304" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G304" s="10"/>
-      <c r="H304" s="3">
-        <v>1</v>
-      </c>
-      <c r="I304" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>563</v>
-      </c>
-      <c r="D305" t="s">
-        <v>459</v>
-      </c>
-      <c r="F305" s="6" t="s">
-        <v>605</v>
+      <c r="D305" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G305" s="10"/>
+      <c r="H305" s="3">
+        <v>1</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D306" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>367</v>
+        <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>561</v>
+      </c>
+      <c r="D307" t="s">
+        <v>456</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>562</v>
+      </c>
+      <c r="D308" t="s">
+        <v>456</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G309" s="10"/>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>564</v>
+      </c>
+      <c r="C310" t="s">
+        <v>603</v>
+      </c>
+      <c r="D310" t="s">
+        <v>456</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D307" t="s">
-        <v>459</v>
-      </c>
-      <c r="F307" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F308" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G308" s="10"/>
-      <c r="H308" s="3">
-        <v>1</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>567</v>
-      </c>
-      <c r="C309" t="s">
-        <v>607</v>
-      </c>
-      <c r="D309" t="s">
-        <v>459</v>
-      </c>
-      <c r="F309" s="6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F310" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G310" s="10"/>
-      <c r="H310" s="3">
-        <v>1</v>
-      </c>
-      <c r="I310" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>569</v>
-      </c>
-      <c r="D311" t="s">
-        <v>459</v>
-      </c>
-      <c r="F311" s="6" t="s">
-        <v>367</v>
+      <c r="B311" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G311" s="10"/>
+      <c r="H311" s="3">
+        <v>1</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>261</v>
+        <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>608</v>
+        <v>365</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>570</v>
+        <v>261</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>609</v>
+        <v>756</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G313" s="10"/>
-    </row>
-    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>571</v>
-      </c>
-      <c r="D314" t="s">
-        <v>459</v>
-      </c>
-      <c r="F314" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F315" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G315" s="10">
+        <v>604</v>
+      </c>
+      <c r="G313" s="10">
+        <v>133</v>
+      </c>
+      <c r="H313" s="3">
+        <v>1</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G314" s="10"/>
+    </row>
+    <row r="315" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>568</v>
+      </c>
+      <c r="D315" t="s">
+        <v>456</v>
+      </c>
+      <c r="F315" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G316" s="10">
         <v>119</v>
       </c>
-      <c r="H315" s="3">
-        <v>1</v>
-      </c>
-      <c r="I315" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>573</v>
-      </c>
-      <c r="D316" t="s">
-        <v>459</v>
-      </c>
-      <c r="F316" s="6" t="s">
-        <v>367</v>
+      <c r="H316" s="3">
+        <v>1</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D317" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>608</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F318" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G318" s="10"/>
+        <v>604</v>
+      </c>
+      <c r="G318" s="10">
+        <v>821</v>
+      </c>
       <c r="H318" s="3">
         <v>1</v>
       </c>
@@ -7794,355 +8018,379 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>683</v>
+        <v>572</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G319" s="10"/>
+      <c r="H319" s="3">
+        <v>1</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G320" s="10">
+        <v>15</v>
+      </c>
+      <c r="H320" s="3">
+        <v>1</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>679</v>
+      </c>
+      <c r="D321" t="s">
+        <v>692</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F322" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F319" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="G319" s="10">
-        <v>15</v>
-      </c>
-      <c r="H319" s="3">
-        <v>1</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>684</v>
-      </c>
-      <c r="D320" t="s">
-        <v>697</v>
-      </c>
-      <c r="F320" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F321" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G321" s="10">
+      <c r="G322" s="10">
         <v>14</v>
       </c>
-      <c r="H321" s="3">
-        <v>1</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>686</v>
-      </c>
-      <c r="D322" t="s">
-        <v>697</v>
-      </c>
-      <c r="F322" s="6" t="s">
-        <v>701</v>
+      <c r="H322" s="3">
+        <v>1</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>377</v>
+        <v>681</v>
       </c>
       <c r="D323" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>687</v>
+        <v>375</v>
       </c>
       <c r="D324" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F325" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G325" s="10">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>682</v>
+      </c>
+      <c r="D325" t="s">
+        <v>692</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F326" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G326" s="12">
         <v>5</v>
       </c>
-      <c r="H325" s="3">
-        <v>1</v>
-      </c>
-      <c r="I325" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>689</v>
-      </c>
-      <c r="D326" t="s">
-        <v>697</v>
-      </c>
-      <c r="F326" s="6" t="s">
-        <v>701</v>
+      <c r="H326" s="4">
+        <v>1</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D327" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F328" s="7"/>
-      <c r="G328" s="10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>685</v>
+      </c>
+      <c r="D328" t="s">
+        <v>692</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F329" s="7"/>
+      <c r="G329" s="10">
         <v>30</v>
       </c>
-      <c r="H328" s="3">
-        <v>1</v>
-      </c>
-      <c r="I328" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>692</v>
-      </c>
-      <c r="D329" t="s">
-        <v>697</v>
-      </c>
-      <c r="F329" s="6" t="s">
-        <v>701</v>
+      <c r="H329" s="3">
+        <v>1</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="D330" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D331" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>471</v>
+        <v>709</v>
       </c>
       <c r="D332" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B333" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>468</v>
+      </c>
+      <c r="D333" t="s">
+        <v>706</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="F333" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G333" s="10">
+      <c r="D334" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G334" s="10">
         <v>7</v>
       </c>
-      <c r="H333" s="3">
-        <v>1</v>
-      </c>
-      <c r="I333" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>716</v>
-      </c>
-      <c r="D334" t="s">
-        <v>711</v>
-      </c>
-      <c r="F334" s="6" t="s">
-        <v>701</v>
+      <c r="H334" s="3">
+        <v>1</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D335" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D336" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D337" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>714</v>
+      </c>
+      <c r="D338" t="s">
+        <v>706</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>715</v>
+      </c>
+      <c r="D339" t="s">
+        <v>706</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F340" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="D338" t="s">
-        <v>711</v>
-      </c>
-      <c r="F338" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="F339" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="G339" s="10">
+      <c r="G340" s="10">
         <v>179</v>
       </c>
-      <c r="H339" s="3">
-        <v>1</v>
-      </c>
-      <c r="I339" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>722</v>
-      </c>
-      <c r="D340" t="s">
-        <v>711</v>
-      </c>
-      <c r="F340" s="6" t="s">
-        <v>701</v>
+      <c r="H340" s="3">
+        <v>1</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D341" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>718</v>
+      </c>
       <c r="D342" t="s">
-        <v>712</v>
+        <v>706</v>
+      </c>
+      <c r="F342" s="6" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>729</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -8151,7 +8399,7 @@
     <sortCondition ref="C2:C129"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B195" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
+    <hyperlink ref="B196" r:id="rId1" xr:uid="{86A33A3B-22B9-43A2-8CE0-011267E52D14}"/>
     <hyperlink ref="B36" r:id="rId2" xr:uid="{FB209BDA-41BD-45F8-A916-8086AFD4E4D1}"/>
     <hyperlink ref="B75" r:id="rId3" xr:uid="{698A0B63-529A-4336-92B6-5976A23AAC8F}"/>
     <hyperlink ref="B32" r:id="rId4" xr:uid="{E45E1430-16DD-43DA-A38A-1FD9044C4E4C}"/>
@@ -8183,7 +8431,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8653,17 +8901,17 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
@@ -8673,47 +8921,47 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -8723,222 +8971,222 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -8988,18 +9236,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9036,10 +9284,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C7">
         <v>3052544</v>
@@ -9069,10 +9317,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C10">
         <v>5374933</v>
@@ -9080,7 +9328,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9090,12 +9338,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9127,10 +9375,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18">
         <v>9073641</v>
@@ -9138,10 +9386,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C19">
         <v>3042888</v>
@@ -9152,7 +9400,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C20">
         <v>3042837</v>
@@ -9171,22 +9419,22 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9213,12 +9461,12 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,17 +9486,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9258,32 +9506,32 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9301,7 +9549,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9321,7 +9569,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9341,27 +9589,27 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9384,7 +9632,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9394,7 +9642,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9404,42 +9652,42 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -9469,12 +9717,12 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -9484,12 +9732,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -9499,22 +9747,22 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -9524,7 +9772,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -9544,7 +9792,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -9564,17 +9812,17 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -9589,12 +9837,12 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -9609,7 +9857,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -9619,7 +9867,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8D5F08-6BD5-4BF5-A473-2958FFD0FA54}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10671482-6DF1-46E1-B9C4-E189FED29D66}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="766">
   <si>
     <t>Species</t>
   </si>
@@ -1897,9 +1897,6 @@
     <t>https://doi.org/10.1038/s41588-019-0405-z</t>
   </si>
   <si>
-    <t>Found while looking for data on Arachis duranensis, not sure why it didn't come up during my search for Arachis hypogaea</t>
-  </si>
-  <si>
     <t>Maybe works, also contains A. ipaensis WGS data if needed</t>
   </si>
   <si>
@@ -2321,6 +2318,27 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.plantsci.2021.111019</t>
+  </si>
+  <si>
+    <t>WGS, but there might be more data in GBS datasets</t>
+  </si>
+  <si>
+    <t>Found while looking for data on Arachis duranensis, not sure why it didn't come up during my search for Arachis hypogaea, should check if there's more data in RAD-seq datasets</t>
+  </si>
+  <si>
+    <t>Species used of Ne estimation</t>
+  </si>
+  <si>
+    <t>Actinidia eriantha</t>
+  </si>
+  <si>
+    <t>Amaranthus hybridus</t>
+  </si>
+  <si>
+    <t>Amaranthus quitensis is another wild relative</t>
+  </si>
+  <si>
+    <t>Ananas comosus var. microstachys</t>
   </si>
 </sst>
 </file>
@@ -2713,23 +2731,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B305" workbookViewId="0">
-      <selection activeCell="H313" sqref="H313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="3" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2745,20 +2763,23 @@
       <c r="E1" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>255</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -2774,18 +2795,23 @@
       <c r="E2" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10">
+      <c r="F2" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="H2" s="10">
         <v>48</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>451</v>
       </c>
@@ -2795,23 +2821,23 @@
       <c r="D3" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -2827,29 +2853,32 @@
       <c r="E5" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10">
+      <c r="F5" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10">
         <v>87</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2865,18 +2894,21 @@
       <c r="E7" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10">
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10">
         <v>56</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,18 +2921,21 @@
       <c r="E8" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10">
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10">
         <v>142</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2910,11 +2945,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2930,99 +2965,102 @@
       <c r="E10" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10">
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10">
         <v>1135</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="G11" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="H11" s="12">
         <v>171</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -3035,31 +3073,31 @@
       <c r="D17" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>597</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
@@ -3073,20 +3111,21 @@
         <v>446</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="F19" s="15"/>
+      <c r="G19" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="H19" s="12">
         <v>467</v>
       </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -3096,11 +3135,11 @@
       <c r="C20" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -3113,20 +3152,20 @@
       <c r="D21" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>56</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3136,33 +3175,33 @@
       <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -3173,7 +3212,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -3186,20 +3225,20 @@
       <c r="D26" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>119</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -3212,31 +3251,31 @@
       <c r="D27" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>199</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -3249,20 +3288,20 @@
       <c r="D29" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>40</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3270,18 +3309,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3294,42 +3333,42 @@
       <c r="D32" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="G32" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="H32" s="12">
         <v>52</v>
       </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -3342,20 +3381,20 @@
       <c r="D35" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>296</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -3368,31 +3407,31 @@
       <c r="D36" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>3171</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -3405,79 +3444,79 @@
       <c r="D38" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>337</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="G42" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="H42" s="12">
         <v>115</v>
       </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3487,11 +3526,11 @@
       <c r="C43" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3501,22 +3540,22 @@
       <c r="C44" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
@@ -3529,75 +3568,75 @@
       <c r="D46" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <v>643</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -3610,20 +3649,20 @@
       <c r="D52" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>1674</v>
       </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -3636,14 +3675,14 @@
       <c r="D53" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -3656,14 +3695,14 @@
       <c r="D54" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -3673,11 +3712,11 @@
       <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>88</v>
       </c>
@@ -3693,18 +3732,19 @@
       <c r="E56" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="10">
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="10">
         <v>185</v>
       </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -3717,29 +3757,29 @@
       <c r="D57" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="10">
+      <c r="G57" s="7"/>
+      <c r="H57" s="10">
         <v>336</v>
       </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
@@ -3752,18 +3792,18 @@
       <c r="D59" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="10">
+      <c r="G59" s="7"/>
+      <c r="H59" s="10">
         <v>1081</v>
       </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3772,44 +3812,45 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
       <c r="C62" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>115</v>
       </c>
       <c r="C63" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
@@ -3822,20 +3863,20 @@
       <c r="D64" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <v>98</v>
       </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
@@ -3848,29 +3889,29 @@
       <c r="D65" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="10">
+      <c r="G65" s="7"/>
+      <c r="H65" s="10">
         <v>300</v>
       </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
@@ -3883,20 +3924,20 @@
       <c r="D67" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G67" s="10">
+      <c r="H67" s="10">
         <v>131</v>
       </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>89</v>
       </c>
@@ -3906,20 +3947,20 @@
       <c r="C68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <v>176</v>
       </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>90</v>
       </c>
@@ -3929,20 +3970,20 @@
       <c r="C69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G69" s="10">
+      <c r="H69" s="10">
         <v>17</v>
       </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>99</v>
       </c>
@@ -3955,20 +3996,20 @@
       <c r="D70" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <v>200</v>
       </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -3978,22 +4019,22 @@
       <c r="C71" t="s">
         <v>196</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -4006,31 +4047,31 @@
       <c r="D73" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G73" s="10">
+      <c r="H73" s="10">
         <v>136</v>
       </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
       <c r="C74" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -4043,31 +4084,31 @@
       <c r="D75" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G75" s="10">
+      <c r="H75" s="10">
         <v>44</v>
       </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>200</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
@@ -4080,20 +4121,20 @@
       <c r="D77" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="3">
+      <c r="H77" s="3">
         <v>39</v>
       </c>
-      <c r="H77" s="3">
-        <v>1</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -4103,11 +4144,11 @@
       <c r="C78" t="s">
         <v>250</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -4117,11 +4158,11 @@
       <c r="C79" t="s">
         <v>195</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
@@ -4134,46 +4175,46 @@
       <c r="D80" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="10">
+      <c r="H80" s="10">
         <v>38</v>
       </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G81" s="10">
+      <c r="H81" s="10">
         <v>2644</v>
       </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>122</v>
       </c>
@@ -4186,31 +4227,31 @@
       <c r="D82" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="G82" s="10">
+      <c r="H82" s="10">
         <v>48</v>
       </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
       <c r="C83" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -4223,20 +4264,20 @@
       <c r="D84" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G84" s="10">
+      <c r="H84" s="10">
         <v>52</v>
       </c>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -4247,7 +4288,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4257,11 +4298,11 @@
       <c r="C86" t="s">
         <v>136</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -4274,20 +4315,20 @@
       <c r="D87" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G87" s="11">
+      <c r="H87" s="11">
         <v>3024</v>
       </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="I87" s="3">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>133</v>
       </c>
@@ -4300,20 +4341,20 @@
       <c r="D88" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G88" s="10">
+      <c r="H88" s="10">
         <v>85</v>
       </c>
-      <c r="H88" s="3">
-        <v>1</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I88" s="3">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>130</v>
       </c>
@@ -4326,31 +4367,31 @@
       <c r="D89" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G89" s="10">
+      <c r="H89" s="10">
         <v>747</v>
       </c>
-      <c r="H89" s="3">
-        <v>1</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>49</v>
       </c>
@@ -4363,29 +4404,29 @@
       <c r="D91" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="10">
+      <c r="G91" s="7"/>
+      <c r="H91" s="10">
         <v>683</v>
       </c>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>51</v>
       </c>
@@ -4398,20 +4439,20 @@
       <c r="D93" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G93" s="10">
+      <c r="H93" s="10">
         <v>52</v>
       </c>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -4422,7 +4463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -4433,7 +4474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -4441,7 +4482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -4449,7 +4490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
@@ -4462,53 +4503,53 @@
       <c r="D98" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G98" s="10">
+      <c r="H98" s="10">
         <v>428</v>
       </c>
-      <c r="H98" s="3">
-        <v>1</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="C100" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>131</v>
       </c>
@@ -4521,20 +4562,20 @@
       <c r="D102" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G102" s="10">
+      <c r="H102" s="10">
         <v>909</v>
       </c>
-      <c r="H102" s="3">
-        <v>1</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>132</v>
       </c>
@@ -4547,20 +4588,20 @@
       <c r="D103" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G103" s="10">
+      <c r="H103" s="10">
         <v>38</v>
       </c>
-      <c r="H103" s="3">
-        <v>1</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -4568,18 +4609,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
         <v>217</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -4592,44 +4633,44 @@
       <c r="D106" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G106" s="10">
+      <c r="H106" s="10">
         <v>360</v>
       </c>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="G107" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="G108" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4639,11 +4680,11 @@
       <c r="C109" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4653,11 +4694,11 @@
       <c r="C110" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="G110" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>31</v>
       </c>
@@ -4670,20 +4711,20 @@
       <c r="D111" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="G111" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G111" s="12">
+      <c r="H111" s="12">
         <v>400</v>
       </c>
-      <c r="H111" s="4">
-        <v>1</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I111" s="4">
+        <v>1</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -4696,20 +4737,20 @@
       <c r="D112" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G112" s="10">
+      <c r="H112" s="10">
         <v>296</v>
       </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
@@ -4722,31 +4763,31 @@
       <c r="D113" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G113" s="10">
+      <c r="H113" s="10">
         <v>36</v>
       </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="3">
+        <v>1</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
       <c r="C114" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="G114" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
@@ -4759,46 +4800,46 @@
       <c r="D115" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G115" s="10">
+      <c r="H115" s="10">
         <v>768</v>
       </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G116" s="10">
+      <c r="H116" s="10">
         <v>672</v>
       </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="3">
+        <v>1</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
@@ -4811,20 +4852,20 @@
       <c r="D117" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="10">
+      <c r="H117" s="10">
         <v>786</v>
       </c>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>32</v>
       </c>
@@ -4837,42 +4878,42 @@
       <c r="D118" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G118" s="10">
+      <c r="H118" s="10">
         <v>114</v>
       </c>
-      <c r="H118" s="3">
-        <v>1</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>80</v>
       </c>
       <c r="C119" t="s">
         <v>136</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="G119" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>97</v>
       </c>
       <c r="C120" t="s">
         <v>136</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4880,7 +4921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>10</v>
       </c>
@@ -4893,20 +4934,20 @@
       <c r="D122" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G122" s="10">
+      <c r="H122" s="10">
         <v>117</v>
       </c>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4914,7 +4955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
@@ -4935,20 +4976,20 @@
       <c r="D125" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G125" s="10">
+      <c r="H125" s="10">
         <v>33</v>
       </c>
-      <c r="H125" s="3">
-        <v>1</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
@@ -4958,12 +4999,12 @@
       <c r="D126" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>9</v>
       </c>
@@ -4973,12 +5014,12 @@
       <c r="D127" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="10">
+      <c r="G127" s="7"/>
+      <c r="H127" s="10">
         <v>277</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>9</v>
       </c>
@@ -4988,23 +5029,23 @@
       <c r="D128" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="10">
+      <c r="G128" s="7"/>
+      <c r="H128" s="10">
         <v>599</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
       <c r="C129" t="s">
         <v>236</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>160</v>
       </c>
@@ -5017,18 +5058,18 @@
       <c r="D130" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="10">
+      <c r="G130" s="7"/>
+      <c r="H130" s="10">
         <v>306</v>
       </c>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="3">
+        <v>1</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -5038,37 +5079,40 @@
       <c r="C131" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G132" s="10">
+      <c r="F132" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="H132" s="10">
         <v>5</v>
       </c>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="3">
+        <v>1</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>310</v>
       </c>
@@ -5081,18 +5125,21 @@
       <c r="D133" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="10">
+      <c r="F133" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="10">
         <v>306</v>
       </c>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="3">
+        <v>1</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>313</v>
       </c>
@@ -5105,18 +5152,18 @@
       <c r="D134" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="10">
+      <c r="G134" s="7"/>
+      <c r="H134" s="10">
         <v>479</v>
       </c>
-      <c r="H134" s="3">
-        <v>1</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="3">
+        <v>1</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>314</v>
       </c>
@@ -5129,18 +5176,18 @@
       <c r="D135" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="10">
+      <c r="G135" s="7"/>
+      <c r="H135" s="10">
         <v>1007</v>
       </c>
-      <c r="H135" s="3">
-        <v>1</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>309</v>
       </c>
@@ -5153,46 +5200,46 @@
       <c r="D136" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="G136" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G136" s="12">
+      <c r="H136" s="12">
         <v>10</v>
       </c>
-      <c r="H136" s="4">
-        <v>1</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="G137" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G137" s="12">
+      <c r="H137" s="12">
         <v>5</v>
       </c>
-      <c r="H137" s="4">
-        <v>1</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>326</v>
       </c>
@@ -5205,43 +5252,43 @@
       <c r="D138" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="G138" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G138" s="12">
+      <c r="H138" s="12">
         <v>135</v>
       </c>
-      <c r="H138" s="4">
-        <v>1</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="4">
+        <v>1</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="G139" s="10">
+      <c r="H139" s="10">
         <v>8028</v>
       </c>
-      <c r="H139" s="3">
-        <v>1</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I139" s="3">
+        <v>1</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>330</v>
       </c>
@@ -5254,47 +5301,47 @@
       <c r="D140" t="s">
         <v>318</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="G140" s="9">
+      <c r="G140" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="H140" s="9">
         <v>7</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>333</v>
       </c>
       <c r="D141" t="s">
         <v>318</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="G141" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>334</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>336</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>340</v>
       </c>
@@ -5307,59 +5354,59 @@
       <c r="D144" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="G144" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G144" s="12">
+      <c r="H144" s="12">
         <v>34</v>
       </c>
-      <c r="H144" s="4">
-        <v>1</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="4">
+        <v>1</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>343</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="F146" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G146" s="10">
+      <c r="H146" s="10">
         <v>254</v>
       </c>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="3">
+        <v>1</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>98</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>347</v>
       </c>
@@ -5372,40 +5419,40 @@
       <c r="D148" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="10">
+      <c r="G148" s="7"/>
+      <c r="H148" s="10">
         <v>1175</v>
       </c>
-      <c r="H148" s="3">
-        <v>1</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="3">
+        <v>1</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>350</v>
       </c>
       <c r="D149" t="s">
         <v>318</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>352</v>
       </c>
       <c r="D150" t="s">
         <v>318</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="G150" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>355</v>
       </c>
@@ -5418,23 +5465,23 @@
       <c r="D151" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F151" s="7"/>
-      <c r="G151" s="10">
+      <c r="G151" s="7"/>
+      <c r="H151" s="10">
         <v>171</v>
       </c>
-      <c r="H151" s="3">
-        <v>1</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>590</v>
@@ -5442,53 +5489,53 @@
       <c r="D152" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F152" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="G152" s="10">
+      <c r="G152" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H152" s="10">
         <v>86</v>
       </c>
-      <c r="H152" s="3">
-        <v>1</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="3">
+        <v>1</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>357</v>
       </c>
       <c r="D153" t="s">
         <v>318</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="G153" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>358</v>
       </c>
       <c r="D154" t="s">
         <v>318</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="G154" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>359</v>
       </c>
       <c r="D155" t="s">
         <v>318</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>361</v>
       </c>
@@ -5498,36 +5545,36 @@
       <c r="D156" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F156" s="13" t="s">
+      <c r="G156" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="G156" s="12">
+      <c r="H156" s="12">
         <v>14</v>
       </c>
-      <c r="H156" s="4">
-        <v>1</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="4">
+        <v>1</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>363</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="G157" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>364</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="G158" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>366</v>
       </c>
@@ -5540,40 +5587,40 @@
       <c r="D159" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="10">
+      <c r="G159" s="7"/>
+      <c r="H159" s="10">
         <v>550</v>
       </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I159" s="3">
+        <v>1</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>369</v>
       </c>
       <c r="D160" t="s">
         <v>318</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="G160" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>370</v>
       </c>
       <c r="D161" t="s">
         <v>318</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>371</v>
       </c>
@@ -5586,34 +5633,34 @@
       <c r="D162" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="10">
+      <c r="G162" s="7"/>
+      <c r="H162" s="10">
         <v>55</v>
       </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="3">
+        <v>1</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>374</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>375</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>376</v>
       </c>
@@ -5626,18 +5673,18 @@
       <c r="D165" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F165" s="7"/>
-      <c r="G165" s="10">
+      <c r="G165" s="7"/>
+      <c r="H165" s="10">
         <v>86</v>
       </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I165" s="3">
+        <v>1</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>376</v>
       </c>
@@ -5650,11 +5697,11 @@
       <c r="D166" t="s">
         <v>318</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>380</v>
       </c>
@@ -5664,20 +5711,20 @@
       <c r="D167" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="G167" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="G167" s="12">
+      <c r="H167" s="12">
         <v>16</v>
       </c>
-      <c r="H167" s="4">
-        <v>1</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="4">
+        <v>1</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>383</v>
       </c>
@@ -5687,18 +5734,18 @@
       <c r="C168" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="10">
+      <c r="G168" s="7"/>
+      <c r="H168" s="10">
         <v>163</v>
       </c>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I168" s="3">
+        <v>1</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>387</v>
       </c>
@@ -5708,20 +5755,20 @@
       <c r="D169" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F169" s="13" t="s">
+      <c r="G169" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G169" s="12">
+      <c r="H169" s="12">
         <v>21</v>
       </c>
-      <c r="H169" s="4">
-        <v>1</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I169" s="4">
+        <v>1</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>388</v>
       </c>
@@ -5731,20 +5778,20 @@
       <c r="D170" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F170" s="13" t="s">
+      <c r="G170" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G170" s="12">
+      <c r="H170" s="12">
         <v>18</v>
       </c>
-      <c r="H170" s="4">
-        <v>1</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I170" s="4">
+        <v>1</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>391</v>
       </c>
@@ -5754,31 +5801,31 @@
       <c r="D171" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F171" s="13" t="s">
+      <c r="G171" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G171" s="12">
+      <c r="H171" s="12">
         <v>19</v>
       </c>
-      <c r="H171" s="4">
-        <v>1</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I171" s="4">
+        <v>1</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>392</v>
       </c>
       <c r="D172" t="s">
         <v>318</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="G172" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>394</v>
       </c>
@@ -5788,20 +5835,20 @@
       <c r="D173" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F173" s="13" t="s">
+      <c r="G173" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G173" s="12">
+      <c r="H173" s="12">
         <v>10</v>
       </c>
-      <c r="H173" s="4">
-        <v>1</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I173" s="4">
+        <v>1</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>398</v>
       </c>
@@ -5814,67 +5861,67 @@
       <c r="D174" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G174" s="10">
+      <c r="H174" s="10">
         <v>445</v>
       </c>
-      <c r="H174" s="3">
-        <v>1</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I174" s="3">
+        <v>1</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>401</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="G175" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="F176" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G176" s="10">
+      <c r="H176" s="10">
         <v>91</v>
       </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I176" s="3">
+        <v>1</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>404</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="G177" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>406</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="G178" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>407</v>
       </c>
@@ -5884,20 +5931,20 @@
       <c r="D179" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="G179" s="10">
+      <c r="H179" s="10">
         <v>27</v>
       </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I179" s="3">
+        <v>1</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>410</v>
       </c>
@@ -5910,31 +5957,31 @@
       <c r="D180" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="G180" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G180" s="10">
+      <c r="H180" s="10">
         <v>299</v>
       </c>
-      <c r="H180" s="3">
-        <v>1</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I180" s="3">
+        <v>1</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>414</v>
       </c>
       <c r="C181" t="s">
         <v>415</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="G181" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>418</v>
       </c>
@@ -5944,52 +5991,52 @@
       <c r="D182" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="G182" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G182" s="10">
+      <c r="H182" s="10">
         <v>160</v>
       </c>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I182" s="3">
+        <v>1</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>420</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>421</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>422</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="G185" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>424</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="G186" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>426</v>
       </c>
@@ -6002,70 +6049,70 @@
       <c r="D187" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="G187" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G187" s="10">
+      <c r="H187" s="10">
         <v>705</v>
       </c>
-      <c r="H187" s="3">
-        <v>1</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I187" s="3">
+        <v>1</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F188" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="G188" s="10">
+      <c r="H188" s="10">
         <v>109</v>
       </c>
-      <c r="H188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I188" s="3">
+        <v>1</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>431</v>
       </c>
       <c r="C189" t="s">
         <v>432</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="G189" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>434</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="G190" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>435</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="G191" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>438</v>
       </c>
@@ -6075,40 +6122,40 @@
       <c r="C192" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F192" s="7"/>
-      <c r="G192" s="10">
+      <c r="G192" s="7"/>
+      <c r="H192" s="10">
         <v>558</v>
       </c>
-      <c r="H192" s="3">
-        <v>1</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I192" s="3">
+        <v>1</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>97</v>
       </c>
       <c r="C193" t="s">
         <v>439</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="G193" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>97</v>
       </c>
       <c r="B194" t="s">
         <v>441</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="G194" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>97</v>
       </c>
@@ -6118,20 +6165,20 @@
       <c r="C195" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="G195" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="G195" s="10">
+      <c r="H195" s="10">
         <v>37</v>
       </c>
-      <c r="H195" s="3">
-        <v>1</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="3">
+        <v>1</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -6141,22 +6188,22 @@
       <c r="C196" t="s">
         <v>166</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="G196" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>168</v>
       </c>
       <c r="B197" t="s">
         <v>167</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="G197" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>242</v>
       </c>
@@ -6169,100 +6216,100 @@
       <c r="D198" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F198" s="7"/>
-      <c r="G198" s="10">
+      <c r="G198" s="7"/>
+      <c r="H198" s="10">
         <v>157</v>
       </c>
-      <c r="H198" s="3">
-        <v>1</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="3">
+        <v>1</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>242</v>
       </c>
       <c r="B199" t="s">
         <v>243</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="G199" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>261</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="G200" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>262</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="G201" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
       <c r="C202" t="s">
         <v>40</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="G202" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>457</v>
       </c>
       <c r="D203" t="s">
         <v>456</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="G203" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>458</v>
       </c>
       <c r="D204" t="s">
         <v>456</v>
       </c>
-      <c r="F204" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>459</v>
       </c>
       <c r="D205" t="s">
         <v>456</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="G205" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>460</v>
       </c>
       <c r="D206" t="s">
         <v>456</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="G206" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>461</v>
       </c>
@@ -6275,18 +6322,21 @@
       <c r="D207" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="10">
+      <c r="F207" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G207" s="7"/>
+      <c r="H207" s="10">
         <v>12</v>
       </c>
-      <c r="H207" s="3">
-        <v>1</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I207" s="3">
+        <v>1</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>462</v>
       </c>
@@ -6299,12 +6349,12 @@
       <c r="D208" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="G208" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G208" s="10"/>
-    </row>
-    <row r="209" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H208" s="10"/>
+    </row>
+    <row r="209" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>463</v>
       </c>
@@ -6317,20 +6367,20 @@
       <c r="D209" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F209" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G209" s="10">
+      <c r="G209" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H209" s="10">
         <v>5</v>
       </c>
-      <c r="H209" s="3">
-        <v>1</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I209" s="3">
+        <v>1</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>464</v>
       </c>
@@ -6343,42 +6393,42 @@
       <c r="D210" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="G210" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G210" s="10">
+      <c r="H210" s="10">
         <v>3</v>
       </c>
-      <c r="H210" s="3">
-        <v>1</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="3">
+        <v>1</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>465</v>
       </c>
       <c r="D211" t="s">
         <v>456</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="G211" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>466</v>
       </c>
       <c r="D212" t="s">
         <v>456</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="G212" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>467</v>
       </c>
@@ -6391,29 +6441,29 @@
       <c r="D213" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F213" s="7"/>
-      <c r="G213" s="10">
+      <c r="G213" s="7"/>
+      <c r="H213" s="10">
         <v>146</v>
       </c>
-      <c r="H213" s="3">
-        <v>1</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I213" s="3">
+        <v>1</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>468</v>
       </c>
       <c r="D214" t="s">
         <v>456</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="G214" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>469</v>
       </c>
@@ -6426,118 +6476,118 @@
       <c r="D215" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F215" s="7"/>
-      <c r="G215" s="10">
+      <c r="G215" s="7"/>
+      <c r="H215" s="10">
         <v>97</v>
       </c>
-      <c r="H215" s="3">
-        <v>1</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I215" s="3">
+        <v>1</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="G216" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G216" s="10">
+      <c r="H216" s="10">
         <v>292</v>
       </c>
-      <c r="H216" s="3">
-        <v>1</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="I216" s="3">
+        <v>1</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G217" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G217" s="10">
+      <c r="H217" s="10">
         <v>127</v>
       </c>
-      <c r="H217" s="3">
-        <v>1</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="3">
+        <v>1</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>472</v>
       </c>
       <c r="D218" t="s">
         <v>456</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="G218" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="G219" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G219" s="10">
+      <c r="H219" s="10">
         <v>565</v>
       </c>
-      <c r="H219" s="3">
-        <v>1</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I219" s="3">
+        <v>1</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>474</v>
       </c>
       <c r="D220" t="s">
         <v>456</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G220" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>475</v>
       </c>
@@ -6547,64 +6597,64 @@
       <c r="D221" t="s">
         <v>456</v>
       </c>
-      <c r="F221" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G221" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="D222" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="G222" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G222" s="10">
+      <c r="H222" s="10">
         <v>90</v>
       </c>
-      <c r="H222" s="3">
-        <v>1</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I222" s="3">
+        <v>1</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>477</v>
       </c>
       <c r="D223" t="s">
         <v>456</v>
       </c>
-      <c r="F223" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G223" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>478</v>
       </c>
       <c r="D224" t="s">
         <v>456</v>
       </c>
-      <c r="F224" s="6" t="s">
+      <c r="G224" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>587</v>
@@ -6612,20 +6662,20 @@
       <c r="D225" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="G225" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="G225" s="10">
+      <c r="H225" s="10">
         <v>186</v>
       </c>
-      <c r="H225" s="3">
-        <v>1</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I225" s="3">
+        <v>1</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>480</v>
       </c>
@@ -6635,103 +6685,103 @@
       <c r="D226" t="s">
         <v>456</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="G226" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>481</v>
       </c>
       <c r="D227" t="s">
         <v>456</v>
       </c>
-      <c r="F227" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="G228" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G228" s="10">
+      <c r="H228" s="10">
         <v>8</v>
       </c>
-      <c r="H228" s="3">
-        <v>1</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I228" s="3">
+        <v>1</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>483</v>
       </c>
       <c r="D229" t="s">
         <v>456</v>
       </c>
-      <c r="F229" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>484</v>
       </c>
       <c r="D230" t="s">
         <v>456</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="G230" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>485</v>
       </c>
       <c r="D231" t="s">
         <v>456</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="G231" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>486</v>
       </c>
       <c r="D232" t="s">
         <v>456</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="G232" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>487</v>
       </c>
       <c r="D233" t="s">
         <v>456</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="G233" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>488</v>
       </c>
@@ -6741,97 +6791,97 @@
       <c r="D234" t="s">
         <v>456</v>
       </c>
-      <c r="F234" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G234" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>489</v>
       </c>
       <c r="D235" t="s">
         <v>456</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="G235" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="G236" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G236" s="10">
+      <c r="H236" s="10">
         <v>32</v>
       </c>
-      <c r="H236" s="3">
-        <v>1</v>
-      </c>
-      <c r="I236" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I236" s="3">
+        <v>1</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="G237" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G237" s="10">
+      <c r="H237" s="10">
         <v>72</v>
       </c>
-      <c r="H237" s="3">
-        <v>1</v>
-      </c>
-      <c r="I237" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I237" s="3">
+        <v>1</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>492</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="G238" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G238" s="10">
+      <c r="H238" s="10">
         <v>88</v>
       </c>
-      <c r="H238" s="3">
-        <v>1</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I238" s="3">
+        <v>1</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>493</v>
       </c>
@@ -6844,294 +6894,294 @@
       <c r="D239" t="s">
         <v>456</v>
       </c>
-      <c r="F239" s="6" t="s">
+      <c r="G239" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>494</v>
       </c>
       <c r="D240" t="s">
         <v>456</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="G240" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>495</v>
       </c>
       <c r="D241" t="s">
         <v>456</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="G241" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>496</v>
       </c>
       <c r="D242" t="s">
         <v>456</v>
       </c>
-      <c r="F242" s="6" t="s">
+      <c r="G242" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="D243" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="G243" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G243" s="10">
+      <c r="H243" s="10">
         <v>228</v>
       </c>
-      <c r="H243" s="3">
-        <v>1</v>
-      </c>
-      <c r="I243" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="3">
+        <v>1</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>498</v>
       </c>
       <c r="D244" t="s">
         <v>456</v>
       </c>
-      <c r="F244" s="6" t="s">
+      <c r="G244" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>499</v>
       </c>
       <c r="D245" t="s">
         <v>456</v>
       </c>
-      <c r="F245" s="6" t="s">
+      <c r="G245" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>500</v>
       </c>
       <c r="D246" t="s">
         <v>456</v>
       </c>
-      <c r="F246" s="6" t="s">
+      <c r="G246" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>501</v>
       </c>
       <c r="D247" t="s">
         <v>456</v>
       </c>
-      <c r="F247" s="6" t="s">
+      <c r="G247" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>502</v>
       </c>
       <c r="D248" t="s">
         <v>456</v>
       </c>
-      <c r="F248" s="6" t="s">
+      <c r="G248" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>503</v>
       </c>
       <c r="D249" t="s">
         <v>456</v>
       </c>
-      <c r="F249" s="6" t="s">
+      <c r="G249" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>504</v>
       </c>
       <c r="D250" t="s">
         <v>456</v>
       </c>
-      <c r="F250" s="6" t="s">
+      <c r="G250" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>505</v>
       </c>
       <c r="D251" t="s">
         <v>456</v>
       </c>
-      <c r="F251" s="6" t="s">
+      <c r="G251" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>506</v>
       </c>
       <c r="D252" t="s">
         <v>456</v>
       </c>
-      <c r="F252" s="6" t="s">
+      <c r="G252" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>507</v>
       </c>
       <c r="D253" t="s">
         <v>456</v>
       </c>
-      <c r="F253" s="6" t="s">
+      <c r="G253" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>508</v>
       </c>
       <c r="D254" t="s">
         <v>456</v>
       </c>
-      <c r="F254" s="6" t="s">
+      <c r="G254" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="G255" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G255" s="10">
+      <c r="H255" s="10">
         <v>50</v>
       </c>
-      <c r="H255" s="3">
-        <v>1</v>
-      </c>
-      <c r="I255" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I255" s="3">
+        <v>1</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>510</v>
       </c>
       <c r="D256" t="s">
         <v>456</v>
       </c>
-      <c r="F256" s="6" t="s">
+      <c r="G256" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>511</v>
       </c>
       <c r="D257" t="s">
         <v>456</v>
       </c>
-      <c r="F257" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G257" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>512</v>
       </c>
       <c r="D258" t="s">
         <v>456</v>
       </c>
-      <c r="F258" s="6" t="s">
+      <c r="G258" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>513</v>
       </c>
       <c r="D259" t="s">
         <v>456</v>
       </c>
-      <c r="F259" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G259" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>514</v>
       </c>
       <c r="D260" t="s">
         <v>456</v>
       </c>
-      <c r="F260" s="6" t="s">
+      <c r="G260" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>515</v>
       </c>
       <c r="D261" t="s">
         <v>456</v>
       </c>
-      <c r="F261" s="6" t="s">
+      <c r="G261" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>516</v>
       </c>
       <c r="D262" t="s">
         <v>456</v>
       </c>
-      <c r="F262" s="6" t="s">
+      <c r="G262" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>517</v>
       </c>
@@ -7144,18 +7194,18 @@
       <c r="D263" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F263" s="7"/>
-      <c r="G263" s="10">
+      <c r="G263" s="7"/>
+      <c r="H263" s="10">
         <v>208</v>
       </c>
-      <c r="H263" s="3">
-        <v>1</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I263" s="3">
+        <v>1</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>518</v>
       </c>
@@ -7168,20 +7218,20 @@
       <c r="D264" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="G264" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G264" s="10">
+      <c r="H264" s="10">
         <v>86</v>
       </c>
-      <c r="H264" s="3">
-        <v>1</v>
-      </c>
-      <c r="I264" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I264" s="3">
+        <v>1</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>519</v>
       </c>
@@ -7194,337 +7244,337 @@
       <c r="D265" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F265" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G265" s="10">
+      <c r="G265" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H265" s="10">
         <v>10</v>
       </c>
-      <c r="H265" s="3">
-        <v>1</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I265" s="3">
+        <v>1</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F266" s="7" t="s">
+      <c r="G266" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G266" s="10">
+      <c r="H266" s="10">
         <v>49</v>
       </c>
-      <c r="H266" s="3">
-        <v>1</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="3">
+        <v>1</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>521</v>
       </c>
       <c r="D267" t="s">
         <v>456</v>
       </c>
-      <c r="F267" s="6" t="s">
+      <c r="G267" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>522</v>
       </c>
       <c r="D268" t="s">
         <v>456</v>
       </c>
-      <c r="F268" s="6" t="s">
+      <c r="G268" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>523</v>
       </c>
       <c r="D269" t="s">
         <v>456</v>
       </c>
-      <c r="F269" s="6" t="s">
+      <c r="G269" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>524</v>
       </c>
       <c r="C270" t="s">
+        <v>753</v>
+      </c>
+      <c r="D270" t="s">
+        <v>456</v>
+      </c>
+      <c r="G270" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D270" t="s">
-        <v>456</v>
-      </c>
-      <c r="F270" s="6" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>525</v>
       </c>
       <c r="C271" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G271" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="D271" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="G271" s="10">
+      <c r="H271" s="10">
         <v>181</v>
       </c>
-      <c r="H271" s="3">
-        <v>1</v>
-      </c>
-      <c r="I271" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I271" s="3">
+        <v>1</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>526</v>
       </c>
       <c r="D272" t="s">
         <v>456</v>
       </c>
-      <c r="F272" s="6" t="s">
+      <c r="G272" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>527</v>
       </c>
       <c r="D273" t="s">
         <v>456</v>
       </c>
-      <c r="F273" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G273" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="G274" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G274" s="10">
+      <c r="H274" s="10">
         <v>67</v>
       </c>
-      <c r="H274" s="3">
-        <v>1</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="3">
+        <v>1</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>529</v>
       </c>
       <c r="D275" t="s">
         <v>456</v>
       </c>
-      <c r="F275" s="6" t="s">
+      <c r="G275" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>530</v>
       </c>
       <c r="D276" t="s">
         <v>456</v>
       </c>
-      <c r="F276" s="6" t="s">
+      <c r="G276" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>531</v>
       </c>
       <c r="D277" t="s">
         <v>456</v>
       </c>
-      <c r="F277" s="6" t="s">
+      <c r="G277" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>532</v>
       </c>
       <c r="D278" t="s">
         <v>456</v>
       </c>
-      <c r="F278" s="6" t="s">
+      <c r="G278" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>533</v>
       </c>
       <c r="D279" t="s">
         <v>456</v>
       </c>
-      <c r="F279" s="6" t="s">
+      <c r="G279" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>534</v>
       </c>
       <c r="D280" t="s">
         <v>456</v>
       </c>
-      <c r="F280" s="6" t="s">
+      <c r="G280" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>535</v>
       </c>
       <c r="D281" t="s">
         <v>456</v>
       </c>
-      <c r="F281" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G281" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>536</v>
       </c>
       <c r="D282" t="s">
         <v>456</v>
       </c>
-      <c r="F282" s="6" t="s">
+      <c r="G282" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="G283" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G283" s="10">
+      <c r="H283" s="10">
         <v>95</v>
       </c>
-      <c r="H283" s="3">
-        <v>1</v>
-      </c>
-      <c r="I283" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I283" s="3">
+        <v>1</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>538</v>
       </c>
       <c r="D284" t="s">
         <v>456</v>
       </c>
-      <c r="F284" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G284" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>539</v>
       </c>
       <c r="D285" t="s">
         <v>456</v>
       </c>
-      <c r="F285" s="6" t="s">
+      <c r="G285" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>540</v>
       </c>
       <c r="D286" t="s">
         <v>456</v>
       </c>
-      <c r="F286" s="6" t="s">
+      <c r="G286" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="G287" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G287" s="10">
+      <c r="H287" s="10">
         <v>359</v>
       </c>
-      <c r="H287" s="3">
-        <v>1</v>
-      </c>
-      <c r="I287" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I287" s="3">
+        <v>1</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>542</v>
       </c>
@@ -7534,64 +7584,64 @@
       <c r="D288" t="s">
         <v>456</v>
       </c>
-      <c r="F288" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G288" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>543</v>
       </c>
       <c r="D289" t="s">
         <v>456</v>
       </c>
-      <c r="F289" s="6" t="s">
+      <c r="G289" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F290" s="7" t="s">
+      <c r="G290" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G290" s="10">
+      <c r="H290" s="10">
         <v>447</v>
       </c>
-      <c r="H290" s="3">
-        <v>1</v>
-      </c>
-      <c r="I290" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I290" s="3">
+        <v>1</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>545</v>
       </c>
       <c r="D291" t="s">
         <v>456</v>
       </c>
-      <c r="F291" s="6" t="s">
+      <c r="G291" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>598</v>
@@ -7599,183 +7649,183 @@
       <c r="D292" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="G292" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G292" s="10">
+      <c r="H292" s="10">
         <v>32</v>
       </c>
-      <c r="H292" s="3">
-        <v>1</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="3">
+        <v>1</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>547</v>
       </c>
       <c r="D293" t="s">
         <v>456</v>
       </c>
-      <c r="F293" s="6" t="s">
+      <c r="G293" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="G294" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G294" s="10"/>
-      <c r="H294" s="3">
-        <v>1</v>
-      </c>
-      <c r="I294" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H294" s="10"/>
+      <c r="I294" s="3">
+        <v>1</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>549</v>
       </c>
       <c r="D295" t="s">
         <v>456</v>
       </c>
-      <c r="F295" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G295" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>550</v>
       </c>
       <c r="D296" t="s">
         <v>456</v>
       </c>
-      <c r="F296" s="6" t="s">
+      <c r="G296" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>551</v>
       </c>
       <c r="D297" t="s">
         <v>456</v>
       </c>
-      <c r="F297" s="6" t="s">
+      <c r="G297" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>552</v>
       </c>
       <c r="D298" t="s">
         <v>456</v>
       </c>
-      <c r="F298" s="6" t="s">
+      <c r="G298" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>553</v>
       </c>
       <c r="D299" t="s">
         <v>456</v>
       </c>
-      <c r="F299" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G299" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>554</v>
       </c>
       <c r="D300" t="s">
         <v>456</v>
       </c>
-      <c r="F300" s="6" t="s">
+      <c r="G300" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>555</v>
       </c>
       <c r="D301" t="s">
         <v>456</v>
       </c>
-      <c r="F301" s="6" t="s">
+      <c r="G301" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>556</v>
       </c>
       <c r="D302" t="s">
         <v>456</v>
       </c>
-      <c r="F302" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F303" s="7" t="s">
+      <c r="G303" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G303" s="10"/>
-      <c r="H303" s="3">
-        <v>1</v>
-      </c>
-      <c r="I303" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H303" s="10"/>
+      <c r="I303" s="3">
+        <v>1</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>558</v>
       </c>
       <c r="D304" t="s">
         <v>456</v>
       </c>
-      <c r="F304" s="6" t="s">
+      <c r="G304" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>600</v>
@@ -7783,56 +7833,56 @@
       <c r="D305" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F305" s="7" t="s">
+      <c r="G305" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G305" s="10"/>
-      <c r="H305" s="3">
-        <v>1</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H305" s="10"/>
+      <c r="I305" s="3">
+        <v>1</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>560</v>
       </c>
       <c r="D306" t="s">
         <v>456</v>
       </c>
-      <c r="F306" s="6" t="s">
+      <c r="G306" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>561</v>
       </c>
       <c r="D307" t="s">
         <v>456</v>
       </c>
-      <c r="F307" s="6" t="s">
+      <c r="G307" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>562</v>
       </c>
       <c r="D308" t="s">
         <v>456</v>
       </c>
-      <c r="F308" s="6" t="s">
+      <c r="G308" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>602</v>
@@ -7840,18 +7890,18 @@
       <c r="D309" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F309" s="7" t="s">
+      <c r="G309" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G309" s="10"/>
-      <c r="H309" s="3">
-        <v>1</v>
-      </c>
-      <c r="I309" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H309" s="10"/>
+      <c r="I309" s="3">
+        <v>1</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>564</v>
       </c>
@@ -7861,77 +7911,77 @@
       <c r="D310" t="s">
         <v>456</v>
       </c>
-      <c r="F310" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G310" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F311" s="7" t="s">
+      <c r="G311" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G311" s="10"/>
-      <c r="H311" s="3">
-        <v>1</v>
-      </c>
-      <c r="I311" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H311" s="10"/>
+      <c r="I311" s="3">
+        <v>1</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>566</v>
       </c>
       <c r="D312" t="s">
         <v>456</v>
       </c>
-      <c r="F312" s="6" t="s">
+      <c r="G312" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F313" s="7" t="s">
+      <c r="G313" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="G313" s="10">
+      <c r="H313" s="10">
         <v>133</v>
       </c>
-      <c r="H313" s="3">
-        <v>1</v>
-      </c>
-      <c r="I313" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I313" s="3">
+        <v>1</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>605</v>
@@ -7939,324 +7989,324 @@
       <c r="D314" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F314" s="7" t="s">
+      <c r="G314" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G314" s="10"/>
-    </row>
-    <row r="315" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H314" s="10"/>
+    </row>
+    <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>568</v>
       </c>
       <c r="D315" t="s">
         <v>456</v>
       </c>
-      <c r="F315" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F316" s="7" t="s">
+      <c r="G316" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G316" s="10">
+      <c r="H316" s="10">
         <v>119</v>
       </c>
-      <c r="H316" s="3">
-        <v>1</v>
-      </c>
-      <c r="I316" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I316" s="3">
+        <v>1</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>570</v>
       </c>
       <c r="D317" t="s">
         <v>456</v>
       </c>
-      <c r="F317" s="6" t="s">
+      <c r="G317" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F318" s="7" t="s">
+      <c r="G318" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="G318" s="10">
+      <c r="H318" s="10">
         <v>821</v>
       </c>
-      <c r="H318" s="3">
-        <v>1</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I318" s="3">
+        <v>1</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F319" s="7" t="s">
+      <c r="G319" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G319" s="10"/>
-      <c r="H319" s="3">
-        <v>1</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H319" s="10"/>
+      <c r="I319" s="3">
+        <v>1</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="H320" s="10">
+        <v>15</v>
+      </c>
+      <c r="I320" s="3">
+        <v>1</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>678</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C320" s="3" t="s">
+      <c r="D321" t="s">
+        <v>691</v>
+      </c>
+      <c r="G321" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="F320" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="G320" s="10">
-        <v>15</v>
-      </c>
-      <c r="H320" s="3">
-        <v>1</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    </row>
+    <row r="322" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D321" t="s">
-        <v>692</v>
-      </c>
-      <c r="F321" s="6" t="s">
+      <c r="B322" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C322" s="4" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3" t="s">
+      <c r="D322" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G322" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="H322" s="12">
+        <v>14</v>
+      </c>
+      <c r="I322" s="4">
+        <v>1</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>680</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="F322" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G322" s="10">
-        <v>14</v>
-      </c>
-      <c r="H322" s="3">
-        <v>1</v>
-      </c>
-      <c r="I322" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>681</v>
-      </c>
       <c r="D323" t="s">
-        <v>692</v>
-      </c>
-      <c r="F323" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>375</v>
       </c>
       <c r="D324" t="s">
-        <v>692</v>
-      </c>
-      <c r="F324" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>681</v>
+      </c>
+      <c r="D325" t="s">
+        <v>691</v>
+      </c>
+      <c r="G325" s="6" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="326" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D325" t="s">
-        <v>692</v>
-      </c>
-      <c r="F325" s="6" t="s">
+      <c r="B326" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
+      <c r="D326" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G326" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="H326" s="12">
+        <v>5</v>
+      </c>
+      <c r="I326" s="4">
+        <v>1</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>683</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="F326" s="13" t="s">
+      <c r="D327" t="s">
+        <v>691</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>684</v>
+      </c>
+      <c r="D328" t="s">
+        <v>691</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="G326" s="12">
-        <v>5</v>
-      </c>
-      <c r="H326" s="4">
-        <v>1</v>
-      </c>
-      <c r="I326" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>684</v>
-      </c>
-      <c r="D327" t="s">
-        <v>692</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>685</v>
-      </c>
-      <c r="D328" t="s">
-        <v>692</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="D329" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G329" s="7"/>
+      <c r="H329" s="10">
+        <v>30</v>
+      </c>
+      <c r="I329" s="3">
+        <v>1</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>686</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="D330" t="s">
+        <v>691</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>707</v>
+      </c>
+      <c r="D331" t="s">
         <v>705</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="F329" s="7"/>
-      <c r="G329" s="10">
-        <v>30</v>
-      </c>
-      <c r="H329" s="3">
-        <v>1</v>
-      </c>
-      <c r="I329" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>687</v>
-      </c>
-      <c r="D330" t="s">
-        <v>692</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="G331" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>708</v>
       </c>
-      <c r="D331" t="s">
-        <v>706</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>709</v>
-      </c>
       <c r="D332" t="s">
-        <v>706</v>
-      </c>
-      <c r="F332" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>468</v>
       </c>
       <c r="D333" t="s">
-        <v>706</v>
-      </c>
-      <c r="F333" s="6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>315</v>
@@ -8265,136 +8315,136 @@
         <v>316</v>
       </c>
       <c r="D334" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G334" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H334" s="10">
+        <v>7</v>
+      </c>
+      <c r="I334" s="3">
+        <v>1</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>710</v>
+      </c>
+      <c r="D335" t="s">
+        <v>705</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>711</v>
+      </c>
+      <c r="D336" t="s">
+        <v>705</v>
+      </c>
+      <c r="G336" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>712</v>
+      </c>
+      <c r="D337" t="s">
+        <v>705</v>
+      </c>
+      <c r="G337" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>713</v>
+      </c>
+      <c r="D338" t="s">
+        <v>705</v>
+      </c>
+      <c r="G338" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>714</v>
+      </c>
+      <c r="D339" t="s">
+        <v>705</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G340" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="H340" s="10">
+        <v>179</v>
+      </c>
+      <c r="I340" s="3">
+        <v>1</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>716</v>
+      </c>
+      <c r="D341" t="s">
+        <v>705</v>
+      </c>
+      <c r="G341" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>717</v>
+      </c>
+      <c r="D342" t="s">
+        <v>705</v>
+      </c>
+      <c r="G342" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
         <v>706</v>
       </c>
-      <c r="F334" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="G334" s="10">
-        <v>7</v>
-      </c>
-      <c r="H334" s="3">
-        <v>1</v>
-      </c>
-      <c r="I334" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>711</v>
-      </c>
-      <c r="D335" t="s">
-        <v>706</v>
-      </c>
-      <c r="F335" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>712</v>
-      </c>
-      <c r="D336" t="s">
-        <v>706</v>
-      </c>
-      <c r="F336" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>713</v>
-      </c>
-      <c r="D337" t="s">
-        <v>706</v>
-      </c>
-      <c r="F337" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>714</v>
-      </c>
-      <c r="D338" t="s">
-        <v>706</v>
-      </c>
-      <c r="F338" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>715</v>
-      </c>
-      <c r="D339" t="s">
-        <v>706</v>
-      </c>
-      <c r="F339" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B340" s="3" t="s">
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
         <v>723</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F340" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="G340" s="10">
-        <v>179</v>
-      </c>
-      <c r="H340" s="3">
-        <v>1</v>
-      </c>
-      <c r="I340" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>717</v>
-      </c>
-      <c r="D341" t="s">
-        <v>706</v>
-      </c>
-      <c r="F341" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>718</v>
-      </c>
-      <c r="D342" t="s">
-        <v>706</v>
-      </c>
-      <c r="F342" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D344" t="s">
-        <v>724</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G129">
     <sortCondition ref="A2:A129"/>
     <sortCondition ref="C2:C129"/>
   </sortState>
@@ -9236,13 +9286,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" t="s">
         <v>676</v>
       </c>
-      <c r="B1" t="s">
-        <v>677</v>
-      </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9320,7 +9370,7 @@
         <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C10">
         <v>5374933</v>
@@ -9389,7 +9439,7 @@
         <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C19">
         <v>3042888</v>
@@ -9400,7 +9450,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C20">
         <v>3042837</v>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_3_13/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10671482-6DF1-46E1-B9C4-E189FED29D66}"/>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_3_13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10671482-6DF1-46E1-B9C4-E189FED29D66}"/>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
+++ b/doc/2022-10-04_allPlantPolymorphisms_bioprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopco2lop1/RemoteFiles/131816_2_14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d159467a54f2bd9d/DOCUME^F1/MobaXterm/slash/miles_desktopcki7fh5/RemoteFiles/1116386_2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10671482-6DF1-46E1-B9C4-E189FED29D66}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{6845A9D8-AAB2-4289-A714-5808F1106EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0B65AB-8D7A-4ECD-8648-864058569A3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on datasets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="767">
   <si>
     <t>Species</t>
   </si>
@@ -2339,6 +2339,9 @@
   </si>
   <si>
     <t>Ananas comosus var. microstachys</t>
+  </si>
+  <si>
+    <t>Beta vulgaris subsp. maritima</t>
   </si>
 </sst>
 </file>
@@ -2733,21 +2736,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C117" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.26171875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.26171875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="35.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>451</v>
       </c>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -3073,6 +3076,9 @@
       <c r="D17" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>239</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>105</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>88</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>89</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>90</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>99</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>122</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>133</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>130</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>49</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>131</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>132</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
         <v>18</v>
       </c>
@@ -4658,7 +4664,7 @@
       </c>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
         <v>79</v>
       </c>
@@ -4670,7 +4676,7 @@
       </c>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>31</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -4787,7 +4793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
@@ -4813,7 +4819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3" t="s">
         <v>95</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3" t="s">
         <v>23</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3" t="s">
         <v>32</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>80</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>10</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
@@ -5004,7 +5010,7 @@
       </c>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3" t="s">
         <v>9</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3" t="s">
         <v>9</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3" t="s">
         <v>160</v>
       </c>
@@ -5057,6 +5063,9 @@
       </c>
       <c r="D130" s="3" t="s">
         <v>318</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="10">
@@ -5069,7 +5078,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3" t="s">
         <v>308</v>
       </c>
@@ -5112,7 +5121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3" t="s">
         <v>310</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3" t="s">
         <v>313</v>
       </c>
@@ -5163,7 +5172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3" t="s">
         <v>314</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
         <v>309</v>
       </c>
@@ -5213,7 +5222,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
         <v>324</v>
       </c>
@@ -5239,7 +5248,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
         <v>326</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3" t="s">
         <v>330</v>
       </c>
@@ -5288,7 +5297,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>330</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>333</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>334</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>336</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
         <v>340</v>
       </c>
@@ -5367,7 +5376,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>343</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="s">
         <v>344</v>
       </c>
@@ -5398,7 +5407,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>98</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>347</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>350</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>352</v>
       </c>
@@ -5452,7 +5461,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>355</v>
       </c>
@@ -5476,7 +5485,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="s">
         <v>356</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>357</v>
       </c>
@@ -5513,7 +5522,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>358</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>359</v>
       </c>
@@ -5535,7 +5544,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4" t="s">
         <v>361</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>363</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>364</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3" t="s">
         <v>366</v>
       </c>
@@ -5598,7 +5607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>369</v>
       </c>
@@ -5609,7 +5618,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>370</v>
       </c>
@@ -5620,7 +5629,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3" t="s">
         <v>371</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>374</v>
       </c>
@@ -5652,7 +5661,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>375</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3" t="s">
         <v>376</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>376</v>
       </c>
@@ -5701,7 +5710,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="4" t="s">
         <v>380</v>
       </c>
@@ -5724,7 +5733,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3" t="s">
         <v>383</v>
       </c>
@@ -5745,7 +5754,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="4" t="s">
         <v>387</v>
       </c>
@@ -5768,7 +5777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="4" t="s">
         <v>388</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="4" t="s">
         <v>391</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>392</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="4" t="s">
         <v>394</v>
       </c>
@@ -5848,7 +5857,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3" t="s">
         <v>398</v>
       </c>
@@ -5874,7 +5883,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>401</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3" t="s">
         <v>402</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>404</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>406</v>
       </c>
@@ -5921,7 +5930,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3" t="s">
         <v>407</v>
       </c>
@@ -5944,7 +5953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="180" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3" t="s">
         <v>410</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>414</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3" t="s">
         <v>418</v>
       </c>
@@ -6004,7 +6013,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>421</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>422</v>
       </c>
@@ -6028,7 +6037,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>424</v>
       </c>
@@ -6036,7 +6045,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3" t="s">
         <v>426</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3" t="s">
         <v>430</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>431</v>
       </c>
@@ -6096,7 +6105,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>434</v>
       </c>
@@ -6104,7 +6113,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>435</v>
       </c>
@@ -6112,7 +6121,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3" t="s">
         <v>438</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>97</v>
       </c>
@@ -6144,7 +6153,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>97</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3" t="s">
         <v>97</v>
       </c>
@@ -6178,7 +6187,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -6192,7 +6201,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>168</v>
       </c>
@@ -6203,7 +6212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3" t="s">
         <v>242</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -6238,7 +6247,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>261</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>262</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>457</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>458</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>459</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>460</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="3" t="s">
         <v>461</v>
       </c>
@@ -6336,7 +6345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="3" t="s">
         <v>462</v>
       </c>
@@ -6354,7 +6363,7 @@
       </c>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="3" t="s">
         <v>463</v>
       </c>
@@ -6380,7 +6389,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="3" t="s">
         <v>464</v>
       </c>
@@ -6406,7 +6415,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>465</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -6428,7 +6437,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="213" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="3" t="s">
         <v>467</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>468</v>
       </c>
@@ -6463,7 +6472,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="3" t="s">
         <v>469</v>
       </c>
@@ -6487,7 +6496,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="3" t="s">
         <v>470</v>
       </c>
@@ -6513,7 +6522,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:10" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="3" t="s">
         <v>471</v>
       </c>
@@ -6539,7 +6548,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>472</v>
       </c>
@@ -6550,7 +6559,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="3" t="s">
         <v>473</v>
       </c>
@@ -6576,7 +6585,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>474</v>
       </c>
@@ -6587,7 +6596,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>475</v>
       </c>
@@ -6601,7 +6610,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="3" t="s">
         <v>476</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>477</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>478</v>
       </c>
@@ -6649,7 +6658,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="3" t="s">
         <v>479</v>
       </c>
@@ -6675,7 +6684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>480</v>
       </c>
@@ -6689,7 +6698,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>481</v>
       </c>
@@ -6700,7 +6709,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="228" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="3" t="s">
         <v>482</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>483</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>484</v>
       </c>
@@ -6748,7 +6757,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>485</v>
       </c>
@@ -6759,7 +6768,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>486</v>
       </c>
@@ -6770,7 +6779,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>487</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>488</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>489</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="3" t="s">
         <v>490</v>
       </c>
@@ -6832,7 +6841,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="3" t="s">
         <v>491</v>
       </c>
@@ -6858,7 +6867,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="3" t="s">
         <v>492</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>493</v>
       </c>
@@ -6898,7 +6907,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>494</v>
       </c>
@@ -6909,7 +6918,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>495</v>
       </c>
@@ -6920,7 +6929,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>496</v>
       </c>
@@ -6931,7 +6940,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="3" t="s">
         <v>497</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>498</v>
       </c>
@@ -6968,7 +6977,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>499</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>500</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>502</v>
       </c>
@@ -7012,7 +7021,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>503</v>
       </c>
@@ -7023,7 +7032,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>504</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>505</v>
       </c>
@@ -7045,7 +7054,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>506</v>
       </c>
@@ -7056,7 +7065,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>507</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>508</v>
       </c>
@@ -7078,7 +7087,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="3" t="s">
         <v>509</v>
       </c>
@@ -7104,7 +7113,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -7148,7 +7157,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>514</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>515</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>516</v>
       </c>
@@ -7181,7 +7190,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="3" t="s">
         <v>517</v>
       </c>
@@ -7205,7 +7214,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="264" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="3" t="s">
         <v>518</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="3" t="s">
         <v>519</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="3" t="s">
         <v>520</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>521</v>
       </c>
@@ -7294,7 +7303,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>522</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>523</v>
       </c>
@@ -7316,7 +7325,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>524</v>
       </c>
@@ -7330,7 +7339,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="3" t="s">
         <v>525</v>
       </c>
@@ -7353,7 +7362,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>526</v>
       </c>
@@ -7364,7 +7373,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>527</v>
       </c>
@@ -7375,7 +7384,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="274" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="3" t="s">
         <v>528</v>
       </c>
@@ -7401,7 +7410,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>529</v>
       </c>
@@ -7412,7 +7421,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>530</v>
       </c>
@@ -7423,7 +7432,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>531</v>
       </c>
@@ -7434,7 +7443,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>532</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>533</v>
       </c>
@@ -7456,7 +7465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>534</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>535</v>
       </c>
@@ -7478,7 +7487,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>536</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3" t="s">
         <v>537</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>538</v>
       </c>
@@ -7526,7 +7535,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>539</v>
       </c>
@@ -7537,7 +7546,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>540</v>
       </c>
@@ -7548,7 +7557,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="3" t="s">
         <v>541</v>
       </c>
@@ -7574,7 +7583,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>542</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>543</v>
       </c>
@@ -7599,7 +7608,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="3" t="s">
         <v>544</v>
       </c>
@@ -7625,7 +7634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>545</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="3" t="s">
         <v>546</v>
       </c>
@@ -7662,7 +7671,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>547</v>
       </c>
@@ -7673,7 +7682,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="3" t="s">
         <v>548</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>549</v>
       </c>
@@ -7708,7 +7717,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>550</v>
       </c>
@@ -7719,7 +7728,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>551</v>
       </c>
@@ -7730,7 +7739,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>552</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>553</v>
       </c>
@@ -7752,7 +7761,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>554</v>
       </c>
@@ -7763,7 +7772,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>555</v>
       </c>
@@ -7774,7 +7783,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>556</v>
       </c>
@@ -7785,7 +7794,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="3" t="s">
         <v>557</v>
       </c>
@@ -7809,7 +7818,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>558</v>
       </c>
@@ -7820,7 +7829,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="305" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="3" t="s">
         <v>559</v>
       </c>
@@ -7844,7 +7853,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>560</v>
       </c>
@@ -7855,7 +7864,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>561</v>
       </c>
@@ -7866,7 +7875,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>562</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="3" t="s">
         <v>563</v>
       </c>
@@ -7901,7 +7910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>564</v>
       </c>
@@ -7915,7 +7924,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="311" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="3" t="s">
         <v>565</v>
       </c>
@@ -7939,7 +7948,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>566</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="313" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="3" t="s">
         <v>261</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="314" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="3" t="s">
         <v>567</v>
       </c>
@@ -7994,7 +8003,7 @@
       </c>
       <c r="H314" s="10"/>
     </row>
-    <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>568</v>
       </c>
@@ -8005,7 +8014,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="316" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="3" t="s">
         <v>569</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>570</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="318" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="3" t="s">
         <v>571</v>
       </c>
@@ -8068,7 +8077,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="319" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="3" t="s">
         <v>572</v>
       </c>
@@ -8092,7 +8101,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="320" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="3" t="s">
         <v>677</v>
       </c>
@@ -8118,7 +8127,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>678</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" s="4" custom